--- a/Bancos/excel_detallado.xlsx
+++ b/Bancos/excel_detallado.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4284" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4284" uniqueCount="585">
   <si>
     <t>Fecha de transacción</t>
   </si>
@@ -93,13 +93,13 @@
     <t>Nº de tarjeta</t>
   </si>
   <si>
-    <t>14:23</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752241052842489</t>
-  </si>
-  <si>
-    <t>201423044529</t>
+    <t>14:10</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751896207282940</t>
+  </si>
+  <si>
+    <t>120425647850</t>
   </si>
   <si>
     <t>TRANSFERENCIA</t>
@@ -108,652 +108,1423 @@
     <t/>
   </si>
   <si>
+    <t>Transferencia recibida de INVERSIONES UF SpA</t>
+  </si>
+  <si>
+    <t>INVERSIONES UF SpA</t>
+  </si>
+  <si>
+    <t>78035119-5</t>
+  </si>
+  <si>
+    <t>00000000000158124303</t>
+  </si>
+  <si>
+    <t>Cuenta corriente</t>
+  </si>
+  <si>
+    <t>Banco de Chile</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751896231977720</t>
+  </si>
+  <si>
+    <t>001819770639</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de R2 INVERSIONES SPA</t>
+  </si>
+  <si>
+    <t>R2 INVERSIONES SPA</t>
+  </si>
+  <si>
+    <t>77694222-7</t>
+  </si>
+  <si>
+    <t>00000000000091167484</t>
+  </si>
+  <si>
+    <t>Banco Santander</t>
+  </si>
+  <si>
+    <t>13:38</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751898136650381</t>
+  </si>
+  <si>
+    <t>13400779</t>
+  </si>
+  <si>
+    <t>Transferencia enviada a FERNANDO MARCELO FRIAS CAVADA</t>
+  </si>
+  <si>
+    <t>FERNANDO MARCELO FRIAS CAVADA</t>
+  </si>
+  <si>
+    <t>8276442-9</t>
+  </si>
+  <si>
+    <t>37831968</t>
+  </si>
+  <si>
+    <t>Banco Bci</t>
+  </si>
+  <si>
+    <t>fermaf@gmail.com</t>
+  </si>
+  <si>
+    <t>13:34</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751898405589465</t>
+  </si>
+  <si>
+    <t>13400276</t>
+  </si>
+  <si>
+    <t>Transferencia enviada a SUSANA BETSABE BETANCOURT MIJARES</t>
+  </si>
+  <si>
+    <t>SUSANA BETSABE BETANCOURT MIJARES</t>
+  </si>
+  <si>
+    <t>27262710-K</t>
+  </si>
+  <si>
+    <t>000000111127262710</t>
+  </si>
+  <si>
+    <t>13:32</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751898509143516</t>
+  </si>
+  <si>
+    <t>13400127</t>
+  </si>
+  <si>
+    <t>Transferencia enviada a Danexi García</t>
+  </si>
+  <si>
+    <t>Danexi García</t>
+  </si>
+  <si>
+    <t>25861439-9</t>
+  </si>
+  <si>
+    <t>000000000087233642</t>
+  </si>
+  <si>
+    <t>danexi_garcia@icloud.com</t>
+  </si>
+  <si>
+    <t>13:14</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751899576548559</t>
+  </si>
+  <si>
+    <t>1030955064</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de ERIK REY CORDERO</t>
+  </si>
+  <si>
+    <t>ERIK REY CORDERO</t>
+  </si>
+  <si>
+    <t>26216519-1</t>
+  </si>
+  <si>
+    <t>67233953</t>
+  </si>
+  <si>
+    <t>Cuenta prima</t>
+  </si>
+  <si>
+    <t>Sin mensaje</t>
+  </si>
+  <si>
+    <t>13:00</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751900421662740</t>
+  </si>
+  <si>
+    <t>13396291</t>
+  </si>
+  <si>
+    <t>Transferencia enviada a JOEL LUCAS MARISCAL</t>
+  </si>
+  <si>
+    <t>JOEL LUCAS MARISCAL</t>
+  </si>
+  <si>
+    <t>28460080-0</t>
+  </si>
+  <si>
+    <t>000000777928460080</t>
+  </si>
+  <si>
+    <t>12:58</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751900549201700</t>
+  </si>
+  <si>
+    <t>241258012919</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de ? JOTAS Y RODRIGUEZ SPA</t>
+  </si>
+  <si>
+    <t>? JOTAS Y RODRIGUEZ SPA</t>
+  </si>
+  <si>
+    <t>77218613-4</t>
+  </si>
+  <si>
+    <t>00000000029170786317</t>
+  </si>
+  <si>
+    <t>Banco Estado</t>
+  </si>
+  <si>
+    <t>12:55</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751900735365869</t>
+  </si>
+  <si>
+    <t>903194598042</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de CARLOS ALFREDO SAYAGO DURAN</t>
+  </si>
+  <si>
+    <t>CARLOS ALFREDO SAYAGO DURAN</t>
+  </si>
+  <si>
+    <t>27809753-6</t>
+  </si>
+  <si>
+    <t>00000000015660106819</t>
+  </si>
+  <si>
+    <t>Banco Falabella</t>
+  </si>
+  <si>
+    <t>12:54</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751900795499514</t>
+  </si>
+  <si>
+    <t>13395467</t>
+  </si>
+  <si>
+    <t>12:52</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751900931811453</t>
+  </si>
+  <si>
+    <t>241251000442</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de VILLALOBOS REYES ZULIMAR DEL C</t>
+  </si>
+  <si>
+    <t>VILLALOBOS REYES ZULIMAR DEL C</t>
+  </si>
+  <si>
+    <t>26862770-7</t>
+  </si>
+  <si>
+    <t>00000000052100281287</t>
+  </si>
+  <si>
+    <t>12:45</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751901314030005</t>
+  </si>
+  <si>
+    <t>000110647551</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de Juan Carlos Valero Semprun</t>
+  </si>
+  <si>
+    <t>Juan Carlos Valero Semprun</t>
+  </si>
+  <si>
+    <t>27135781-8</t>
+  </si>
+  <si>
+    <t>00000000001024078842</t>
+  </si>
+  <si>
+    <t>12:14</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751903201306321</t>
+  </si>
+  <si>
+    <t>120424925660</t>
+  </si>
+  <si>
+    <t>12:13</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751903262282471</t>
+  </si>
+  <si>
+    <t>241213028179</t>
+  </si>
+  <si>
+    <t>12:04</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751903782472476</t>
+  </si>
+  <si>
+    <t>13388229</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de DAED MY SHOP COMPANY SPA</t>
+  </si>
+  <si>
+    <t>DAED MY SHOP COMPANY SPA</t>
+  </si>
+  <si>
+    <t>77649923-4</t>
+  </si>
+  <si>
+    <t>000089318480</t>
+  </si>
+  <si>
+    <t>BANCO DE CREDITO E INVERSIONES</t>
+  </si>
+  <si>
+    <t>11:59</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751904103577531</t>
+  </si>
+  <si>
+    <t>241159002043</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de AGUIRRE NOGUERA ELEANNY DISIRE</t>
+  </si>
+  <si>
+    <t>AGUIRRE NOGUERA ELEANNY DISIRE</t>
+  </si>
+  <si>
+    <t>27864382-4</t>
+  </si>
+  <si>
+    <t>00000000035700028117</t>
+  </si>
+  <si>
+    <t>11:52</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751904493151192</t>
+  </si>
+  <si>
+    <t>001819652407</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de DAED COMPANY SPA</t>
+  </si>
+  <si>
+    <t>DAED COMPANY SPA</t>
+  </si>
+  <si>
+    <t>77973414-5</t>
+  </si>
+  <si>
+    <t>00000000000094954860</t>
+  </si>
+  <si>
+    <t>11:42</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751905081380286</t>
+  </si>
+  <si>
+    <t>241142071589</t>
+  </si>
+  <si>
+    <t>11:24</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751906185076957</t>
+  </si>
+  <si>
+    <t>001819629134</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de ALVARO JOSE QUINTERO MONSALVE</t>
+  </si>
+  <si>
+    <t>ALVARO JOSE QUINTERO MONSALVE</t>
+  </si>
+  <si>
+    <t>26418642-0</t>
+  </si>
+  <si>
+    <t>00000000000078030410</t>
+  </si>
+  <si>
+    <t>10:59</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751907655360448</t>
+  </si>
+  <si>
+    <t>000257529633</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de HERDES LIZARDI MARTINEZ</t>
+  </si>
+  <si>
+    <t>HERDES LIZARDI MARTINEZ</t>
+  </si>
+  <si>
+    <t>26476510-2</t>
+  </si>
+  <si>
+    <t>00000000004011227863</t>
+  </si>
+  <si>
+    <t>Banco Ripley</t>
+  </si>
+  <si>
+    <t>10:55</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751907904549231</t>
+  </si>
+  <si>
+    <t>246055038076</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de CENTENO GIL MIGUELANGEL JOSE</t>
+  </si>
+  <si>
+    <t>CENTENO GIL MIGUELANGEL JOSE</t>
+  </si>
+  <si>
+    <t>26879061-6</t>
+  </si>
+  <si>
+    <t>00000000000026879061</t>
+  </si>
+  <si>
+    <t>10:50</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751908246031038</t>
+  </si>
+  <si>
+    <t>000110616681</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de Yaimelith Vargas Pellicer</t>
+  </si>
+  <si>
+    <t>Yaimelith Vargas Pellicer</t>
+  </si>
+  <si>
+    <t>25289617-1</t>
+  </si>
+  <si>
+    <t>00000000001019409648</t>
+  </si>
+  <si>
+    <t>10:46</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751908457560943</t>
+  </si>
+  <si>
+    <t>001819598089</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751908468796103</t>
+  </si>
+  <si>
+    <t>241046068870</t>
+  </si>
+  <si>
+    <t>00000000002573425700</t>
+  </si>
+  <si>
+    <t>10:38</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751908974355043</t>
+  </si>
+  <si>
+    <t>479719084917</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de MIGUEL ANGEL FUENTES GIMENEZ</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL FUENTES GIMENEZ</t>
+  </si>
+  <si>
+    <t>26364429-8</t>
+  </si>
+  <si>
+    <t>00000000015842284090</t>
+  </si>
+  <si>
+    <t>10:26</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751909638608475</t>
+  </si>
+  <si>
+    <t>000112138918</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de CORPORACION DB SPA</t>
+  </si>
+  <si>
+    <t>CORPORACION DB SPA</t>
+  </si>
+  <si>
+    <t>77702738-7</t>
+  </si>
+  <si>
+    <t>00000000001090576781</t>
+  </si>
+  <si>
+    <t>10:23</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751909860555651</t>
+  </si>
+  <si>
+    <t>399725237598</t>
+  </si>
+  <si>
+    <t>10:17</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751910227333960</t>
+  </si>
+  <si>
+    <t>13373562</t>
+  </si>
+  <si>
+    <t>Transferencia enviada a FRANCISCO JAVIER RAMIREZ ZAMBRANO</t>
+  </si>
+  <si>
+    <t>FRANCISCO JAVIER RAMIREZ ZAMBRANO</t>
+  </si>
+  <si>
+    <t>27126081-4</t>
+  </si>
+  <si>
+    <t>000000019999793829</t>
+  </si>
+  <si>
+    <t>10:12</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751910475838345</t>
+  </si>
+  <si>
+    <t>13373067</t>
+  </si>
+  <si>
+    <t>Transferencia enviada a MARIO ANDRES HENRIQUEZ</t>
+  </si>
+  <si>
+    <t>MARIO ANDRES HENRIQUEZ</t>
+  </si>
+  <si>
+    <t>19296597-7</t>
+  </si>
+  <si>
+    <t>000000777919296597</t>
+  </si>
+  <si>
+    <t>mariohenriquezreyes@gmail.com</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751910486081851</t>
+  </si>
+  <si>
+    <t>120423224330</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de Yaimelith Vargas</t>
+  </si>
+  <si>
+    <t>Yaimelith Vargas</t>
+  </si>
+  <si>
+    <t>00000000000010522083</t>
+  </si>
+  <si>
+    <t>10:08</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751910721824549</t>
+  </si>
+  <si>
+    <t>13372566</t>
+  </si>
+  <si>
+    <t>Transferencia enviada a Andrés Iturra</t>
+  </si>
+  <si>
+    <t>Andrés Iturra</t>
+  </si>
+  <si>
+    <t>16371118-4</t>
+  </si>
+  <si>
+    <t>000000777916371118</t>
+  </si>
+  <si>
+    <t>aeiturra@gmail.com</t>
+  </si>
+  <si>
+    <t>10:02</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751911109009788</t>
+  </si>
+  <si>
+    <t>13371759</t>
+  </si>
+  <si>
+    <t>Transferencia enviada a FELIPE EDUARDO RUBILAR</t>
+  </si>
+  <si>
+    <t>FELIPE EDUARDO RUBILAR</t>
+  </si>
+  <si>
+    <t>17962342-0</t>
+  </si>
+  <si>
+    <t>000000002653098388</t>
+  </si>
+  <si>
+    <t>Banco Scotiabank</t>
+  </si>
+  <si>
+    <t>09:57</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751911409949902</t>
+  </si>
+  <si>
+    <t>001819562658</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de INVERSIONES AR SPA</t>
+  </si>
+  <si>
+    <t>INVERSIONES AR SPA</t>
+  </si>
+  <si>
+    <t>77653656-3</t>
+  </si>
+  <si>
+    <t>00000000000088795202</t>
+  </si>
+  <si>
+    <t>09:56</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751911457070807</t>
+  </si>
+  <si>
+    <t>000041785025</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de ASTRID JARIANNY LABARCA MORAN</t>
+  </si>
+  <si>
+    <t>ASTRID JARIANNY LABARCA MORAN</t>
+  </si>
+  <si>
+    <t>27036860-3</t>
+  </si>
+  <si>
+    <t>00000000111127036860</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751911487375300</t>
+  </si>
+  <si>
+    <t>001819561593</t>
+  </si>
+  <si>
+    <t>09:55</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751911551440793</t>
+  </si>
+  <si>
+    <t>13370753</t>
+  </si>
+  <si>
+    <t>Transferencia enviada a SOLORZANO SILES JUAN PABLO ALVARO</t>
+  </si>
+  <si>
+    <t>SOLORZANO SILES JUAN PABLO ALVARO</t>
+  </si>
+  <si>
+    <t>25113244-5</t>
+  </si>
+  <si>
+    <t>000000019832063459</t>
+  </si>
+  <si>
+    <t>09:48</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751911944972190</t>
+  </si>
+  <si>
+    <t>001819556064</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de VITAL SERVIC RP SPA</t>
+  </si>
+  <si>
+    <t>VITAL SERVIC RP SPA</t>
+  </si>
+  <si>
+    <t>78048629-5</t>
+  </si>
+  <si>
+    <t>00000000000096150040</t>
+  </si>
+  <si>
+    <t>09:34</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751912806507895</t>
+  </si>
+  <si>
+    <t>13368402</t>
+  </si>
+  <si>
+    <t>Transferencia enviada a Senna Spa</t>
+  </si>
+  <si>
+    <t>Senna Spa</t>
+  </si>
+  <si>
+    <t>77069616-K</t>
+  </si>
+  <si>
+    <t>46741437</t>
+  </si>
+  <si>
+    <t>08:20</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751917227114169</t>
+  </si>
+  <si>
+    <t>240820029246</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de SERVICIOS MYG SPA</t>
+  </si>
+  <si>
+    <t>SERVICIOS MYG SPA</t>
+  </si>
+  <si>
+    <t>77418244-6</t>
+  </si>
+  <si>
+    <t>00000000090270531317</t>
+  </si>
+  <si>
+    <t>01:56</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751940254786849</t>
+  </si>
+  <si>
+    <t>572196390893</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de MARCEL POLANCO HILARIO</t>
+  </si>
+  <si>
+    <t>MARCEL POLANCO HILARIO</t>
+  </si>
+  <si>
+    <t>25308009-4</t>
+  </si>
+  <si>
+    <t>00000000019800770632</t>
+  </si>
+  <si>
+    <t>23:31</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751948969456866</t>
+  </si>
+  <si>
+    <t>232331043596</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de MAVAREZ NUNEZ JACKELINE ADRIAN</t>
+  </si>
+  <si>
+    <t>MAVAREZ NUNEZ JACKELINE ADRIAN</t>
+  </si>
+  <si>
+    <t>26679882-2</t>
+  </si>
+  <si>
+    <t>00000000031500019444</t>
+  </si>
+  <si>
+    <t>21:55</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751954720246766</t>
+  </si>
+  <si>
+    <t>000257475663</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de NATHALIA PRIETO VELASCO</t>
+  </si>
+  <si>
+    <t>NATHALIA PRIETO VELASCO</t>
+  </si>
+  <si>
+    <t>26863537-8</t>
+  </si>
+  <si>
+    <t>00000000004011735744</t>
+  </si>
+  <si>
+    <t>21:47</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751955211675488</t>
+  </si>
+  <si>
+    <t>000112057388</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de Fernando Ramon Rincon Marquez</t>
+  </si>
+  <si>
+    <t>Fernando Ramon Rincon Marquez</t>
+  </si>
+  <si>
+    <t>25972737-5</t>
+  </si>
+  <si>
+    <t>00000000001030923149</t>
+  </si>
+  <si>
+    <t>21:29</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751956309391985</t>
+  </si>
+  <si>
+    <t>733020534284</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de FERNANDO RAMON RINCON MARQUEZ</t>
+  </si>
+  <si>
+    <t>FERNANDO RAMON RINCON MARQUEZ</t>
+  </si>
+  <si>
+    <t>00000000777925972737</t>
+  </si>
+  <si>
+    <t>21:18</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751956925297259</t>
+  </si>
+  <si>
+    <t>001819390682</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de INVERSIONES J&amp;P SPA</t>
+  </si>
+  <si>
+    <t>INVERSIONES J&amp;P SPA</t>
+  </si>
+  <si>
+    <t>77968832-1</t>
+  </si>
+  <si>
+    <t>00000000000097012040</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751956939353685</t>
+  </si>
+  <si>
+    <t>000016759868</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de INVERSIONESRYM SPA</t>
+  </si>
+  <si>
+    <t>INVERSIONESRYM SPA</t>
+  </si>
+  <si>
+    <t>78044797-4</t>
+  </si>
+  <si>
+    <t>00000000000178044797</t>
+  </si>
+  <si>
+    <t>21:14</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751957210730829</t>
+  </si>
+  <si>
+    <t>000112047480</t>
+  </si>
+  <si>
+    <t>21:12</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751957299264462</t>
+  </si>
+  <si>
+    <t>232112017580</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de PIRELA HERRERA JHON CARLO</t>
+  </si>
+  <si>
+    <t>PIRELA HERRERA JHON CARLO</t>
+  </si>
+  <si>
+    <t>27499320-0</t>
+  </si>
+  <si>
+    <t>00000000032400046556</t>
+  </si>
+  <si>
+    <t>21:09</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751957459034472</t>
+  </si>
+  <si>
+    <t>000112048896</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de Servicios mg</t>
+  </si>
+  <si>
+    <t>Servicios mg</t>
+  </si>
+  <si>
+    <t>77429393-0</t>
+  </si>
+  <si>
+    <t>00000000001001823865</t>
+  </si>
+  <si>
+    <t>20:44</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751959011931473</t>
+  </si>
+  <si>
+    <t>808917823820</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de MARIA NELLY ROJAS MARIN</t>
+  </si>
+  <si>
+    <t>MARIA NELLY ROJAS MARIN</t>
+  </si>
+  <si>
+    <t>26919327-1</t>
+  </si>
+  <si>
+    <t>00000000777926919327</t>
+  </si>
+  <si>
+    <t>19:58</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751961731206275</t>
+  </si>
+  <si>
+    <t>120418164500</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de Heber Gerdenson Campos</t>
+  </si>
+  <si>
+    <t>Heber Gerdenson Campos</t>
+  </si>
+  <si>
+    <t>26392450-9</t>
+  </si>
+  <si>
+    <t>00000000008011636608</t>
+  </si>
+  <si>
+    <t>19:20</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751964018000611</t>
+  </si>
+  <si>
+    <t>120417718310</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de Jesibel Margarita Inci</t>
+  </si>
+  <si>
+    <t>Jesibel Margarita Inci</t>
+  </si>
+  <si>
+    <t>26010695-3</t>
+  </si>
+  <si>
+    <t>00000000000011122222</t>
+  </si>
+  <si>
+    <t>19:02</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751965088617025</t>
+  </si>
+  <si>
+    <t>000110469463</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de ZONA ROSA SPA</t>
+  </si>
+  <si>
+    <t>ZONA ROSA SPA</t>
+  </si>
+  <si>
+    <t>78089699-K</t>
+  </si>
+  <si>
+    <t>00000000001083642129</t>
+  </si>
+  <si>
+    <t>18:57</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751965386236156</t>
+  </si>
+  <si>
+    <t>231857027266</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751965410076514</t>
+  </si>
+  <si>
+    <t>13350403</t>
+  </si>
+  <si>
+    <t>18:56</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751965457091890</t>
+  </si>
+  <si>
+    <t>001819306575</t>
+  </si>
+  <si>
+    <t>18:12</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751968079251183</t>
+  </si>
+  <si>
+    <t>057404520146</t>
+  </si>
+  <si>
+    <t>17:53</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751969223315921</t>
+  </si>
+  <si>
+    <t>231753018017</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de SERVICIOS TECNOLOGICOS SAN CRI</t>
+  </si>
+  <si>
+    <t>SERVICIOS TECNOLOGICOS SAN CRI</t>
+  </si>
+  <si>
+    <t>77469173-1</t>
+  </si>
+  <si>
+    <t>00000000035571462514</t>
+  </si>
+  <si>
+    <t>17:23</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751971072794281</t>
+  </si>
+  <si>
+    <t>001819239934</t>
+  </si>
+  <si>
+    <t>16:36</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751973863756359</t>
+  </si>
+  <si>
+    <t>231636091549</t>
+  </si>
+  <si>
+    <t>15:11</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751978978295245</t>
+  </si>
+  <si>
+    <t>120414391120</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de Junior Jos?eacute? Vis</t>
+  </si>
+  <si>
+    <t>Junior Jos?eacute? Vis</t>
+  </si>
+  <si>
+    <t>25622517-4</t>
+  </si>
+  <si>
+    <t>00000000001622855704</t>
+  </si>
+  <si>
+    <t>15:03</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751979419636624</t>
+  </si>
+  <si>
+    <t>001819139572</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de JOSSELINE DEL CARMEN RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>JOSSELINE DEL CARMEN RODRIGUEZ</t>
+  </si>
+  <si>
+    <t>26250800-5</t>
+  </si>
+  <si>
+    <t>00000000000091176157</t>
+  </si>
+  <si>
+    <t>15:01</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751979560065362</t>
+  </si>
+  <si>
+    <t>120414156370</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de R?b Supply Spa</t>
+  </si>
+  <si>
+    <t>R?b Supply Spa</t>
+  </si>
+  <si>
+    <t>77147473-K</t>
+  </si>
+  <si>
+    <t>00000000001851256907</t>
+  </si>
+  <si>
+    <t>14:58</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751979765125117</t>
+  </si>
+  <si>
+    <t>231458039834</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de INNOVACIONES TECNOLOGICAS NOAH</t>
+  </si>
+  <si>
+    <t>INNOVACIONES TECNOLOGICAS NOAH</t>
+  </si>
+  <si>
+    <t>78049152-3</t>
+  </si>
+  <si>
+    <t>00000000090276560181</t>
+  </si>
+  <si>
+    <t>14:34</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751981188798950</t>
+  </si>
+  <si>
+    <t>187169781208</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de JOSLEIDY DEL CARMEN GONZALEZ U</t>
+  </si>
+  <si>
+    <t>JOSLEIDY DEL CARMEN GONZALEZ U</t>
+  </si>
+  <si>
+    <t>27276401-8</t>
+  </si>
+  <si>
+    <t>00000000019831718870</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751982634370728</t>
+  </si>
+  <si>
+    <t>955482569520</t>
+  </si>
+  <si>
+    <t>14:08</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751982716047842</t>
+  </si>
+  <si>
+    <t>236408027315</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de LANDINEZ LANDINEZ MARDIOLY EST</t>
+  </si>
+  <si>
+    <t>LANDINEZ LANDINEZ MARDIOLY EST</t>
+  </si>
+  <si>
+    <t>26891028-K</t>
+  </si>
+  <si>
+    <t>00000000000026891028</t>
+  </si>
+  <si>
+    <t>13:56</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751983474793756</t>
+  </si>
+  <si>
+    <t>001819092511</t>
+  </si>
+  <si>
+    <t>13:41</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751984338400098</t>
+  </si>
+  <si>
+    <t>13321375</t>
+  </si>
+  <si>
+    <t>13:37</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751984627804014</t>
+  </si>
+  <si>
+    <t>236337059267</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de HILARIO HERNANDEZ ELVA MARIA</t>
+  </si>
+  <si>
+    <t>HILARIO HERNANDEZ ELVA MARIA</t>
+  </si>
+  <si>
+    <t>24253062-4</t>
+  </si>
+  <si>
+    <t>00000000000024253062</t>
+  </si>
+  <si>
+    <t>13:30</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751985031902890</t>
+  </si>
+  <si>
+    <t>1030548854</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de MANUEL ALEJANDRO PONCELEON AVENDANO</t>
+  </si>
+  <si>
+    <t>MANUEL ALEJANDRO PONCELEON AVENDANO</t>
+  </si>
+  <si>
+    <t>25036561-6</t>
+  </si>
+  <si>
+    <t>27934845</t>
+  </si>
+  <si>
+    <t>13:22</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751985513613778</t>
+  </si>
+  <si>
+    <t>231322085506</t>
+  </si>
+  <si>
+    <t>13:15</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751985913915598</t>
+  </si>
+  <si>
+    <t>231315073622</t>
+  </si>
+  <si>
+    <t>13:10</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751986227412416</t>
+  </si>
+  <si>
+    <t>001819056176</t>
+  </si>
+  <si>
+    <t>12:47</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751987588034675</t>
+  </si>
+  <si>
+    <t>120412314820</t>
+  </si>
+  <si>
+    <t>12:43</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751987836165916</t>
+  </si>
+  <si>
+    <t>001819033529</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de CARLOS ANTONIO GARCIA OVIEDO</t>
+  </si>
+  <si>
+    <t>CARLOS ANTONIO GARCIA OVIEDO</t>
+  </si>
+  <si>
+    <t>26434851-K</t>
+  </si>
+  <si>
+    <t>00000000000084327883</t>
+  </si>
+  <si>
+    <t>12:33</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751988443696903</t>
+  </si>
+  <si>
+    <t>231233000319</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751989637661786</t>
+  </si>
+  <si>
+    <t>236213048102</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de LABARCA MORAN AIBELIN YORLITH</t>
+  </si>
+  <si>
+    <t>LABARCA MORAN AIBELIN YORLITH</t>
+  </si>
+  <si>
+    <t>25311831-8</t>
+  </si>
+  <si>
+    <t>00000000000025311831</t>
+  </si>
+  <si>
+    <t>12:05</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751990108921965</t>
+  </si>
+  <si>
+    <t>231205054156</t>
+  </si>
+  <si>
     <t>Transferencia recibida de INVERSIONES UF SPA</t>
   </si>
   <si>
     <t>INVERSIONES UF SPA</t>
   </si>
   <si>
-    <t>78035119-5</t>
-  </si>
-  <si>
     <t>00000000023572326551</t>
   </si>
   <si>
-    <t>Cuenta corriente</t>
-  </si>
-  <si>
-    <t>Banco Estado</t>
-  </si>
-  <si>
-    <t>14:12</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752241681547874</t>
-  </si>
-  <si>
-    <t>120378257960</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de Junior Jos?eacute? Vis</t>
-  </si>
-  <si>
-    <t>Junior Jos?eacute? Vis</t>
-  </si>
-  <si>
-    <t>25622517-4</t>
-  </si>
-  <si>
-    <t>00000000001622855704</t>
-  </si>
-  <si>
-    <t>Banco de Chile</t>
-  </si>
-  <si>
-    <t>13:57</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752242577429852</t>
-  </si>
-  <si>
-    <t>000000015958</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de RONALD ENRIQUE PORRAS PEREZ</t>
-  </si>
-  <si>
-    <t>RONALD ENRIQUE PORRAS PEREZ</t>
-  </si>
-  <si>
-    <t>25814086-9</t>
-  </si>
-  <si>
-    <t>00000000004011109231</t>
-  </si>
-  <si>
-    <t>Banco Consorcio</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752242602215600</t>
-  </si>
-  <si>
-    <t>201357007887</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de ? JOTAS Y RODRIGUEZ SPA</t>
-  </si>
-  <si>
-    <t>? JOTAS Y RODRIGUEZ SPA</t>
-  </si>
-  <si>
-    <t>77218613-4</t>
-  </si>
-  <si>
-    <t>00000000029170786317</t>
-  </si>
-  <si>
-    <t>13:56</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752242648810591</t>
-  </si>
-  <si>
-    <t>201356006801</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de RODRIGUEZ ZAMBRANO JOSE GREGOR</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ ZAMBRANO JOSE GREGOR</t>
-  </si>
-  <si>
-    <t>27034397-K</t>
-  </si>
-  <si>
-    <t>00000000005400036456</t>
-  </si>
-  <si>
-    <t>13:15</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752245119163648</t>
-  </si>
-  <si>
-    <t>120377615440</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de INVERSIONES UF SpA</t>
-  </si>
-  <si>
-    <t>INVERSIONES UF SpA</t>
-  </si>
-  <si>
-    <t>00000000000158124303</t>
-  </si>
-  <si>
-    <t>13:10</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752245452801369</t>
-  </si>
-  <si>
-    <t>001817168272</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de PLUS SERVICIOS GENERALES SPA</t>
-  </si>
-  <si>
-    <t>PLUS SERVICIOS GENERALES SPA</t>
-  </si>
-  <si>
-    <t>77800495-K</t>
-  </si>
-  <si>
-    <t>00000000000092159370</t>
-  </si>
-  <si>
-    <t>Banco Santander</t>
-  </si>
-  <si>
-    <t>12:15</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752248734452631</t>
-  </si>
-  <si>
-    <t>120377088530</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de Heber Gerdenson Campos</t>
-  </si>
-  <si>
-    <t>Heber Gerdenson Campos</t>
-  </si>
-  <si>
-    <t>26392450-9</t>
-  </si>
-  <si>
-    <t>00000000008011636608</t>
-  </si>
-  <si>
-    <t>11:43</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752250665070610</t>
-  </si>
-  <si>
-    <t>206143019906</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de SUAREZ MALDONADO JORGE MELECIO</t>
-  </si>
-  <si>
-    <t>SUAREZ MALDONADO JORGE MELECIO</t>
-  </si>
-  <si>
-    <t>26857383-6</t>
-  </si>
-  <si>
-    <t>00000000000026857383</t>
-  </si>
-  <si>
-    <t>11:40</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752250846700938</t>
-  </si>
-  <si>
-    <t>201140012986</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de VILLALOBOS REYES ZULIMAR DEL C</t>
-  </si>
-  <si>
-    <t>VILLALOBOS REYES ZULIMAR DEL C</t>
-  </si>
-  <si>
-    <t>26862770-7</t>
-  </si>
-  <si>
-    <t>00000000052100281287</t>
-  </si>
-  <si>
-    <t>11:24</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752251809665352</t>
-  </si>
-  <si>
-    <t>001817115185</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de R2 INVERSIONES SPA</t>
-  </si>
-  <si>
-    <t>R2 INVERSIONES SPA</t>
-  </si>
-  <si>
-    <t>77694222-7</t>
-  </si>
-  <si>
-    <t>00000000000091167484</t>
-  </si>
-  <si>
-    <t>11:23</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752251818569405</t>
-  </si>
-  <si>
-    <t>001817115098</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de INVERSIONES J&amp;P SPA</t>
-  </si>
-  <si>
-    <t>INVERSIONES J&amp;P SPA</t>
-  </si>
-  <si>
-    <t>77968832-1</t>
-  </si>
-  <si>
-    <t>00000000000097012040</t>
-  </si>
-  <si>
-    <t>11:20</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752252003385324</t>
-  </si>
-  <si>
-    <t>201120090818</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de PIRELA HERRERA JHON CARLO</t>
-  </si>
-  <si>
-    <t>PIRELA HERRERA JHON CARLO</t>
-  </si>
-  <si>
-    <t>27499320-0</t>
-  </si>
-  <si>
-    <t>00000000032400046556</t>
-  </si>
-  <si>
-    <t>10:46</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752254063536138</t>
-  </si>
-  <si>
-    <t>120376308400</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de Eudy Orangel Castillo</t>
-  </si>
-  <si>
-    <t>Eudy Orangel Castillo</t>
-  </si>
-  <si>
-    <t>26396786-0</t>
-  </si>
-  <si>
-    <t>00000000000025221013</t>
-  </si>
-  <si>
-    <t>Eudy</t>
-  </si>
-  <si>
-    <t>10:08</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752256329868785</t>
-  </si>
-  <si>
-    <t>201008023409</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de INVERSIONES AS SPA</t>
-  </si>
-  <si>
-    <t>INVERSIONES AS SPA</t>
-  </si>
-  <si>
-    <t>77430655-2</t>
-  </si>
-  <si>
-    <t>00000000090270792129</t>
-  </si>
-  <si>
-    <t>09:58</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752256951203541</t>
-  </si>
-  <si>
-    <t>200958016259</t>
-  </si>
-  <si>
-    <t>09:12</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752259700779631</t>
-  </si>
-  <si>
-    <t>000016717509</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de INVERSIONESRYM SPA</t>
-  </si>
-  <si>
-    <t>INVERSIONESRYM SPA</t>
-  </si>
-  <si>
-    <t>78044797-4</t>
-  </si>
-  <si>
-    <t>00000000000178044797</t>
-  </si>
-  <si>
-    <t>23:14</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752295593187079</t>
-  </si>
-  <si>
-    <t>000256708667</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de NATHALIA PRIETO VELASCO</t>
-  </si>
-  <si>
-    <t>NATHALIA PRIETO VELASCO</t>
-  </si>
-  <si>
-    <t>26863537-8</t>
-  </si>
-  <si>
-    <t>00000000004011735744</t>
-  </si>
-  <si>
-    <t>Banco Ripley</t>
-  </si>
-  <si>
-    <t>22:54</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752296775258470</t>
-  </si>
-  <si>
-    <t>000109385697</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de Fernando Ramon Rincon Marquez</t>
-  </si>
-  <si>
-    <t>Fernando Ramon Rincon Marquez</t>
-  </si>
-  <si>
-    <t>25972737-5</t>
-  </si>
-  <si>
-    <t>00000000001030923149</t>
-  </si>
-  <si>
-    <t>22:49</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752297058120204</t>
-  </si>
-  <si>
-    <t>000041426803</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de JACKELINE ADRIANA MAVAREZ NUNE</t>
-  </si>
-  <si>
-    <t>JACKELINE ADRIANA MAVAREZ NUNE</t>
-  </si>
-  <si>
-    <t>26679882-2</t>
-  </si>
-  <si>
-    <t>00000000111126679882</t>
-  </si>
-  <si>
-    <t>00000000</t>
-  </si>
-  <si>
-    <t>22:45</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752297341895748</t>
-  </si>
-  <si>
-    <t>1029260973</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de FERNANDO RAMON RINCON MARQUEZ</t>
-  </si>
-  <si>
-    <t>FERNANDO RAMON RINCON MARQUEZ</t>
-  </si>
-  <si>
-    <t>50864700</t>
-  </si>
-  <si>
-    <t>Banco Bci</t>
-  </si>
-  <si>
-    <t>Sin mensaje</t>
-  </si>
-  <si>
-    <t>22:23</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752298649625839</t>
-  </si>
-  <si>
-    <t>135078188891</t>
-  </si>
-  <si>
-    <t>00000000777925972737</t>
-  </si>
-  <si>
-    <t>19:20</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752309647327152</t>
-  </si>
-  <si>
-    <t>120370778460</t>
-  </si>
-  <si>
-    <t>19:08</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752310316937432</t>
-  </si>
-  <si>
-    <t>191908032687</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de COMERCIALIZADORA GYG SPA</t>
-  </si>
-  <si>
-    <t>COMERCIALIZADORA GYG SPA</t>
-  </si>
-  <si>
-    <t>78044298-0</t>
-  </si>
-  <si>
-    <t>00000000020470158744</t>
-  </si>
-  <si>
-    <t>19:02</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752310730487282</t>
-  </si>
-  <si>
-    <t>196901097356</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de SANDOVAL VIRGUEZ PABLO LEHANDR</t>
-  </si>
-  <si>
-    <t>SANDOVAL VIRGUEZ PABLO LEHANDR</t>
-  </si>
-  <si>
-    <t>27510550-3</t>
-  </si>
-  <si>
-    <t>00000000000027510550</t>
-  </si>
-  <si>
-    <t>19:00</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752310822921846</t>
-  </si>
-  <si>
-    <t>001816912589</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de INYERBER ALCIRO CARRASQUEL FIG</t>
-  </si>
-  <si>
-    <t>INYERBER ALCIRO CARRASQUEL FIG</t>
-  </si>
-  <si>
-    <t>27040345-K</t>
-  </si>
-  <si>
-    <t>00000000000083136731</t>
-  </si>
-  <si>
-    <t>18:46</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752311637309388</t>
-  </si>
-  <si>
-    <t>196846066428</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de CASTILLO FERNANDEZ NEHOMAR ANT</t>
-  </si>
-  <si>
-    <t>CASTILLO FERNANDEZ NEHOMAR ANT</t>
-  </si>
-  <si>
-    <t>27468148-9</t>
-  </si>
-  <si>
-    <t>00000000000027468148</t>
-  </si>
-  <si>
-    <t>18:28</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752312732466583</t>
-  </si>
-  <si>
-    <t>120370267060</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de Maria Nelly Rojas</t>
-  </si>
-  <si>
-    <t>Maria Nelly Rojas</t>
-  </si>
-  <si>
-    <t>26919327-1</t>
-  </si>
-  <si>
-    <t>00000000000100823024</t>
-  </si>
-  <si>
-    <t>17:53</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752314856074955</t>
-  </si>
-  <si>
-    <t>191753013075</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de HURTADO SOTO PETRA MARINA</t>
-  </si>
-  <si>
-    <t>HURTADO SOTO PETRA MARINA</t>
-  </si>
-  <si>
-    <t>26644278-5</t>
-  </si>
-  <si>
-    <t>00000000031900025931</t>
-  </si>
-  <si>
-    <t>17:42</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752315506218558</t>
-  </si>
-  <si>
-    <t>191742096259</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de ALTUVE DIAZ PAOLA COROMOTO EDU</t>
-  </si>
-  <si>
-    <t>ALTUVE DIAZ PAOLA COROMOTO EDU</t>
-  </si>
-  <si>
-    <t>26176031-2</t>
-  </si>
-  <si>
-    <t>00000000032100066709</t>
-  </si>
-  <si>
-    <t>17:26</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752316467876685</t>
-  </si>
-  <si>
-    <t>001816860919</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de SOLUCIONES INFORMATICAS LA GUA</t>
-  </si>
-  <si>
-    <t>SOLUCIONES INFORMATICAS LA GUA</t>
-  </si>
-  <si>
-    <t>78133557-6</t>
-  </si>
-  <si>
-    <t>00000000000098180788</t>
-  </si>
-  <si>
-    <t>17:14</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752317204247976</t>
-  </si>
-  <si>
-    <t>191714052314</t>
-  </si>
-  <si>
-    <t>17:04</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752317765105571</t>
-  </si>
-  <si>
-    <t>191704037788</t>
+    <t>12:02</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751990282404329</t>
+  </si>
+  <si>
+    <t>231202049337</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de POLANCO HILARIO MARCEL</t>
+  </si>
+  <si>
+    <t>POLANCO HILARIO MARCEL</t>
+  </si>
+  <si>
+    <t>00000000000100249375</t>
+  </si>
+  <si>
+    <t>11:58</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751990572231137</t>
+  </si>
+  <si>
+    <t>231157041523</t>
   </si>
   <si>
     <t>Transferencia recibida de CORTES BERNAL HERNAN MAURICIO</t>
@@ -768,118 +1539,193 @@
     <t>00000000053970774595</t>
   </si>
   <si>
-    <t>17:02</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752317929007738</t>
-  </si>
-  <si>
-    <t>001816847660</t>
-  </si>
-  <si>
-    <t>16:53</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752318458401298</t>
-  </si>
-  <si>
-    <t>055288201777</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de CARLOS ALFREDO SAYAGO DURAN</t>
-  </si>
-  <si>
-    <t>CARLOS ALFREDO SAYAGO DURAN</t>
-  </si>
-  <si>
-    <t>27809753-6</t>
-  </si>
-  <si>
-    <t>00000000015660106819</t>
-  </si>
-  <si>
-    <t>Banco Falabella</t>
-  </si>
-  <si>
-    <t>15:55</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752321949047462</t>
-  </si>
-  <si>
-    <t>856180058325</t>
-  </si>
-  <si>
-    <t>15:29</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752323478070281</t>
-  </si>
-  <si>
-    <t>120368369550</t>
-  </si>
-  <si>
-    <t>15:05</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752324917073372</t>
-  </si>
-  <si>
-    <t>191505055503</t>
-  </si>
-  <si>
-    <t>15:02</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752325118536703</t>
-  </si>
-  <si>
-    <t>191502050027</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de CORPORACION TRIDENTE PUBLICIDA</t>
-  </si>
-  <si>
-    <t>CORPORACION TRIDENTE PUBLICIDA</t>
-  </si>
-  <si>
-    <t>76995035-4</t>
-  </si>
-  <si>
-    <t>00000000023971983469</t>
-  </si>
-  <si>
-    <t>14:56</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752325460873609</t>
-  </si>
-  <si>
-    <t>1029094384</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de ERIK REY CORDERO</t>
-  </si>
-  <si>
-    <t>ERIK REY CORDERO</t>
-  </si>
-  <si>
-    <t>26216519-1</t>
-  </si>
-  <si>
-    <t>67233953</t>
-  </si>
-  <si>
-    <t>Cuenta prima</t>
-  </si>
-  <si>
-    <t>14:53</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752325655030337</t>
-  </si>
-  <si>
-    <t>971884367896</t>
+    <t>11:57</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751990605162800</t>
+  </si>
+  <si>
+    <t>120411609090</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de Yoselin Del Valle Beld</t>
+  </si>
+  <si>
+    <t>Yoselin Del Valle Beld</t>
+  </si>
+  <si>
+    <t>25636363-1</t>
+  </si>
+  <si>
+    <t>00000000000055521189</t>
+  </si>
+  <si>
+    <t>11:56</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751990663807123</t>
+  </si>
+  <si>
+    <t>000111849534</t>
+  </si>
+  <si>
+    <t>11:55</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751990696489516</t>
+  </si>
+  <si>
+    <t>13308074</t>
+  </si>
+  <si>
+    <t>11:51</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751990943332636</t>
+  </si>
+  <si>
+    <t>001818991819</t>
+  </si>
+  <si>
+    <t>11:50</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751991016724460</t>
+  </si>
+  <si>
+    <t>001818990830</t>
+  </si>
+  <si>
+    <t>11:47</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751991221306340</t>
+  </si>
+  <si>
+    <t>13306826</t>
+  </si>
+  <si>
+    <t>11:44</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751991356954189</t>
+  </si>
+  <si>
+    <t>231144020269</t>
+  </si>
+  <si>
+    <t>11:39</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751991700336582</t>
+  </si>
+  <si>
+    <t>120411330690</t>
+  </si>
+  <si>
+    <t>11:37</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751991828393157</t>
+  </si>
+  <si>
+    <t>815759639893</t>
+  </si>
+  <si>
+    <t>11:36</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751991885225168</t>
+  </si>
+  <si>
+    <t>001818979531</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de INTERMEDIACION MONETARIA GABRI</t>
+  </si>
+  <si>
+    <t>INTERMEDIACION MONETARIA GABRI</t>
+  </si>
+  <si>
+    <t>78063633-5</t>
+  </si>
+  <si>
+    <t>00000000000097150834</t>
+  </si>
+  <si>
+    <t>10:51</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751994544008423</t>
+  </si>
+  <si>
+    <t>459434669647</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de SAMUEL ALEJANDRO OLIVEROS SALA</t>
+  </si>
+  <si>
+    <t>SAMUEL ALEJANDRO OLIVEROS SALA</t>
+  </si>
+  <si>
+    <t>26050844-K</t>
+  </si>
+  <si>
+    <t>00000000015930004786</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751994870868002</t>
+  </si>
+  <si>
+    <t>236046034705</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de HERNANDEZ DIAZ MARIANGEL SABRI</t>
+  </si>
+  <si>
+    <t>HERNANDEZ DIAZ MARIANGEL SABRI</t>
+  </si>
+  <si>
+    <t>26591541-8</t>
+  </si>
+  <si>
+    <t>00000000000026591541</t>
+  </si>
+  <si>
+    <t>10:31</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751995770455209</t>
+  </si>
+  <si>
+    <t>000110304367</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751996038592759</t>
+  </si>
+  <si>
+    <t>120410378830</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de Daniela Vanessa Blanco</t>
+  </si>
+  <si>
+    <t>Daniela Vanessa Blanco</t>
+  </si>
+  <si>
+    <t>26870197-4</t>
+  </si>
+  <si>
+    <t>00000000000227923214</t>
+  </si>
+  <si>
+    <t>10:25</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751996111149544</t>
+  </si>
+  <si>
+    <t>001818927168</t>
   </si>
   <si>
     <t>Transferencia recibida de DANIELA VANESSA BLANCO TORREAL</t>
@@ -888,985 +1734,40 @@
     <t>DANIELA VANESSA BLANCO TORREAL</t>
   </si>
   <si>
-    <t>26870197-4</t>
-  </si>
-  <si>
-    <t>00000000055170091926</t>
-  </si>
-  <si>
-    <t>14:45</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752326109491885</t>
-  </si>
-  <si>
-    <t>191445022335</t>
-  </si>
-  <si>
-    <t>14:38</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752326517198258</t>
-  </si>
-  <si>
-    <t>191438010741</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de ZEPEDA OROSTICA ALEJANDRO ANDR</t>
-  </si>
-  <si>
-    <t>ZEPEDA OROSTICA ALEJANDRO ANDR</t>
-  </si>
-  <si>
-    <t>16012315-K</t>
-  </si>
-  <si>
-    <t>00000000036970031591</t>
-  </si>
-  <si>
-    <t>14:20</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752327637913064</t>
-  </si>
-  <si>
-    <t>120367014340</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de R?b Supply Spa</t>
-  </si>
-  <si>
-    <t>R?b Supply Spa</t>
-  </si>
-  <si>
-    <t>77147473-K</t>
-  </si>
-  <si>
-    <t>00000000001851256907</t>
-  </si>
-  <si>
-    <t>13:58</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752328957407983</t>
-  </si>
-  <si>
-    <t>744447841161</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de ROSSY CAROLINA RAMIREZ SOTO</t>
-  </si>
-  <si>
-    <t>ROSSY CAROLINA RAMIREZ SOTO</t>
-  </si>
-  <si>
-    <t>26363760-7</t>
-  </si>
-  <si>
-    <t>00000000777026363760</t>
-  </si>
-  <si>
-    <t>13:05</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752332118919592</t>
-  </si>
-  <si>
-    <t>000110712914</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de Juan Carlos Valero Semprun</t>
-  </si>
-  <si>
-    <t>Juan Carlos Valero Semprun</t>
-  </si>
-  <si>
-    <t>27135781-8</t>
-  </si>
-  <si>
-    <t>00000000001024078842</t>
-  </si>
-  <si>
-    <t>13:01</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752332339917471</t>
-  </si>
-  <si>
-    <t>001816700037</t>
-  </si>
-  <si>
-    <t>12:59</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752332479057153</t>
-  </si>
-  <si>
-    <t>344596851262</t>
-  </si>
-  <si>
-    <t>12:57</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752332588504378</t>
-  </si>
-  <si>
-    <t>000109201509</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de ZONA ROSA SPA</t>
-  </si>
-  <si>
-    <t>ZONA ROSA SPA</t>
-  </si>
-  <si>
-    <t>78089699-K</t>
-  </si>
-  <si>
-    <t>00000000001083642129</t>
-  </si>
-  <si>
-    <t>12:53</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752332852306501</t>
-  </si>
-  <si>
-    <t>001816693737</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de LIZETH MARCELA TOTENA PARRA</t>
-  </si>
-  <si>
-    <t>LIZETH MARCELA TOTENA PARRA</t>
-  </si>
-  <si>
-    <t>27304401-9</t>
-  </si>
-  <si>
-    <t>00000000000082962980</t>
-  </si>
-  <si>
-    <t>12:45</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752333305923168</t>
-  </si>
-  <si>
-    <t>120366117810</t>
-  </si>
-  <si>
-    <t>12:24</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752334588885515</t>
-  </si>
-  <si>
-    <t>191224058580</t>
-  </si>
-  <si>
-    <t>12:18</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752334927342064</t>
-  </si>
-  <si>
-    <t>191218047600</t>
-  </si>
-  <si>
-    <t>11:44</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752336996412577</t>
-  </si>
-  <si>
-    <t>191144083470</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de CASTILLO SALCEDO ARCADIO SIMON</t>
-  </si>
-  <si>
-    <t>CASTILLO SALCEDO ARCADIO SIMON</t>
-  </si>
-  <si>
-    <t>27119466-8</t>
-  </si>
-  <si>
-    <t>00000000014170275943</t>
-  </si>
-  <si>
-    <t>11:25</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752338125674515</t>
-  </si>
-  <si>
-    <t>191125050592</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de PONCELEON AVENDANO MAYDIS GABR</t>
-  </si>
-  <si>
-    <t>PONCELEON AVENDANO MAYDIS GABR</t>
-  </si>
-  <si>
-    <t>26096940-4</t>
-  </si>
-  <si>
-    <t>00000000005000045821</t>
-  </si>
-  <si>
-    <t>11:07</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752339188547829</t>
-  </si>
-  <si>
-    <t>196107079095</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de MARCHAN BENITEZ JOSE EULISES</t>
-  </si>
-  <si>
-    <t>MARCHAN BENITEZ JOSE EULISES</t>
-  </si>
-  <si>
-    <t>27909867-6</t>
-  </si>
-  <si>
-    <t>00000000000027909867</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752339617462158</t>
-  </si>
-  <si>
-    <t>191100009646</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de INNOVACIONES TECNOLOGICAS NOAH</t>
-  </si>
-  <si>
-    <t>INNOVACIONES TECNOLOGICAS NOAH</t>
-  </si>
-  <si>
-    <t>78049152-3</t>
-  </si>
-  <si>
-    <t>00000000090276560181</t>
-  </si>
-  <si>
-    <t>10:45</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752340505485603</t>
-  </si>
-  <si>
-    <t>538525926399</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de NEHOMAR ANTONIO CASTILLO FERNA</t>
-  </si>
-  <si>
-    <t>NEHOMAR ANTONIO CASTILLO FERNA</t>
-  </si>
-  <si>
-    <t>00000000019841198018</t>
-  </si>
-  <si>
-    <t>10:39</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752340903479374</t>
-  </si>
-  <si>
-    <t>000110668606</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de Yeraldine Alexandra Garcia Lop</t>
-  </si>
-  <si>
-    <t>Yeraldine Alexandra Garcia Lop</t>
-  </si>
-  <si>
-    <t>26600820-1</t>
-  </si>
-  <si>
-    <t>00000000001007377744</t>
-  </si>
-  <si>
-    <t>10:35</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752341139359766</t>
-  </si>
-  <si>
-    <t>191035071197</t>
-  </si>
-  <si>
-    <t>10:21</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752341972895503</t>
-  </si>
-  <si>
-    <t>120364545910</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de Yaimelith Vargas</t>
-  </si>
-  <si>
-    <t>Yaimelith Vargas</t>
-  </si>
-  <si>
-    <t>25289617-1</t>
-  </si>
-  <si>
-    <t>00000000000010522083</t>
-  </si>
-  <si>
-    <t>10:12</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752342478335900</t>
-  </si>
-  <si>
-    <t>191012040568</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de AGUIRRE NOGUERA ELEANNY DISIRE</t>
-  </si>
-  <si>
-    <t>AGUIRRE NOGUERA ELEANNY DISIRE</t>
-  </si>
-  <si>
-    <t>27864382-4</t>
-  </si>
-  <si>
-    <t>00000000035700028117</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752342497923682</t>
-  </si>
-  <si>
-    <t>191012040130</t>
-  </si>
-  <si>
-    <t>09:30</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752345003698517</t>
-  </si>
-  <si>
-    <t>001816570512</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de INTERMEDIACION MONETARIA GABRI</t>
-  </si>
-  <si>
-    <t>INTERMEDIACION MONETARIA GABRI</t>
-  </si>
-  <si>
-    <t>78063633-5</t>
-  </si>
-  <si>
-    <t>00000000000097150834</t>
-  </si>
-  <si>
-    <t>09:20</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752345606980743</t>
-  </si>
-  <si>
-    <t>000109137117</t>
-  </si>
-  <si>
-    <t>09:16</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752345865632697</t>
-  </si>
-  <si>
-    <t>001816565273</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de JOSSELINE DEL CARMEN RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>JOSSELINE DEL CARMEN RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>26250800-5</t>
-  </si>
-  <si>
-    <t>00000000000091176157</t>
-  </si>
-  <si>
-    <t>07:57</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752350577584286</t>
-  </si>
-  <si>
-    <t>13048949</t>
-  </si>
-  <si>
-    <t>Transferencia enviada a Senna Spa</t>
-  </si>
-  <si>
-    <t>Senna Spa</t>
-  </si>
-  <si>
-    <t>77069616-K</t>
-  </si>
-  <si>
-    <t>46741437</t>
-  </si>
-  <si>
-    <t>23:02</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752382678553463</t>
-  </si>
-  <si>
-    <t>000110608690</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de Servicios mg</t>
-  </si>
-  <si>
-    <t>Servicios mg</t>
-  </si>
-  <si>
-    <t>77429393-0</t>
-  </si>
-  <si>
-    <t>00000000001001823865</t>
-  </si>
-  <si>
-    <t>20:25</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752392100812540</t>
-  </si>
-  <si>
-    <t>120361091090</t>
-  </si>
-  <si>
-    <t>Pago</t>
-  </si>
-  <si>
-    <t>20:12</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752392908631302</t>
-  </si>
-  <si>
-    <t>001816397018</t>
-  </si>
-  <si>
-    <t>18:06</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752400478267080</t>
-  </si>
-  <si>
-    <t>120359104940</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de Arcelia Claret Moran</t>
-  </si>
-  <si>
-    <t>Arcelia Claret Moran</t>
-  </si>
-  <si>
-    <t>26908131-7</t>
-  </si>
-  <si>
-    <t>00000000000429521200</t>
-  </si>
-  <si>
-    <t>17:38</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752402169713139</t>
-  </si>
-  <si>
-    <t>001816262295</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de YENIFE ANGELICA GOMEZ REYES</t>
-  </si>
-  <si>
-    <t>YENIFE ANGELICA GOMEZ REYES</t>
-  </si>
-  <si>
-    <t>25797363-8</t>
-  </si>
-  <si>
-    <t>00000000000075209142</t>
-  </si>
-  <si>
-    <t>17:37</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752402194043756</t>
-  </si>
-  <si>
-    <t>251993960921</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de INVERSIONES VINOTINTO SPA</t>
-  </si>
-  <si>
-    <t>INVERSIONES VINOTINTO SPA</t>
-  </si>
-  <si>
-    <t>77407447-3</t>
-  </si>
-  <si>
-    <t>00390001000223232637</t>
-  </si>
-  <si>
-    <t>Banco Itaú</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752403595971366</t>
-  </si>
-  <si>
-    <t>181714017646</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de GONZALEZ BARBOZA LUIS DANIEL</t>
-  </si>
-  <si>
-    <t>GONZALEZ BARBOZA LUIS DANIEL</t>
-  </si>
-  <si>
-    <t>26742839-5</t>
-  </si>
-  <si>
-    <t>00000000037300022104</t>
-  </si>
-  <si>
-    <t>17:03</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752404274468546</t>
-  </si>
-  <si>
-    <t>792186241372</t>
-  </si>
-  <si>
-    <t>16:42</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752405522289461</t>
-  </si>
-  <si>
-    <t>001816205557</t>
-  </si>
-  <si>
-    <t>16:18</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752406966516780</t>
-  </si>
-  <si>
-    <t>000110470944</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de Mariangel Sabrina Hernandez Di</t>
-  </si>
-  <si>
-    <t>Mariangel Sabrina Hernandez Di</t>
-  </si>
-  <si>
-    <t>26591541-8</t>
-  </si>
-  <si>
-    <t>00000000001071488267</t>
-  </si>
-  <si>
-    <t>16:17</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752407031580276</t>
-  </si>
-  <si>
-    <t>001816179364</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de CARLOS ANTONIO GARCIA OVIEDO</t>
-  </si>
-  <si>
-    <t>CARLOS ANTONIO GARCIA OVIEDO</t>
-  </si>
-  <si>
-    <t>26434851-K</t>
-  </si>
-  <si>
-    <t>00000000000084327883</t>
-  </si>
-  <si>
-    <t>14:03</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752415047272237</t>
-  </si>
-  <si>
-    <t>181403028788</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de CORPORACION PORTENA SPA</t>
-  </si>
-  <si>
-    <t>CORPORACION PORTENA SPA</t>
-  </si>
-  <si>
-    <t>77141864-3</t>
-  </si>
-  <si>
-    <t>00000000035171349069</t>
-  </si>
-  <si>
-    <t>13:19</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752417696985705</t>
-  </si>
-  <si>
-    <t>186319022858</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de LANDINEZ LANDINEZ MARDIOLY EST</t>
-  </si>
-  <si>
-    <t>LANDINEZ LANDINEZ MARDIOLY EST</t>
-  </si>
-  <si>
-    <t>26891028-K</t>
-  </si>
-  <si>
-    <t>00000000000026891028</t>
-  </si>
-  <si>
-    <t>11:21</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752424777396649</t>
-  </si>
-  <si>
-    <t>001815872994</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de INVERSIONES AR SPA</t>
-  </si>
-  <si>
-    <t>INVERSIONES AR SPA</t>
-  </si>
-  <si>
-    <t>77653656-3</t>
-  </si>
-  <si>
-    <t>00000000000088795202</t>
-  </si>
-  <si>
-    <t>11:06</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752425646856936</t>
-  </si>
-  <si>
-    <t>1028515174</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de MIGUEL ANGEL FUENTES GIMENEZ</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL FUENTES GIMENEZ</t>
-  </si>
-  <si>
-    <t>26364429-8</t>
-  </si>
-  <si>
-    <t>53891911</t>
-  </si>
-  <si>
-    <t>11:04</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752425758562503</t>
-  </si>
-  <si>
-    <t>181104045270</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de MAVAREZ NUNEZ JACKELINE ADRIAN</t>
-  </si>
-  <si>
-    <t>MAVAREZ NUNEZ JACKELINE ADRIAN</t>
-  </si>
-  <si>
-    <t>00000000031500019444</t>
-  </si>
-  <si>
-    <t>10:32</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752427700066364</t>
-  </si>
-  <si>
-    <t>414917737389</t>
-  </si>
-  <si>
-    <t>00000000015842284090</t>
-  </si>
-  <si>
-    <t>10:14</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752428800382124</t>
-  </si>
-  <si>
-    <t>196754258154</t>
-  </si>
-  <si>
-    <t>09:07</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752432821172906</t>
-  </si>
-  <si>
-    <t>12945228</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de DAED MY SHOP COMPANY SPA</t>
-  </si>
-  <si>
-    <t>DAED MY SHOP COMPANY SPA</t>
-  </si>
-  <si>
-    <t>77649923-4</t>
-  </si>
-  <si>
-    <t>000089318480</t>
-  </si>
-  <si>
-    <t>BANCO DE CREDITO E INVERSIONES</t>
-  </si>
-  <si>
-    <t>08:35</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752434750056383</t>
-  </si>
-  <si>
-    <t>933742092085</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de HUGO ARTURO CAVIEDES LOPEZ</t>
-  </si>
-  <si>
-    <t>HUGO ARTURO CAVIEDES LOPEZ</t>
-  </si>
-  <si>
-    <t>6343423-K</t>
-  </si>
-  <si>
-    <t>00000000777906343423</t>
-  </si>
-  <si>
-    <t>Mi geli</t>
-  </si>
-  <si>
-    <t>08:20</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752435645994183</t>
-  </si>
-  <si>
-    <t>000016697241</t>
-  </si>
-  <si>
-    <t>06:23</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752442633241253</t>
-  </si>
-  <si>
-    <t>760476019081</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de PEDRO LUIS LOVATO PESTANO</t>
-  </si>
-  <si>
-    <t>PEDRO LUIS LOVATO PESTANO</t>
-  </si>
-  <si>
-    <t>27014548-5</t>
-  </si>
-  <si>
-    <t>00000000012000068263</t>
-  </si>
-  <si>
-    <t>00:48</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752462716293915</t>
-  </si>
-  <si>
-    <t>001815683327</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de MARIA MIGDALIA OCHOA PEREZ</t>
-  </si>
-  <si>
-    <t>MARIA MIGDALIA OCHOA PEREZ</t>
-  </si>
-  <si>
-    <t>26492321-2</t>
-  </si>
-  <si>
-    <t>00000000000084998079</t>
-  </si>
-  <si>
-    <t>23:23</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752467874127491</t>
-  </si>
-  <si>
-    <t>000016694078</t>
-  </si>
-  <si>
-    <t>23:12</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752468490490636</t>
-  </si>
-  <si>
-    <t>172312043379</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de RINCON MARQUEZ FERNANDO RAMON</t>
-  </si>
-  <si>
-    <t>RINCON MARQUEZ FERNANDO RAMON</t>
-  </si>
-  <si>
-    <t>00000000022300168390</t>
-  </si>
-  <si>
-    <t>22:30</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752471010672230</t>
-  </si>
-  <si>
-    <t>000110257528</t>
-  </si>
-  <si>
-    <t>22:04</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752472554933484</t>
-  </si>
-  <si>
-    <t>172204078056</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de MAYA GUILLEN LEANDRO JOSE</t>
-  </si>
-  <si>
-    <t>MAYA GUILLEN LEANDRO JOSE</t>
-  </si>
-  <si>
-    <t>26047488-K</t>
-  </si>
-  <si>
-    <t>00000000038172106533</t>
-  </si>
-  <si>
-    <t>22:03</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752472626032033</t>
-  </si>
-  <si>
-    <t>172203076627</t>
-  </si>
-  <si>
-    <t>21:33</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752474426099569</t>
-  </si>
-  <si>
-    <t>172133039480</t>
-  </si>
-  <si>
-    <t>00000000020470162695</t>
-  </si>
-  <si>
-    <t>21:32</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752474503500464</t>
-  </si>
-  <si>
-    <t>001815615545</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de VITAL SERVIC RP SPA</t>
-  </si>
-  <si>
-    <t>VITAL SERVIC RP SPA</t>
-  </si>
-  <si>
-    <t>78048629-5</t>
-  </si>
-  <si>
-    <t>00000000000096150040</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752474519672544</t>
-  </si>
-  <si>
-    <t>000108747757</t>
-  </si>
-  <si>
-    <t>21:10</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752475813698355</t>
-  </si>
-  <si>
-    <t>000108744321</t>
-  </si>
-  <si>
-    <t>20:40</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010752477646316252</t>
-  </si>
-  <si>
-    <t>000041231859</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de MARIA ALEJANDRA FLORES GARRIDO</t>
-  </si>
-  <si>
-    <t>MARIA ALEJANDRA FLORES GARRIDO</t>
-  </si>
-  <si>
-    <t>25988914-6</t>
-  </si>
-  <si>
-    <t>00000000111125988914</t>
+    <t>00000000000093309375</t>
+  </si>
+  <si>
+    <t>09:40</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751998825395049</t>
+  </si>
+  <si>
+    <t>230940037976</t>
+  </si>
+  <si>
+    <t>09:39</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751998860034986</t>
+  </si>
+  <si>
+    <t>001818896506</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751998866195896</t>
+  </si>
+  <si>
+    <t>13290601</t>
+  </si>
+  <si>
+    <t>09:25</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751999717358622</t>
+  </si>
+  <si>
+    <t>001818887564</t>
   </si>
 </sst>
 </file>
@@ -2272,13 +2173,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="n">
-        <v>45858.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>26</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>45859.0</v>
+        <v>45863.0</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>27</v>
@@ -2296,13 +2197,13 @@
         <v>31</v>
       </c>
       <c r="I2" s="7" t="n">
-        <v>65789.0</v>
+        <v>118343.0</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>3.8334122E7</v>
+        <v>3.0250489E7</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>32</v>
@@ -2352,19 +2253,19 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="n">
-        <v>45858.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>45863.0</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>45859.0</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="E3" s="7" t="s">
         <v>38</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>29</v>
@@ -2373,31 +2274,31 @@
         <v>30</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="7" t="n">
+        <v>120000.0</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="7" t="n">
+        <v>3.0132146E7</v>
+      </c>
+      <c r="L3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="7" t="n">
-        <v>40000.0</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="7" t="n">
-        <v>3.8268333E7</v>
-      </c>
-      <c r="L3" s="7" t="s">
+      <c r="M3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="N3" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>30</v>
@@ -2432,19 +2333,19 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="n" s="4">
-        <v>45858.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B4" t="s" s="5">
+        <v>44</v>
+      </c>
+      <c r="C4" t="n" s="4">
+        <v>45862.0</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C4" t="n" s="4">
-        <v>45859.0</v>
-      </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" t="s" s="7">
         <v>46</v>
-      </c>
-      <c r="E4" t="s" s="7">
-        <v>47</v>
       </c>
       <c r="F4" t="s" s="7">
         <v>29</v>
@@ -2453,34 +2354,34 @@
         <v>30</v>
       </c>
       <c r="H4" t="s" s="7">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J4" t="n" s="7">
+        <v>1423542.0</v>
+      </c>
+      <c r="K4" t="n" s="7">
+        <v>3.0012146E7</v>
+      </c>
+      <c r="L4" t="s" s="7">
         <v>48</v>
       </c>
-      <c r="I4" t="n" s="7">
-        <v>66225.0</v>
-      </c>
-      <c r="J4" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="K4" t="n" s="7">
-        <v>3.8228333E7</v>
-      </c>
-      <c r="L4" t="s" s="7">
+      <c r="M4" t="s" s="4">
         <v>49</v>
       </c>
-      <c r="M4" t="s" s="4">
+      <c r="N4" t="s" s="4">
         <v>50</v>
       </c>
-      <c r="N4" t="s" s="4">
+      <c r="O4" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="P4" t="s" s="4">
         <v>51</v>
       </c>
-      <c r="O4" t="s" s="4">
-        <v>35</v>
-      </c>
-      <c r="P4" t="s" s="4">
+      <c r="Q4" t="s" s="4">
         <v>52</v>
-      </c>
-      <c r="Q4" t="s" s="4">
-        <v>30</v>
       </c>
       <c r="R4" t="s" s="4">
         <v>30</v>
@@ -2512,19 +2413,19 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="n" s="4">
-        <v>45858.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B5" t="s" s="5">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C5" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s" s="7">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F5" t="s" s="7">
         <v>29</v>
@@ -2533,31 +2434,31 @@
         <v>30</v>
       </c>
       <c r="H5" t="s" s="7">
-        <v>55</v>
-      </c>
-      <c r="I5" t="n" s="7">
-        <v>255000.0</v>
-      </c>
-      <c r="J5" t="s" s="7">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="I5" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J5" t="n" s="7">
+        <v>1010701.0</v>
       </c>
       <c r="K5" t="n" s="7">
-        <v>3.8162108E7</v>
+        <v>3.1435688E7</v>
       </c>
       <c r="L5" t="s" s="7">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="M5" t="s" s="4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N5" t="s" s="4">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="O5" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P5" t="s" s="4">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q5" t="s" s="4">
         <v>30</v>
@@ -2592,19 +2493,19 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="n" s="4">
-        <v>45858.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B6" t="s" s="5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C6" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s" s="7">
         <v>29</v>
@@ -2613,34 +2514,34 @@
         <v>30</v>
       </c>
       <c r="H6" t="s" s="7">
-        <v>62</v>
-      </c>
-      <c r="I6" t="n" s="7">
-        <v>190000.0</v>
-      </c>
-      <c r="J6" t="s" s="7">
-        <v>30</v>
+        <v>63</v>
+      </c>
+      <c r="I6" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J6" t="n" s="7">
+        <v>1266947.0</v>
       </c>
       <c r="K6" t="n" s="7">
-        <v>3.7907108E7</v>
+        <v>3.2446389E7</v>
       </c>
       <c r="L6" t="s" s="7">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M6" t="s" s="4">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="N6" t="s" s="4">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="O6" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P6" t="s" s="4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q6" t="s" s="4">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="R6" t="s" s="4">
         <v>30</v>
@@ -2672,19 +2573,19 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="n" s="4">
-        <v>45858.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B7" t="s" s="5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C7" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E7" t="s" s="7">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F7" t="s" s="7">
         <v>29</v>
@@ -2693,37 +2594,37 @@
         <v>30</v>
       </c>
       <c r="H7" t="s" s="7">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="I7" t="n" s="7">
-        <v>98684.0</v>
+        <v>165000.0</v>
       </c>
       <c r="J7" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K7" t="n" s="7">
-        <v>3.7717108E7</v>
+        <v>3.3713336E7</v>
       </c>
       <c r="L7" t="s" s="7">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M7" t="s" s="4">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="N7" t="s" s="4">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="O7" t="s" s="4">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s" s="4">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q7" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R7" t="s" s="4">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="4">
         <v>30</v>
@@ -2752,19 +2653,19 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="n" s="4">
-        <v>45858.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B8" t="s" s="5">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C8" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="E8" t="s" s="7">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="F8" t="s" s="7">
         <v>29</v>
@@ -2773,31 +2674,31 @@
         <v>30</v>
       </c>
       <c r="H8" t="s" s="7">
-        <v>75</v>
-      </c>
-      <c r="I8" t="n" s="7">
-        <v>99681.0</v>
-      </c>
-      <c r="J8" t="s" s="7">
-        <v>30</v>
+        <v>80</v>
+      </c>
+      <c r="I8" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J8" t="n" s="7">
+        <v>1770537.0</v>
       </c>
       <c r="K8" t="n" s="7">
-        <v>3.7618424E7</v>
+        <v>3.3548336E7</v>
       </c>
       <c r="L8" t="s" s="7">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M8" t="s" s="4">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="N8" t="s" s="4">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="O8" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P8" t="s" s="4">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="Q8" t="s" s="4">
         <v>30</v>
@@ -2832,19 +2733,19 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="n" s="4">
-        <v>45858.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B9" t="s" s="5">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C9" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E9" t="s" s="7">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="F9" t="s" s="7">
         <v>29</v>
@@ -2853,31 +2754,31 @@
         <v>30</v>
       </c>
       <c r="H9" t="s" s="7">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="I9" t="n" s="7">
-        <v>23200.0</v>
+        <v>400000.0</v>
       </c>
       <c r="J9" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K9" t="n" s="7">
-        <v>3.7518743E7</v>
+        <v>3.5318873E7</v>
       </c>
       <c r="L9" t="s" s="7">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="M9" t="s" s="4">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="N9" t="s" s="4">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="O9" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P9" t="s" s="4">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="Q9" t="s" s="4">
         <v>30</v>
@@ -2912,19 +2813,19 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="n" s="4">
-        <v>45858.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B10" t="s" s="5">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C10" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E10" t="s" s="7">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F10" t="s" s="7">
         <v>29</v>
@@ -2933,31 +2834,31 @@
         <v>30</v>
       </c>
       <c r="H10" t="s" s="7">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I10" t="n" s="7">
-        <v>15000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="J10" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K10" t="n" s="7">
-        <v>3.7495543E7</v>
+        <v>3.4918873E7</v>
       </c>
       <c r="L10" t="s" s="7">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="M10" t="s" s="4">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="N10" t="s" s="4">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="O10" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P10" t="s" s="4">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="Q10" t="s" s="4">
         <v>30</v>
@@ -2992,19 +2893,19 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="n" s="4">
-        <v>45858.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B11" t="s" s="5">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="E11" t="s" s="7">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F11" t="s" s="7">
         <v>29</v>
@@ -3013,31 +2914,31 @@
         <v>30</v>
       </c>
       <c r="H11" t="s" s="7">
-        <v>97</v>
-      </c>
-      <c r="I11" t="n" s="7">
-        <v>50000.0</v>
-      </c>
-      <c r="J11" t="s" s="7">
-        <v>30</v>
+        <v>56</v>
+      </c>
+      <c r="I11" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J11" t="n" s="7">
+        <v>1010337.0</v>
       </c>
       <c r="K11" t="n" s="7">
-        <v>3.7480543E7</v>
+        <v>3.4818873E7</v>
       </c>
       <c r="L11" t="s" s="7">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="M11" t="s" s="4">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="N11" t="s" s="4">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="O11" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P11" t="s" s="4">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q11" t="s" s="4">
         <v>30</v>
@@ -3072,19 +2973,19 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="n" s="4">
-        <v>45858.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B12" t="s" s="5">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C12" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E12" t="s" s="7">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F12" t="s" s="7">
         <v>29</v>
@@ -3093,31 +2994,31 @@
         <v>30</v>
       </c>
       <c r="H12" t="s" s="7">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="I12" t="n" s="7">
-        <v>100000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="J12" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K12" t="n" s="7">
-        <v>3.7430543E7</v>
+        <v>3.582921E7</v>
       </c>
       <c r="L12" t="s" s="7">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M12" t="s" s="4">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N12" t="s" s="4">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O12" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P12" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Q12" t="s" s="4">
         <v>30</v>
@@ -3152,19 +3053,19 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="n" s="4">
-        <v>45858.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C13" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E13" t="s" s="7">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s" s="7">
         <v>29</v>
@@ -3173,31 +3074,31 @@
         <v>30</v>
       </c>
       <c r="H13" t="s" s="7">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I13" t="n" s="7">
-        <v>177808.0</v>
+        <v>59172.0</v>
       </c>
       <c r="J13" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K13" t="n" s="7">
-        <v>3.7330543E7</v>
+        <v>3.577921E7</v>
       </c>
       <c r="L13" t="s" s="7">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M13" t="s" s="4">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="N13" t="s" s="4">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O13" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P13" t="s" s="4">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="Q13" t="s" s="4">
         <v>30</v>
@@ -3232,19 +3133,19 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="n" s="4">
-        <v>45858.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B14" t="s" s="5">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C14" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E14" t="s" s="7">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F14" t="s" s="7">
         <v>29</v>
@@ -3253,25 +3154,25 @@
         <v>30</v>
       </c>
       <c r="H14" t="s" s="7">
-        <v>118</v>
+        <v>31</v>
       </c>
       <c r="I14" t="n" s="7">
-        <v>215000.0</v>
+        <v>914454.0</v>
       </c>
       <c r="J14" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K14" t="n" s="7">
-        <v>3.7152735E7</v>
+        <v>3.5720038E7</v>
       </c>
       <c r="L14" t="s" s="7">
-        <v>119</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s" s="4">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="N14" t="s" s="4">
-        <v>121</v>
+        <v>34</v>
       </c>
       <c r="O14" t="s" s="4">
         <v>35</v>
@@ -3312,19 +3213,19 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="n" s="4">
-        <v>45858.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B15" t="s" s="5">
+        <v>120</v>
+      </c>
+      <c r="C15" t="n" s="4">
+        <v>45862.0</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="E15" t="s" s="7">
         <v>122</v>
-      </c>
-      <c r="C15" t="n" s="4">
-        <v>45859.0</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" t="s" s="7">
-        <v>124</v>
       </c>
       <c r="F15" t="s" s="7">
         <v>29</v>
@@ -3333,37 +3234,37 @@
         <v>30</v>
       </c>
       <c r="H15" t="s" s="7">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="I15" t="n" s="7">
-        <v>231981.0</v>
+        <v>73000.0</v>
       </c>
       <c r="J15" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K15" t="n" s="7">
-        <v>3.6937735E7</v>
+        <v>3.4805584E7</v>
       </c>
       <c r="L15" t="s" s="7">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="M15" t="s" s="4">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="N15" t="s" s="4">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="O15" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P15" t="s" s="4">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="Q15" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R15" t="s" s="4">
-        <v>129</v>
+        <v>30</v>
       </c>
       <c r="S15" t="s" s="4">
         <v>30</v>
@@ -3392,19 +3293,19 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="n" s="4">
-        <v>45858.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B16" t="s" s="5">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C16" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s" s="7">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="F16" t="s" s="7">
         <v>29</v>
@@ -3413,31 +3314,31 @@
         <v>30</v>
       </c>
       <c r="H16" t="s" s="7">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I16" t="n" s="7">
-        <v>228013.0</v>
+        <v>310273.0</v>
       </c>
       <c r="J16" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K16" t="n" s="7">
-        <v>3.6705754E7</v>
+        <v>3.4732584E7</v>
       </c>
       <c r="L16" t="s" s="7">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="M16" t="s" s="4">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="N16" t="s" s="4">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="O16" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P16" t="s" s="4">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="Q16" t="s" s="4">
         <v>30</v>
@@ -3472,19 +3373,19 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="n" s="4">
-        <v>45858.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="C17" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="E17" t="s" s="7">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="F17" t="s" s="7">
         <v>29</v>
@@ -3493,7 +3394,7 @@
         <v>30</v>
       </c>
       <c r="H17" t="s" s="7">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="I17" t="n" s="7">
         <v>50000.0</v>
@@ -3502,22 +3403,22 @@
         <v>30</v>
       </c>
       <c r="K17" t="n" s="7">
-        <v>3.6477741E7</v>
+        <v>3.4422311E7</v>
       </c>
       <c r="L17" t="s" s="7">
-        <v>98</v>
+        <v>135</v>
       </c>
       <c r="M17" t="s" s="4">
-        <v>99</v>
+        <v>136</v>
       </c>
       <c r="N17" t="s" s="4">
-        <v>100</v>
+        <v>137</v>
       </c>
       <c r="O17" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P17" t="s" s="4">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="Q17" t="s" s="4">
         <v>30</v>
@@ -3552,19 +3453,19 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="n" s="4">
-        <v>45858.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B18" t="s" s="5">
+        <v>138</v>
+      </c>
+      <c r="C18" t="n" s="4">
+        <v>45862.0</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" t="s" s="7">
         <v>140</v>
-      </c>
-      <c r="C18" t="n" s="4">
-        <v>45859.0</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E18" t="s" s="7">
-        <v>142</v>
       </c>
       <c r="F18" t="s" s="7">
         <v>29</v>
@@ -3573,31 +3474,31 @@
         <v>30</v>
       </c>
       <c r="H18" t="s" s="7">
+        <v>141</v>
+      </c>
+      <c r="I18" t="n" s="7">
+        <v>791422.0</v>
+      </c>
+      <c r="J18" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K18" t="n" s="7">
+        <v>3.4372311E7</v>
+      </c>
+      <c r="L18" t="s" s="7">
+        <v>142</v>
+      </c>
+      <c r="M18" t="s" s="4">
         <v>143</v>
       </c>
-      <c r="I18" t="n" s="7">
-        <v>2939100.0</v>
-      </c>
-      <c r="J18" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="K18" t="n" s="7">
-        <v>3.6427741E7</v>
-      </c>
-      <c r="L18" t="s" s="7">
+      <c r="N18" t="s" s="4">
         <v>144</v>
-      </c>
-      <c r="M18" t="s" s="4">
-        <v>145</v>
-      </c>
-      <c r="N18" t="s" s="4">
-        <v>146</v>
       </c>
       <c r="O18" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P18" t="s" s="4">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="Q18" t="s" s="4">
         <v>30</v>
@@ -3632,19 +3533,19 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B19" t="s" s="5">
+        <v>145</v>
+      </c>
+      <c r="C19" t="n" s="4">
+        <v>45862.0</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" t="s" s="7">
         <v>147</v>
-      </c>
-      <c r="C19" t="n" s="4">
-        <v>45859.0</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E19" t="s" s="7">
-        <v>149</v>
       </c>
       <c r="F19" t="s" s="7">
         <v>29</v>
@@ -3653,31 +3554,31 @@
         <v>30</v>
       </c>
       <c r="H19" t="s" s="7">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="I19" t="n" s="7">
-        <v>47193.0</v>
+        <v>50000.0</v>
       </c>
       <c r="J19" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K19" t="n" s="7">
-        <v>3.3488641E7</v>
+        <v>3.3580889E7</v>
       </c>
       <c r="L19" t="s" s="7">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="M19" t="s" s="4">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="N19" t="s" s="4">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="O19" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P19" t="s" s="4">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="Q19" t="s" s="4">
         <v>30</v>
@@ -3712,19 +3613,19 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C20" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E20" t="s" s="7">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F20" t="s" s="7">
         <v>29</v>
@@ -3733,31 +3634,31 @@
         <v>30</v>
       </c>
       <c r="H20" t="s" s="7">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="I20" t="n" s="7">
-        <v>599122.0</v>
+        <v>159466.0</v>
       </c>
       <c r="J20" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K20" t="n" s="7">
-        <v>3.3441448E7</v>
+        <v>3.3530889E7</v>
       </c>
       <c r="L20" t="s" s="7">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="4">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="N20" t="s" s="4">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="O20" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P20" t="s" s="4">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="Q20" t="s" s="4">
         <v>30</v>
@@ -3792,19 +3693,19 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="C21" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="E21" t="s" s="7">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="F21" t="s" s="7">
         <v>29</v>
@@ -3813,37 +3714,37 @@
         <v>30</v>
       </c>
       <c r="H21" t="s" s="7">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="I21" t="n" s="7">
-        <v>37124.0</v>
+        <v>30000.0</v>
       </c>
       <c r="J21" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K21" t="n" s="7">
-        <v>3.2842326E7</v>
+        <v>3.3371423E7</v>
       </c>
       <c r="L21" t="s" s="7">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="M21" t="s" s="4">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="N21" t="s" s="4">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="O21" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P21" t="s" s="4">
-        <v>30</v>
+        <v>162</v>
       </c>
       <c r="Q21" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R21" t="s" s="4">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="S21" t="s" s="4">
         <v>30</v>
@@ -3872,19 +3773,19 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B22" t="s" s="5">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="C22" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E22" t="s" s="7">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="F22" t="s" s="7">
         <v>29</v>
@@ -3893,37 +3794,37 @@
         <v>30</v>
       </c>
       <c r="H22" t="s" s="7">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I22" t="n" s="7">
-        <v>259740.0</v>
+        <v>140000.0</v>
       </c>
       <c r="J22" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K22" t="n" s="7">
-        <v>3.2805202E7</v>
+        <v>3.3341423E7</v>
       </c>
       <c r="L22" t="s" s="7">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="M22" t="s" s="4">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="N22" t="s" s="4">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="O22" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P22" t="s" s="4">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="Q22" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R22" t="s" s="4">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="S22" t="s" s="4">
         <v>30</v>
@@ -3952,19 +3853,19 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B23" t="s" s="5">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C23" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E23" t="s" s="7">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="F23" t="s" s="7">
         <v>29</v>
@@ -3976,28 +3877,28 @@
         <v>173</v>
       </c>
       <c r="I23" t="n" s="7">
-        <v>85000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="J23" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K23" t="n" s="7">
-        <v>3.2545462E7</v>
+        <v>3.3201423E7</v>
       </c>
       <c r="L23" t="s" s="7">
         <v>174</v>
       </c>
       <c r="M23" t="s" s="4">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="N23" t="s" s="4">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="O23" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P23" t="s" s="4">
-        <v>176</v>
+        <v>30</v>
       </c>
       <c r="Q23" t="s" s="4">
         <v>30</v>
@@ -4032,19 +3933,19 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B24" t="s" s="5">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C24" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E24" t="s" s="7">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F24" t="s" s="7">
         <v>29</v>
@@ -4053,31 +3954,31 @@
         <v>30</v>
       </c>
       <c r="H24" t="s" s="7">
-        <v>83</v>
+        <v>141</v>
       </c>
       <c r="I24" t="n" s="7">
-        <v>6200.0</v>
+        <v>352722.0</v>
       </c>
       <c r="J24" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K24" t="n" s="7">
-        <v>3.2460462E7</v>
+        <v>3.3171423E7</v>
       </c>
       <c r="L24" t="s" s="7">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="M24" t="s" s="4">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="N24" t="s" s="4">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="O24" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P24" t="s" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q24" t="s" s="4">
         <v>30</v>
@@ -4112,19 +4013,19 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C25" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="E25" t="s" s="7">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="F25" t="s" s="7">
         <v>29</v>
@@ -4133,31 +4034,31 @@
         <v>30</v>
       </c>
       <c r="H25" t="s" s="7">
-        <v>188</v>
+        <v>141</v>
       </c>
       <c r="I25" t="n" s="7">
-        <v>1040230.0</v>
+        <v>319400.0</v>
       </c>
       <c r="J25" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K25" t="n" s="7">
-        <v>3.2454262E7</v>
+        <v>3.2818701E7</v>
       </c>
       <c r="L25" t="s" s="7">
-        <v>189</v>
+        <v>142</v>
       </c>
       <c r="M25" t="s" s="4">
-        <v>190</v>
+        <v>143</v>
       </c>
       <c r="N25" t="s" s="4">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="O25" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P25" t="s" s="4">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="Q25" t="s" s="4">
         <v>30</v>
@@ -4192,19 +4093,19 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B26" t="s" s="5">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C26" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="E26" t="s" s="7">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F26" t="s" s="7">
         <v>29</v>
@@ -4213,31 +4114,31 @@
         <v>30</v>
       </c>
       <c r="H26" t="s" s="7">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="I26" t="n" s="7">
-        <v>95000.0</v>
+        <v>258928.0</v>
       </c>
       <c r="J26" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K26" t="n" s="7">
-        <v>3.1414032E7</v>
+        <v>3.2499301E7</v>
       </c>
       <c r="L26" t="s" s="7">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="M26" t="s" s="4">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="N26" t="s" s="4">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="O26" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P26" t="s" s="4">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="Q26" t="s" s="4">
         <v>30</v>
@@ -4272,19 +4173,19 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B27" t="s" s="5">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="C27" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="E27" t="s" s="7">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F27" t="s" s="7">
         <v>29</v>
@@ -4293,31 +4194,31 @@
         <v>30</v>
       </c>
       <c r="H27" t="s" s="7">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="I27" t="n" s="7">
-        <v>165000.0</v>
+        <v>71679.0</v>
       </c>
       <c r="J27" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K27" t="n" s="7">
-        <v>3.1319032E7</v>
+        <v>3.2240373E7</v>
       </c>
       <c r="L27" t="s" s="7">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="M27" t="s" s="4">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="N27" t="s" s="4">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="O27" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P27" t="s" s="4">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="Q27" t="s" s="4">
         <v>30</v>
@@ -4352,19 +4253,19 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B28" t="s" s="5">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C28" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="E28" t="s" s="7">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F28" t="s" s="7">
         <v>29</v>
@@ -4373,31 +4274,31 @@
         <v>30</v>
       </c>
       <c r="H28" t="s" s="7">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="I28" t="n" s="7">
-        <v>127000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="J28" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K28" t="n" s="7">
-        <v>3.1154032E7</v>
+        <v>3.2168694E7</v>
       </c>
       <c r="L28" t="s" s="7">
-        <v>210</v>
+        <v>96</v>
       </c>
       <c r="M28" t="s" s="4">
-        <v>211</v>
+        <v>97</v>
       </c>
       <c r="N28" t="s" s="4">
-        <v>212</v>
+        <v>98</v>
       </c>
       <c r="O28" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P28" t="s" s="4">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="Q28" t="s" s="4">
         <v>30</v>
@@ -4432,19 +4333,19 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B29" t="s" s="5">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="C29" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="E29" t="s" s="7">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="F29" t="s" s="7">
         <v>29</v>
@@ -4453,31 +4354,31 @@
         <v>30</v>
       </c>
       <c r="H29" t="s" s="7">
-        <v>216</v>
-      </c>
-      <c r="I29" t="n" s="7">
-        <v>50000.0</v>
-      </c>
-      <c r="J29" t="s" s="7">
-        <v>30</v>
+        <v>203</v>
+      </c>
+      <c r="I29" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J29" t="n" s="7">
+        <v>3297389.0</v>
       </c>
       <c r="K29" t="n" s="7">
-        <v>3.1027032E7</v>
+        <v>3.1868694E7</v>
       </c>
       <c r="L29" t="s" s="7">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="M29" t="s" s="4">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="N29" t="s" s="4">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="O29" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P29" t="s" s="4">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="Q29" t="s" s="4">
         <v>30</v>
@@ -4512,19 +4413,19 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C30" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="E30" t="s" s="7">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="F30" t="s" s="7">
         <v>29</v>
@@ -4533,34 +4434,34 @@
         <v>30</v>
       </c>
       <c r="H30" t="s" s="7">
-        <v>223</v>
-      </c>
-      <c r="I30" t="n" s="7">
-        <v>460000.0</v>
-      </c>
-      <c r="J30" t="s" s="7">
-        <v>30</v>
+        <v>210</v>
+      </c>
+      <c r="I30" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J30" t="n" s="7">
+        <v>1126421.0</v>
       </c>
       <c r="K30" t="n" s="7">
-        <v>3.0977032E7</v>
+        <v>3.5166083E7</v>
       </c>
       <c r="L30" t="s" s="7">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="M30" t="s" s="4">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="N30" t="s" s="4">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="O30" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P30" t="s" s="4">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q30" t="s" s="4">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="R30" t="s" s="4">
         <v>30</v>
@@ -4592,19 +4493,19 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B31" t="s" s="5">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="C31" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="E31" t="s" s="7">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="F31" t="s" s="7">
         <v>29</v>
@@ -4613,25 +4514,25 @@
         <v>30</v>
       </c>
       <c r="H31" t="s" s="7">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="I31" t="n" s="7">
-        <v>70000.0</v>
+        <v>94971.0</v>
       </c>
       <c r="J31" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K31" t="n" s="7">
-        <v>3.0517032E7</v>
+        <v>3.6292504E7</v>
       </c>
       <c r="L31" t="s" s="7">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="M31" t="s" s="4">
-        <v>232</v>
+        <v>175</v>
       </c>
       <c r="N31" t="s" s="4">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="O31" t="s" s="4">
         <v>35</v>
@@ -4672,19 +4573,19 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B32" t="s" s="5">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="C32" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="E32" t="s" s="7">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="F32" t="s" s="7">
         <v>29</v>
@@ -4693,34 +4594,34 @@
         <v>30</v>
       </c>
       <c r="H32" t="s" s="7">
-        <v>237</v>
-      </c>
-      <c r="I32" t="n" s="7">
-        <v>900000.0</v>
-      </c>
-      <c r="J32" t="s" s="7">
-        <v>30</v>
+        <v>223</v>
+      </c>
+      <c r="I32" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J32" t="n" s="7">
+        <v>1876661.0</v>
       </c>
       <c r="K32" t="n" s="7">
-        <v>3.0447032E7</v>
+        <v>3.6197533E7</v>
       </c>
       <c r="L32" t="s" s="7">
-        <v>238</v>
+        <v>224</v>
       </c>
       <c r="M32" t="s" s="4">
-        <v>239</v>
+        <v>225</v>
       </c>
       <c r="N32" t="s" s="4">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="O32" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P32" t="s" s="4">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="Q32" t="s" s="4">
-        <v>30</v>
+        <v>227</v>
       </c>
       <c r="R32" t="s" s="4">
         <v>30</v>
@@ -4752,19 +4653,19 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B33" t="s" s="5">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="C33" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="E33" t="s" s="7">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="F33" t="s" s="7">
         <v>29</v>
@@ -4773,31 +4674,31 @@
         <v>30</v>
       </c>
       <c r="H33" t="s" s="7">
-        <v>97</v>
-      </c>
-      <c r="I33" t="n" s="7">
-        <v>80000.0</v>
-      </c>
-      <c r="J33" t="s" s="7">
-        <v>30</v>
+        <v>231</v>
+      </c>
+      <c r="I33" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J33" t="n" s="7">
+        <v>1052024.0</v>
       </c>
       <c r="K33" t="n" s="7">
-        <v>2.9547032E7</v>
+        <v>3.8074194E7</v>
       </c>
       <c r="L33" t="s" s="7">
-        <v>98</v>
+        <v>232</v>
       </c>
       <c r="M33" t="s" s="4">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="N33" t="s" s="4">
-        <v>100</v>
+        <v>234</v>
       </c>
       <c r="O33" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P33" t="s" s="4">
-        <v>36</v>
+        <v>235</v>
       </c>
       <c r="Q33" t="s" s="4">
         <v>30</v>
@@ -4832,19 +4733,19 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C34" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="E34" t="s" s="7">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="F34" t="s" s="7">
         <v>29</v>
@@ -4853,31 +4754,31 @@
         <v>30</v>
       </c>
       <c r="H34" t="s" s="7">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="I34" t="n" s="7">
-        <v>212000.0</v>
+        <v>297265.0</v>
       </c>
       <c r="J34" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K34" t="n" s="7">
-        <v>2.9467032E7</v>
+        <v>3.9126218E7</v>
       </c>
       <c r="L34" t="s" s="7">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="M34" t="s" s="4">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="N34" t="s" s="4">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="O34" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P34" t="s" s="4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q34" t="s" s="4">
         <v>30</v>
@@ -4912,19 +4813,19 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C35" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="E35" t="s" s="7">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="F35" t="s" s="7">
         <v>29</v>
@@ -4933,37 +4834,37 @@
         <v>30</v>
       </c>
       <c r="H35" t="s" s="7">
-        <v>111</v>
+        <v>246</v>
       </c>
       <c r="I35" t="n" s="7">
-        <v>195440.0</v>
+        <v>102600.0</v>
       </c>
       <c r="J35" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K35" t="n" s="7">
-        <v>2.9255032E7</v>
+        <v>3.8828953E7</v>
       </c>
       <c r="L35" t="s" s="7">
-        <v>112</v>
+        <v>247</v>
       </c>
       <c r="M35" t="s" s="4">
-        <v>113</v>
+        <v>248</v>
       </c>
       <c r="N35" t="s" s="4">
-        <v>114</v>
+        <v>249</v>
       </c>
       <c r="O35" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P35" t="s" s="4">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="Q35" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R35" t="s" s="4">
-        <v>30</v>
+        <v>250</v>
       </c>
       <c r="S35" t="s" s="4">
         <v>30</v>
@@ -4992,19 +4893,19 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>254</v>
+        <v>243</v>
       </c>
       <c r="C36" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E36" t="s" s="7">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F36" t="s" s="7">
         <v>29</v>
@@ -5013,31 +4914,31 @@
         <v>30</v>
       </c>
       <c r="H36" t="s" s="7">
-        <v>257</v>
+        <v>141</v>
       </c>
       <c r="I36" t="n" s="7">
-        <v>290000.0</v>
+        <v>854224.0</v>
       </c>
       <c r="J36" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K36" t="n" s="7">
-        <v>2.9059592E7</v>
+        <v>3.8726353E7</v>
       </c>
       <c r="L36" t="s" s="7">
-        <v>258</v>
+        <v>142</v>
       </c>
       <c r="M36" t="s" s="4">
-        <v>259</v>
+        <v>143</v>
       </c>
       <c r="N36" t="s" s="4">
-        <v>260</v>
+        <v>144</v>
       </c>
       <c r="O36" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P36" t="s" s="4">
-        <v>261</v>
+        <v>43</v>
       </c>
       <c r="Q36" t="s" s="4">
         <v>30</v>
@@ -5072,19 +4973,19 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C37" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E37" t="s" s="7">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="F37" t="s" s="7">
         <v>29</v>
@@ -5093,31 +4994,31 @@
         <v>30</v>
       </c>
       <c r="H37" t="s" s="7">
+        <v>256</v>
+      </c>
+      <c r="I37" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J37" t="n" s="7">
+        <v>1243552.0</v>
+      </c>
+      <c r="K37" t="n" s="7">
+        <v>3.7872129E7</v>
+      </c>
+      <c r="L37" t="s" s="7">
         <v>257</v>
       </c>
-      <c r="I37" t="n" s="7">
-        <v>100000.0</v>
-      </c>
-      <c r="J37" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="K37" t="n" s="7">
-        <v>2.8769592E7</v>
-      </c>
-      <c r="L37" t="s" s="7">
+      <c r="M37" t="s" s="4">
         <v>258</v>
       </c>
-      <c r="M37" t="s" s="4">
+      <c r="N37" t="s" s="4">
         <v>259</v>
       </c>
-      <c r="N37" t="s" s="4">
-        <v>260</v>
-      </c>
       <c r="O37" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P37" t="s" s="4">
-        <v>261</v>
+        <v>99</v>
       </c>
       <c r="Q37" t="s" s="4">
         <v>30</v>
@@ -5152,19 +5053,19 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C38" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="E38" t="s" s="7">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F38" t="s" s="7">
         <v>29</v>
@@ -5173,31 +5074,31 @@
         <v>30</v>
       </c>
       <c r="H38" t="s" s="7">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="I38" t="n" s="7">
-        <v>30000.0</v>
+        <v>297984.0</v>
       </c>
       <c r="J38" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K38" t="n" s="7">
-        <v>2.8669592E7</v>
+        <v>3.9115681E7</v>
       </c>
       <c r="L38" t="s" s="7">
-        <v>41</v>
+        <v>264</v>
       </c>
       <c r="M38" t="s" s="4">
-        <v>42</v>
+        <v>265</v>
       </c>
       <c r="N38" t="s" s="4">
-        <v>43</v>
+        <v>266</v>
       </c>
       <c r="O38" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P38" t="s" s="4">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q38" t="s" s="4">
         <v>30</v>
@@ -5232,19 +5133,19 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B39" t="s" s="5">
+        <v>267</v>
+      </c>
+      <c r="C39" t="n" s="4">
+        <v>45862.0</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="C39" t="n" s="4">
-        <v>45859.0</v>
-      </c>
-      <c r="D39" s="6" t="s">
+      <c r="E39" t="s" s="7">
         <v>269</v>
-      </c>
-      <c r="E39" t="s" s="7">
-        <v>270</v>
       </c>
       <c r="F39" t="s" s="7">
         <v>29</v>
@@ -5253,31 +5154,31 @@
         <v>30</v>
       </c>
       <c r="H39" t="s" s="7">
-        <v>31</v>
-      </c>
-      <c r="I39" t="n" s="7">
-        <v>325733.0</v>
-      </c>
-      <c r="J39" t="s" s="7">
-        <v>30</v>
+        <v>270</v>
+      </c>
+      <c r="I39" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J39" t="n" s="7">
+        <v>7000000.0</v>
       </c>
       <c r="K39" t="n" s="7">
-        <v>2.8639592E7</v>
+        <v>3.8817697E7</v>
       </c>
       <c r="L39" t="s" s="7">
-        <v>32</v>
+        <v>271</v>
       </c>
       <c r="M39" t="s" s="4">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="N39" t="s" s="4">
-        <v>34</v>
+        <v>273</v>
       </c>
       <c r="O39" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P39" t="s" s="4">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="Q39" t="s" s="4">
         <v>30</v>
@@ -5312,19 +5213,19 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C40" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E40" t="s" s="7">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="F40" t="s" s="7">
         <v>29</v>
@@ -5333,31 +5234,31 @@
         <v>30</v>
       </c>
       <c r="H40" t="s" s="7">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I40" t="n" s="7">
-        <v>45000.0</v>
+        <v>177515.0</v>
       </c>
       <c r="J40" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K40" t="n" s="7">
-        <v>2.8313859E7</v>
+        <v>4.5817697E7</v>
       </c>
       <c r="L40" t="s" s="7">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="M40" t="s" s="4">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="N40" t="s" s="4">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="O40" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P40" t="s" s="4">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="Q40" t="s" s="4">
         <v>30</v>
@@ -5392,19 +5293,19 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="n" s="4">
-        <v>45857.0</v>
+        <v>45862.0</v>
       </c>
       <c r="B41" t="s" s="5">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C41" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E41" t="s" s="7">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="F41" t="s" s="7">
         <v>29</v>
@@ -5413,7 +5314,7 @@
         <v>30</v>
       </c>
       <c r="H41" t="s" s="7">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="I41" t="n" s="7">
         <v>200000.0</v>
@@ -5422,28 +5323,28 @@
         <v>30</v>
       </c>
       <c r="K41" t="n" s="7">
-        <v>2.8268859E7</v>
+        <v>4.5640182E7</v>
       </c>
       <c r="L41" t="s" s="7">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="M41" t="s" s="4">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="N41" t="s" s="4">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="O41" t="s" s="4">
-        <v>285</v>
+        <v>35</v>
       </c>
       <c r="P41" t="s" s="4">
-        <v>176</v>
+        <v>99</v>
       </c>
       <c r="Q41" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R41" t="s" s="4">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="S41" t="s" s="4">
         <v>30</v>
@@ -5472,19 +5373,19 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C42" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E42" t="s" s="7">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F42" t="s" s="7">
         <v>29</v>
@@ -5493,31 +5394,31 @@
         <v>30</v>
       </c>
       <c r="H42" t="s" s="7">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="I42" t="n" s="7">
-        <v>55714.0</v>
+        <v>47179.0</v>
       </c>
       <c r="J42" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K42" t="n" s="7">
-        <v>2.8068859E7</v>
+        <v>4.5440182E7</v>
       </c>
       <c r="L42" t="s" s="7">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="M42" t="s" s="4">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="N42" t="s" s="4">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="O42" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P42" t="s" s="4">
-        <v>261</v>
+        <v>91</v>
       </c>
       <c r="Q42" t="s" s="4">
         <v>30</v>
@@ -5552,19 +5453,19 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C43" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E43" t="s" s="7">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="F43" t="s" s="7">
         <v>29</v>
@@ -5573,31 +5474,31 @@
         <v>30</v>
       </c>
       <c r="H43" t="s" s="7">
-        <v>31</v>
+        <v>298</v>
       </c>
       <c r="I43" t="n" s="7">
-        <v>195440.0</v>
+        <v>94048.0</v>
       </c>
       <c r="J43" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K43" t="n" s="7">
-        <v>2.8013145E7</v>
+        <v>4.5393003E7</v>
       </c>
       <c r="L43" t="s" s="7">
-        <v>32</v>
+        <v>299</v>
       </c>
       <c r="M43" t="s" s="4">
-        <v>33</v>
+        <v>300</v>
       </c>
       <c r="N43" t="s" s="4">
-        <v>34</v>
+        <v>301</v>
       </c>
       <c r="O43" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P43" t="s" s="4">
-        <v>36</v>
+        <v>162</v>
       </c>
       <c r="Q43" t="s" s="4">
         <v>30</v>
@@ -5632,19 +5533,19 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="C44" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="E44" t="s" s="7">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="F44" t="s" s="7">
         <v>29</v>
@@ -5653,31 +5554,31 @@
         <v>30</v>
       </c>
       <c r="H44" t="s" s="7">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="I44" t="n" s="7">
-        <v>300000.0</v>
+        <v>324214.0</v>
       </c>
       <c r="J44" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K44" t="n" s="7">
-        <v>2.7817705E7</v>
+        <v>4.5298955E7</v>
       </c>
       <c r="L44" t="s" s="7">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="M44" t="s" s="4">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="N44" t="s" s="4">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="O44" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P44" t="s" s="4">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q44" t="s" s="4">
         <v>30</v>
@@ -5712,19 +5613,19 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="C45" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="E45" t="s" s="7">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F45" t="s" s="7">
         <v>29</v>
@@ -5733,31 +5634,31 @@
         <v>30</v>
       </c>
       <c r="H45" t="s" s="7">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="I45" t="n" s="7">
-        <v>600000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="J45" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K45" t="n" s="7">
-        <v>2.7517705E7</v>
+        <v>4.4974741E7</v>
       </c>
       <c r="L45" t="s" s="7">
+        <v>313</v>
+      </c>
+      <c r="M45" t="s" s="4">
         <v>307</v>
       </c>
-      <c r="M45" t="s" s="4">
-        <v>308</v>
-      </c>
       <c r="N45" t="s" s="4">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="O45" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P45" t="s" s="4">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q45" t="s" s="4">
         <v>30</v>
@@ -5792,19 +5693,19 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C46" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E46" t="s" s="7">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F46" t="s" s="7">
         <v>29</v>
@@ -5813,31 +5714,31 @@
         <v>30</v>
       </c>
       <c r="H46" t="s" s="7">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="I46" t="n" s="7">
-        <v>38306.0</v>
+        <v>361414.0</v>
       </c>
       <c r="J46" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K46" t="n" s="7">
-        <v>2.6917705E7</v>
+        <v>4.4874741E7</v>
       </c>
       <c r="L46" t="s" s="7">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="M46" t="s" s="4">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="N46" t="s" s="4">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="O46" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P46" t="s" s="4">
-        <v>176</v>
+        <v>43</v>
       </c>
       <c r="Q46" t="s" s="4">
         <v>30</v>
@@ -5872,19 +5773,19 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="C47" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="E47" t="s" s="7">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="F47" t="s" s="7">
         <v>29</v>
@@ -5893,25 +5794,25 @@
         <v>30</v>
       </c>
       <c r="H47" t="s" s="7">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="I47" t="n" s="7">
-        <v>27226.0</v>
+        <v>2284485.0</v>
       </c>
       <c r="J47" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K47" t="n" s="7">
-        <v>2.6879399E7</v>
+        <v>4.4513327E7</v>
       </c>
       <c r="L47" t="s" s="7">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="M47" t="s" s="4">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="N47" t="s" s="4">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="O47" t="s" s="4">
         <v>35</v>
@@ -5952,19 +5853,19 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C48" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="E48" t="s" s="7">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="F48" t="s" s="7">
         <v>29</v>
@@ -5973,31 +5874,31 @@
         <v>30</v>
       </c>
       <c r="H48" t="s" s="7">
-        <v>111</v>
+        <v>305</v>
       </c>
       <c r="I48" t="n" s="7">
-        <v>388727.0</v>
+        <v>419167.0</v>
       </c>
       <c r="J48" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K48" t="n" s="7">
-        <v>2.6852173E7</v>
+        <v>4.2228842E7</v>
       </c>
       <c r="L48" t="s" s="7">
-        <v>112</v>
+        <v>306</v>
       </c>
       <c r="M48" t="s" s="4">
-        <v>113</v>
+        <v>307</v>
       </c>
       <c r="N48" t="s" s="4">
-        <v>114</v>
+        <v>308</v>
       </c>
       <c r="O48" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P48" t="s" s="4">
-        <v>79</v>
+        <v>30</v>
       </c>
       <c r="Q48" t="s" s="4">
         <v>30</v>
@@ -6032,19 +5933,19 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C49" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="E49" t="s" s="7">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="F49" t="s" s="7">
         <v>29</v>
@@ -6053,31 +5954,31 @@
         <v>30</v>
       </c>
       <c r="H49" t="s" s="7">
-        <v>257</v>
+        <v>334</v>
       </c>
       <c r="I49" t="n" s="7">
-        <v>810701.0</v>
+        <v>297000.0</v>
       </c>
       <c r="J49" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K49" t="n" s="7">
-        <v>2.6463446E7</v>
+        <v>4.1809675E7</v>
       </c>
       <c r="L49" t="s" s="7">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="M49" t="s" s="4">
-        <v>259</v>
+        <v>336</v>
       </c>
       <c r="N49" t="s" s="4">
-        <v>260</v>
+        <v>337</v>
       </c>
       <c r="O49" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P49" t="s" s="4">
-        <v>261</v>
+        <v>91</v>
       </c>
       <c r="Q49" t="s" s="4">
         <v>30</v>
@@ -6112,19 +6013,19 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="C50" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="E50" t="s" s="7">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="F50" t="s" s="7">
         <v>29</v>
@@ -6133,25 +6034,25 @@
         <v>30</v>
       </c>
       <c r="H50" t="s" s="7">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="I50" t="n" s="7">
-        <v>162338.0</v>
+        <v>541964.0</v>
       </c>
       <c r="J50" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K50" t="n" s="7">
-        <v>2.5652745E7</v>
+        <v>4.1512675E7</v>
       </c>
       <c r="L50" t="s" s="7">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="M50" t="s" s="4">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="N50" t="s" s="4">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="O50" t="s" s="4">
         <v>35</v>
@@ -6192,19 +6093,19 @@
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C51" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="E51" t="s" s="7">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="F51" t="s" s="7">
         <v>29</v>
@@ -6213,31 +6114,31 @@
         <v>30</v>
       </c>
       <c r="H51" t="s" s="7">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="I51" t="n" s="7">
-        <v>212000.0</v>
+        <v>67700.0</v>
       </c>
       <c r="J51" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K51" t="n" s="7">
-        <v>2.5490407E7</v>
+        <v>4.0970711E7</v>
       </c>
       <c r="L51" t="s" s="7">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="M51" t="s" s="4">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="N51" t="s" s="4">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="O51" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P51" t="s" s="4">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="Q51" t="s" s="4">
         <v>30</v>
@@ -6272,19 +6173,19 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C52" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="E52" t="s" s="7">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F52" t="s" s="7">
         <v>29</v>
@@ -6293,31 +6194,31 @@
         <v>30</v>
       </c>
       <c r="H52" t="s" s="7">
-        <v>69</v>
+        <v>355</v>
       </c>
       <c r="I52" t="n" s="7">
-        <v>194426.0</v>
+        <v>6100.0</v>
       </c>
       <c r="J52" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K52" t="n" s="7">
-        <v>2.5278407E7</v>
+        <v>4.0903011E7</v>
       </c>
       <c r="L52" t="s" s="7">
-        <v>70</v>
+        <v>356</v>
       </c>
       <c r="M52" t="s" s="4">
-        <v>33</v>
+        <v>357</v>
       </c>
       <c r="N52" t="s" s="4">
-        <v>71</v>
+        <v>358</v>
       </c>
       <c r="O52" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P52" t="s" s="4">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q52" t="s" s="4">
         <v>30</v>
@@ -6352,19 +6253,19 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="C53" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="E53" t="s" s="7">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="F53" t="s" s="7">
         <v>29</v>
@@ -6373,25 +6274,25 @@
         <v>30</v>
       </c>
       <c r="H53" t="s" s="7">
-        <v>97</v>
+        <v>362</v>
       </c>
       <c r="I53" t="n" s="7">
-        <v>65000.0</v>
+        <v>160000.0</v>
       </c>
       <c r="J53" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K53" t="n" s="7">
-        <v>2.5083981E7</v>
+        <v>4.0896911E7</v>
       </c>
       <c r="L53" t="s" s="7">
-        <v>98</v>
+        <v>363</v>
       </c>
       <c r="M53" t="s" s="4">
-        <v>99</v>
+        <v>364</v>
       </c>
       <c r="N53" t="s" s="4">
-        <v>100</v>
+        <v>365</v>
       </c>
       <c r="O53" t="s" s="4">
         <v>35</v>
@@ -6432,19 +6333,19 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>350</v>
+        <v>366</v>
       </c>
       <c r="C54" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="E54" t="s" s="7">
-        <v>352</v>
+        <v>368</v>
       </c>
       <c r="F54" t="s" s="7">
         <v>29</v>
@@ -6453,31 +6354,31 @@
         <v>30</v>
       </c>
       <c r="H54" t="s" s="7">
-        <v>31</v>
+        <v>369</v>
       </c>
       <c r="I54" t="n" s="7">
-        <v>324254.0</v>
+        <v>686657.0</v>
       </c>
       <c r="J54" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K54" t="n" s="7">
-        <v>2.5018981E7</v>
+        <v>4.0736911E7</v>
       </c>
       <c r="L54" t="s" s="7">
-        <v>32</v>
+        <v>370</v>
       </c>
       <c r="M54" t="s" s="4">
-        <v>33</v>
+        <v>371</v>
       </c>
       <c r="N54" t="s" s="4">
-        <v>34</v>
+        <v>372</v>
       </c>
       <c r="O54" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P54" t="s" s="4">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q54" t="s" s="4">
         <v>30</v>
@@ -6512,19 +6413,19 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>353</v>
+        <v>373</v>
       </c>
       <c r="C55" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>354</v>
+        <v>374</v>
       </c>
       <c r="E55" t="s" s="7">
-        <v>355</v>
+        <v>375</v>
       </c>
       <c r="F55" t="s" s="7">
         <v>29</v>
@@ -6533,31 +6434,31 @@
         <v>30</v>
       </c>
       <c r="H55" t="s" s="7">
-        <v>356</v>
+        <v>141</v>
       </c>
       <c r="I55" t="n" s="7">
-        <v>150000.0</v>
+        <v>312000.0</v>
       </c>
       <c r="J55" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K55" t="n" s="7">
-        <v>2.4694727E7</v>
+        <v>4.0050254E7</v>
       </c>
       <c r="L55" t="s" s="7">
-        <v>357</v>
+        <v>142</v>
       </c>
       <c r="M55" t="s" s="4">
-        <v>358</v>
+        <v>143</v>
       </c>
       <c r="N55" t="s" s="4">
-        <v>359</v>
+        <v>182</v>
       </c>
       <c r="O55" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P55" t="s" s="4">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="Q55" t="s" s="4">
         <v>30</v>
@@ -6592,19 +6493,19 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B56" t="s" s="5">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="C56" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="E56" t="s" s="7">
-        <v>362</v>
+        <v>377</v>
       </c>
       <c r="F56" t="s" s="7">
         <v>29</v>
@@ -6613,31 +6514,31 @@
         <v>30</v>
       </c>
       <c r="H56" t="s" s="7">
-        <v>363</v>
+        <v>126</v>
       </c>
       <c r="I56" t="n" s="7">
-        <v>76886.0</v>
+        <v>433400.0</v>
       </c>
       <c r="J56" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K56" t="n" s="7">
-        <v>2.4544727E7</v>
+        <v>3.9738254E7</v>
       </c>
       <c r="L56" t="s" s="7">
-        <v>364</v>
+        <v>127</v>
       </c>
       <c r="M56" t="s" s="4">
-        <v>365</v>
+        <v>128</v>
       </c>
       <c r="N56" t="s" s="4">
-        <v>366</v>
+        <v>129</v>
       </c>
       <c r="O56" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P56" t="s" s="4">
-        <v>36</v>
+        <v>130</v>
       </c>
       <c r="Q56" t="s" s="4">
         <v>30</v>
@@ -6672,19 +6573,19 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>367</v>
+        <v>378</v>
       </c>
       <c r="C57" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="E57" t="s" s="7">
-        <v>369</v>
+        <v>380</v>
       </c>
       <c r="F57" t="s" s="7">
         <v>29</v>
@@ -6693,31 +6594,31 @@
         <v>30</v>
       </c>
       <c r="H57" t="s" s="7">
-        <v>370</v>
+        <v>141</v>
       </c>
       <c r="I57" t="n" s="7">
-        <v>89000.0</v>
+        <v>489776.0</v>
       </c>
       <c r="J57" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K57" t="n" s="7">
-        <v>2.4467841E7</v>
+        <v>3.9304854E7</v>
       </c>
       <c r="L57" t="s" s="7">
-        <v>371</v>
+        <v>142</v>
       </c>
       <c r="M57" t="s" s="4">
-        <v>372</v>
+        <v>143</v>
       </c>
       <c r="N57" t="s" s="4">
-        <v>373</v>
+        <v>144</v>
       </c>
       <c r="O57" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P57" t="s" s="4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q57" t="s" s="4">
         <v>30</v>
@@ -6752,19 +6653,19 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="C58" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
       <c r="E58" t="s" s="7">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="F58" t="s" s="7">
         <v>29</v>
@@ -6773,31 +6674,31 @@
         <v>30</v>
       </c>
       <c r="H58" t="s" s="7">
-        <v>377</v>
+        <v>95</v>
       </c>
       <c r="I58" t="n" s="7">
-        <v>300000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="J58" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K58" t="n" s="7">
-        <v>2.4378841E7</v>
+        <v>3.8815078E7</v>
       </c>
       <c r="L58" t="s" s="7">
-        <v>378</v>
+        <v>96</v>
       </c>
       <c r="M58" t="s" s="4">
-        <v>379</v>
+        <v>97</v>
       </c>
       <c r="N58" t="s" s="4">
-        <v>380</v>
+        <v>98</v>
       </c>
       <c r="O58" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P58" t="s" s="4">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="Q58" t="s" s="4">
         <v>30</v>
@@ -6832,19 +6733,19 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="C59" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E59" t="s" s="7">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F59" t="s" s="7">
         <v>29</v>
@@ -6853,31 +6754,31 @@
         <v>30</v>
       </c>
       <c r="H59" t="s" s="7">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="I59" t="n" s="7">
-        <v>155000.0</v>
+        <v>2185000.0</v>
       </c>
       <c r="J59" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K59" t="n" s="7">
-        <v>2.4078841E7</v>
+        <v>3.8755078E7</v>
       </c>
       <c r="L59" t="s" s="7">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="M59" t="s" s="4">
-        <v>211</v>
+        <v>389</v>
       </c>
       <c r="N59" t="s" s="4">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="O59" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P59" t="s" s="4">
-        <v>261</v>
+        <v>91</v>
       </c>
       <c r="Q59" t="s" s="4">
         <v>30</v>
@@ -6912,19 +6813,19 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C60" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="E60" t="s" s="7">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="F60" t="s" s="7">
         <v>29</v>
@@ -6933,31 +6834,31 @@
         <v>30</v>
       </c>
       <c r="H60" t="s" s="7">
-        <v>390</v>
+        <v>141</v>
       </c>
       <c r="I60" t="n" s="7">
-        <v>81613.0</v>
+        <v>968470.0</v>
       </c>
       <c r="J60" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K60" t="n" s="7">
-        <v>2.3923841E7</v>
+        <v>3.6570078E7</v>
       </c>
       <c r="L60" t="s" s="7">
-        <v>391</v>
+        <v>142</v>
       </c>
       <c r="M60" t="s" s="4">
-        <v>392</v>
+        <v>143</v>
       </c>
       <c r="N60" t="s" s="4">
-        <v>393</v>
+        <v>144</v>
       </c>
       <c r="O60" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P60" t="s" s="4">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="Q60" t="s" s="4">
         <v>30</v>
@@ -6992,13 +6893,13 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B61" t="s" s="5">
         <v>394</v>
       </c>
       <c r="C61" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D61" s="6" t="s">
         <v>395</v>
@@ -7013,31 +6914,31 @@
         <v>30</v>
       </c>
       <c r="H61" t="s" s="7">
-        <v>31</v>
+        <v>141</v>
       </c>
       <c r="I61" t="n" s="7">
-        <v>323625.0</v>
+        <v>523200.0</v>
       </c>
       <c r="J61" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K61" t="n" s="7">
-        <v>2.3842228E7</v>
+        <v>3.5601608E7</v>
       </c>
       <c r="L61" t="s" s="7">
-        <v>32</v>
+        <v>142</v>
       </c>
       <c r="M61" t="s" s="4">
-        <v>33</v>
+        <v>143</v>
       </c>
       <c r="N61" t="s" s="4">
-        <v>34</v>
+        <v>182</v>
       </c>
       <c r="O61" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P61" t="s" s="4">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="Q61" t="s" s="4">
         <v>30</v>
@@ -7072,13 +6973,13 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B62" t="s" s="5">
         <v>397</v>
       </c>
       <c r="C62" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D62" s="6" t="s">
         <v>398</v>
@@ -7096,13 +6997,13 @@
         <v>400</v>
       </c>
       <c r="I62" t="n" s="7">
-        <v>40000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="J62" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K62" t="n" s="7">
-        <v>2.3518603E7</v>
+        <v>3.5078408E7</v>
       </c>
       <c r="L62" t="s" s="7">
         <v>401</v>
@@ -7117,7 +7018,7 @@
         <v>35</v>
       </c>
       <c r="P62" t="s" s="4">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="Q62" t="s" s="4">
         <v>30</v>
@@ -7152,13 +7053,13 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B63" t="s" s="5">
         <v>404</v>
       </c>
       <c r="C63" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D63" s="6" t="s">
         <v>405</v>
@@ -7176,13 +7077,13 @@
         <v>407</v>
       </c>
       <c r="I63" t="n" s="7">
-        <v>100000.0</v>
+        <v>160000.0</v>
       </c>
       <c r="J63" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K63" t="n" s="7">
-        <v>2.3478603E7</v>
+        <v>3.5028408E7</v>
       </c>
       <c r="L63" t="s" s="7">
         <v>408</v>
@@ -7197,7 +7098,7 @@
         <v>35</v>
       </c>
       <c r="P63" t="s" s="4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q63" t="s" s="4">
         <v>30</v>
@@ -7232,19 +7133,19 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C64" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="E64" t="s" s="7">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F64" t="s" s="7">
         <v>29</v>
@@ -7253,25 +7154,25 @@
         <v>30</v>
       </c>
       <c r="H64" t="s" s="7">
-        <v>97</v>
+        <v>414</v>
       </c>
       <c r="I64" t="n" s="7">
-        <v>110000.0</v>
+        <v>200000.0</v>
       </c>
       <c r="J64" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K64" t="n" s="7">
-        <v>2.3378603E7</v>
+        <v>3.4868408E7</v>
       </c>
       <c r="L64" t="s" s="7">
-        <v>98</v>
+        <v>415</v>
       </c>
       <c r="M64" t="s" s="4">
-        <v>99</v>
+        <v>416</v>
       </c>
       <c r="N64" t="s" s="4">
-        <v>100</v>
+        <v>417</v>
       </c>
       <c r="O64" t="s" s="4">
         <v>35</v>
@@ -7312,19 +7213,19 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="C65" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="E65" t="s" s="7">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="F65" t="s" s="7">
         <v>29</v>
@@ -7333,31 +7234,31 @@
         <v>30</v>
       </c>
       <c r="H65" t="s" s="7">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="I65" t="n" s="7">
-        <v>870382.0</v>
+        <v>350000.0</v>
       </c>
       <c r="J65" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K65" t="n" s="7">
-        <v>2.3268603E7</v>
+        <v>3.4668408E7</v>
       </c>
       <c r="L65" t="s" s="7">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="M65" t="s" s="4">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="N65" t="s" s="4">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="O65" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P65" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Q65" t="s" s="4">
         <v>30</v>
@@ -7392,19 +7293,19 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>420</v>
+        <v>425</v>
       </c>
       <c r="C66" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="E66" t="s" s="7">
-        <v>422</v>
+        <v>427</v>
       </c>
       <c r="F66" t="s" s="7">
         <v>29</v>
@@ -7413,31 +7314,31 @@
         <v>30</v>
       </c>
       <c r="H66" t="s" s="7">
-        <v>320</v>
+        <v>428</v>
       </c>
       <c r="I66" t="n" s="7">
-        <v>300000.0</v>
+        <v>60000.0</v>
       </c>
       <c r="J66" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K66" t="n" s="7">
-        <v>2.2398221E7</v>
+        <v>3.4318408E7</v>
       </c>
       <c r="L66" t="s" s="7">
-        <v>321</v>
+        <v>429</v>
       </c>
       <c r="M66" t="s" s="4">
-        <v>322</v>
+        <v>430</v>
       </c>
       <c r="N66" t="s" s="4">
-        <v>323</v>
+        <v>431</v>
       </c>
       <c r="O66" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P66" t="s" s="4">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="Q66" t="s" s="4">
         <v>30</v>
@@ -7472,19 +7373,19 @@
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>423</v>
+        <v>26</v>
       </c>
       <c r="C67" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="E67" t="s" s="7">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="F67" t="s" s="7">
         <v>29</v>
@@ -7493,31 +7394,31 @@
         <v>30</v>
       </c>
       <c r="H67" t="s" s="7">
-        <v>426</v>
+        <v>95</v>
       </c>
       <c r="I67" t="n" s="7">
-        <v>151000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="J67" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K67" t="n" s="7">
-        <v>2.2098221E7</v>
+        <v>3.4258408E7</v>
       </c>
       <c r="L67" t="s" s="7">
-        <v>427</v>
+        <v>96</v>
       </c>
       <c r="M67" t="s" s="4">
-        <v>428</v>
+        <v>97</v>
       </c>
       <c r="N67" t="s" s="4">
-        <v>429</v>
+        <v>98</v>
       </c>
       <c r="O67" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P67" t="s" s="4">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="Q67" t="s" s="4">
         <v>30</v>
@@ -7552,19 +7453,19 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" t="n" s="4">
-        <v>45857.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C68" t="n" s="4">
-        <v>45859.0</v>
+        <v>45862.0</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="E68" t="s" s="7">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="F68" t="s" s="7">
         <v>29</v>
@@ -7573,31 +7474,31 @@
         <v>30</v>
       </c>
       <c r="H68" t="s" s="7">
-        <v>433</v>
-      </c>
-      <c r="I68" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="J68" t="n" s="7">
-        <v>2.0E7</v>
+        <v>437</v>
+      </c>
+      <c r="I68" t="n" s="7">
+        <v>148848.0</v>
+      </c>
+      <c r="J68" t="s" s="7">
+        <v>30</v>
       </c>
       <c r="K68" t="n" s="7">
-        <v>2.1947221E7</v>
+        <v>3.4158408E7</v>
       </c>
       <c r="L68" t="s" s="7">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="M68" t="s" s="4">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="N68" t="s" s="4">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="O68" t="s" s="4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P68" t="s" s="4">
-        <v>176</v>
+        <v>91</v>
       </c>
       <c r="Q68" t="s" s="4">
         <v>30</v>
@@ -7632,19 +7533,19 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B69" t="s" s="5">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C69" t="n" s="4">
-        <v>45859.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D69" s="6" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="E69" t="s" s="7">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="F69" t="s" s="7">
         <v>29</v>
@@ -7653,31 +7554,31 @@
         <v>30</v>
       </c>
       <c r="H69" t="s" s="7">
-        <v>440</v>
+        <v>141</v>
       </c>
       <c r="I69" t="n" s="7">
-        <v>300000.0</v>
+        <v>499825.0</v>
       </c>
       <c r="J69" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K69" t="n" s="7">
-        <v>4.1947221E7</v>
+        <v>3.400956E7</v>
       </c>
       <c r="L69" t="s" s="7">
-        <v>441</v>
+        <v>142</v>
       </c>
       <c r="M69" t="s" s="4">
-        <v>442</v>
+        <v>143</v>
       </c>
       <c r="N69" t="s" s="4">
-        <v>443</v>
+        <v>144</v>
       </c>
       <c r="O69" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P69" t="s" s="4">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="Q69" t="s" s="4">
         <v>30</v>
@@ -7712,13 +7613,13 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B70" t="s" s="5">
         <v>444</v>
       </c>
       <c r="C70" t="n" s="4">
-        <v>45859.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>445</v>
@@ -7733,37 +7634,37 @@
         <v>30</v>
       </c>
       <c r="H70" t="s" s="7">
-        <v>83</v>
-      </c>
-      <c r="I70" t="n" s="7">
-        <v>5600.0</v>
-      </c>
-      <c r="J70" t="s" s="7">
-        <v>30</v>
+        <v>270</v>
+      </c>
+      <c r="I70" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J70" t="n" s="7">
+        <v>7000000.0</v>
       </c>
       <c r="K70" t="n" s="7">
-        <v>4.1647221E7</v>
+        <v>3.3509735E7</v>
       </c>
       <c r="L70" t="s" s="7">
-        <v>84</v>
+        <v>271</v>
       </c>
       <c r="M70" t="s" s="4">
-        <v>85</v>
+        <v>272</v>
       </c>
       <c r="N70" t="s" s="4">
-        <v>86</v>
+        <v>273</v>
       </c>
       <c r="O70" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P70" t="s" s="4">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q70" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R70" t="s" s="4">
-        <v>447</v>
+        <v>30</v>
       </c>
       <c r="S70" t="s" s="4">
         <v>30</v>
@@ -7792,19 +7693,19 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B71" t="s" s="5">
+        <v>447</v>
+      </c>
+      <c r="C71" t="n" s="4">
+        <v>45861.0</v>
+      </c>
+      <c r="D71" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="C71" t="n" s="4">
-        <v>45859.0</v>
-      </c>
-      <c r="D71" s="6" t="s">
+      <c r="E71" t="s" s="7">
         <v>449</v>
-      </c>
-      <c r="E71" t="s" s="7">
-        <v>450</v>
       </c>
       <c r="F71" t="s" s="7">
         <v>29</v>
@@ -7813,31 +7714,31 @@
         <v>30</v>
       </c>
       <c r="H71" t="s" s="7">
-        <v>75</v>
+        <v>450</v>
       </c>
       <c r="I71" t="n" s="7">
-        <v>142160.0</v>
+        <v>20000.0</v>
       </c>
       <c r="J71" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K71" t="n" s="7">
-        <v>4.1641621E7</v>
+        <v>4.0509735E7</v>
       </c>
       <c r="L71" t="s" s="7">
-        <v>76</v>
+        <v>451</v>
       </c>
       <c r="M71" t="s" s="4">
-        <v>77</v>
+        <v>452</v>
       </c>
       <c r="N71" t="s" s="4">
-        <v>78</v>
+        <v>453</v>
       </c>
       <c r="O71" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P71" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Q71" t="s" s="4">
         <v>30</v>
@@ -7872,19 +7773,19 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C72" t="n" s="4">
-        <v>45859.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E72" t="s" s="7">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F72" t="s" s="7">
         <v>29</v>
@@ -7893,37 +7794,37 @@
         <v>30</v>
       </c>
       <c r="H72" t="s" s="7">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="I72" t="n" s="7">
-        <v>143000.0</v>
+        <v>176605.0</v>
       </c>
       <c r="J72" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K72" t="n" s="7">
-        <v>4.1499461E7</v>
+        <v>4.0489735E7</v>
       </c>
       <c r="L72" t="s" s="7">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="M72" t="s" s="4">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="N72" t="s" s="4">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="O72" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P72" t="s" s="4">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="Q72" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R72" t="s" s="4">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="S72" t="s" s="4">
         <v>30</v>
@@ -7952,19 +7853,19 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="C73" t="n" s="4">
-        <v>45859.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="E73" t="s" s="7">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F73" t="s" s="7">
         <v>29</v>
@@ -7973,31 +7874,31 @@
         <v>30</v>
       </c>
       <c r="H73" t="s" s="7">
-        <v>461</v>
+        <v>87</v>
       </c>
       <c r="I73" t="n" s="7">
-        <v>50000.0</v>
+        <v>133009.0</v>
       </c>
       <c r="J73" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K73" t="n" s="7">
-        <v>4.1356461E7</v>
+        <v>4.031313E7</v>
       </c>
       <c r="L73" t="s" s="7">
-        <v>462</v>
+        <v>88</v>
       </c>
       <c r="M73" t="s" s="4">
-        <v>463</v>
+        <v>89</v>
       </c>
       <c r="N73" t="s" s="4">
-        <v>464</v>
+        <v>90</v>
       </c>
       <c r="O73" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P73" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Q73" t="s" s="4">
         <v>30</v>
@@ -8032,19 +7933,19 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B74" t="s" s="5">
+        <v>464</v>
+      </c>
+      <c r="C74" t="n" s="4">
+        <v>45861.0</v>
+      </c>
+      <c r="D74" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="C74" t="n" s="4">
-        <v>45859.0</v>
-      </c>
-      <c r="D74" s="6" t="s">
+      <c r="E74" t="s" s="7">
         <v>466</v>
-      </c>
-      <c r="E74" t="s" s="7">
-        <v>467</v>
       </c>
       <c r="F74" t="s" s="7">
         <v>29</v>
@@ -8053,37 +7954,37 @@
         <v>30</v>
       </c>
       <c r="H74" t="s" s="7">
-        <v>468</v>
+        <v>141</v>
       </c>
       <c r="I74" t="n" s="7">
-        <v>2000000.0</v>
+        <v>560000.0</v>
       </c>
       <c r="J74" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K74" t="n" s="7">
-        <v>4.1306461E7</v>
+        <v>4.0180121E7</v>
       </c>
       <c r="L74" t="s" s="7">
-        <v>469</v>
+        <v>142</v>
       </c>
       <c r="M74" t="s" s="4">
-        <v>470</v>
+        <v>143</v>
       </c>
       <c r="N74" t="s" s="4">
-        <v>471</v>
+        <v>182</v>
       </c>
       <c r="O74" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P74" t="s" s="4">
-        <v>472</v>
+        <v>91</v>
       </c>
       <c r="Q74" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R74" t="s" s="4">
-        <v>447</v>
+        <v>30</v>
       </c>
       <c r="S74" t="s" s="4">
         <v>30</v>
@@ -8112,19 +8013,19 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>241</v>
+        <v>467</v>
       </c>
       <c r="C75" t="n" s="4">
-        <v>45859.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="E75" t="s" s="7">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F75" t="s" s="7">
         <v>29</v>
@@ -8133,31 +8034,31 @@
         <v>30</v>
       </c>
       <c r="H75" t="s" s="7">
-        <v>475</v>
+        <v>407</v>
       </c>
       <c r="I75" t="n" s="7">
-        <v>300000.0</v>
+        <v>100000.0</v>
       </c>
       <c r="J75" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K75" t="n" s="7">
-        <v>3.9306461E7</v>
+        <v>3.9620121E7</v>
       </c>
       <c r="L75" t="s" s="7">
-        <v>476</v>
+        <v>408</v>
       </c>
       <c r="M75" t="s" s="4">
-        <v>477</v>
+        <v>409</v>
       </c>
       <c r="N75" t="s" s="4">
-        <v>478</v>
+        <v>410</v>
       </c>
       <c r="O75" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P75" t="s" s="4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q75" t="s" s="4">
         <v>30</v>
@@ -8192,19 +8093,19 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="C76" t="n" s="4">
-        <v>45859.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="E76" t="s" s="7">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="F76" t="s" s="7">
         <v>29</v>
@@ -8213,31 +8114,31 @@
         <v>30</v>
       </c>
       <c r="H76" t="s" s="7">
-        <v>257</v>
+        <v>217</v>
       </c>
       <c r="I76" t="n" s="7">
-        <v>100000.0</v>
+        <v>36190.0</v>
       </c>
       <c r="J76" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K76" t="n" s="7">
-        <v>3.9006461E7</v>
+        <v>3.9520121E7</v>
       </c>
       <c r="L76" t="s" s="7">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="M76" t="s" s="4">
-        <v>259</v>
+        <v>175</v>
       </c>
       <c r="N76" t="s" s="4">
-        <v>260</v>
+        <v>219</v>
       </c>
       <c r="O76" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P76" t="s" s="4">
-        <v>261</v>
+        <v>36</v>
       </c>
       <c r="Q76" t="s" s="4">
         <v>30</v>
@@ -8272,19 +8173,19 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C77" t="n" s="4">
-        <v>45859.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="E77" t="s" s="7">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="F77" t="s" s="7">
         <v>29</v>
@@ -8293,31 +8194,31 @@
         <v>30</v>
       </c>
       <c r="H77" t="s" s="7">
-        <v>104</v>
+        <v>476</v>
       </c>
       <c r="I77" t="n" s="7">
-        <v>200000.0</v>
+        <v>59717.0</v>
       </c>
       <c r="J77" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K77" t="n" s="7">
-        <v>3.8906461E7</v>
+        <v>3.9483931E7</v>
       </c>
       <c r="L77" t="s" s="7">
-        <v>105</v>
+        <v>477</v>
       </c>
       <c r="M77" t="s" s="4">
-        <v>106</v>
+        <v>478</v>
       </c>
       <c r="N77" t="s" s="4">
-        <v>107</v>
+        <v>479</v>
       </c>
       <c r="O77" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P77" t="s" s="4">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="Q77" t="s" s="4">
         <v>30</v>
@@ -8352,19 +8253,19 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="C78" t="n" s="4">
-        <v>45859.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E78" t="s" s="7">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F78" t="s" s="7">
         <v>29</v>
@@ -8373,31 +8274,31 @@
         <v>30</v>
       </c>
       <c r="H78" t="s" s="7">
-        <v>488</v>
+        <v>106</v>
       </c>
       <c r="I78" t="n" s="7">
-        <v>39216.0</v>
+        <v>50000.0</v>
       </c>
       <c r="J78" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K78" t="n" s="7">
-        <v>3.8706461E7</v>
+        <v>3.9424214E7</v>
       </c>
       <c r="L78" t="s" s="7">
-        <v>489</v>
+        <v>107</v>
       </c>
       <c r="M78" t="s" s="4">
-        <v>490</v>
+        <v>108</v>
       </c>
       <c r="N78" t="s" s="4">
-        <v>491</v>
+        <v>109</v>
       </c>
       <c r="O78" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P78" t="s" s="4">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="Q78" t="s" s="4">
         <v>30</v>
@@ -8432,19 +8333,19 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>492</v>
+        <v>120</v>
       </c>
       <c r="C79" t="n" s="4">
-        <v>45859.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="E79" t="s" s="7">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="F79" t="s" s="7">
         <v>29</v>
@@ -8453,31 +8354,31 @@
         <v>30</v>
       </c>
       <c r="H79" t="s" s="7">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="I79" t="n" s="7">
-        <v>65575.0</v>
+        <v>61538.0</v>
       </c>
       <c r="J79" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K79" t="n" s="7">
-        <v>3.8667245E7</v>
+        <v>3.9374214E7</v>
       </c>
       <c r="L79" t="s" s="7">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="M79" t="s" s="4">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="N79" t="s" s="4">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="O79" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P79" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Q79" t="s" s="4">
         <v>30</v>
@@ -8512,19 +8413,19 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="C80" t="n" s="4">
-        <v>45859.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="E80" t="s" s="7">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F80" t="s" s="7">
         <v>29</v>
@@ -8533,31 +8434,31 @@
         <v>30</v>
       </c>
       <c r="H80" t="s" s="7">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="I80" t="n" s="7">
-        <v>100000.0</v>
+        <v>119048.0</v>
       </c>
       <c r="J80" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K80" t="n" s="7">
-        <v>3.860167E7</v>
+        <v>3.9312676E7</v>
       </c>
       <c r="L80" t="s" s="7">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="M80" t="s" s="4">
-        <v>504</v>
+        <v>33</v>
       </c>
       <c r="N80" t="s" s="4">
-        <v>505</v>
+        <v>494</v>
       </c>
       <c r="O80" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P80" t="s" s="4">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="Q80" t="s" s="4">
         <v>30</v>
@@ -8592,19 +8493,19 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B81" t="s" s="5">
-        <v>506</v>
+        <v>495</v>
       </c>
       <c r="C81" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="E81" t="s" s="7">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="F81" t="s" s="7">
         <v>29</v>
@@ -8613,31 +8514,31 @@
         <v>30</v>
       </c>
       <c r="H81" t="s" s="7">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="I81" t="n" s="7">
-        <v>32680.0</v>
+        <v>200000.0</v>
       </c>
       <c r="J81" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K81" t="n" s="7">
-        <v>3.850167E7</v>
+        <v>3.9193628E7</v>
       </c>
       <c r="L81" t="s" s="7">
-        <v>510</v>
+        <v>499</v>
       </c>
       <c r="M81" t="s" s="4">
-        <v>511</v>
+        <v>286</v>
       </c>
       <c r="N81" t="s" s="4">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="O81" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P81" t="s" s="4">
-        <v>36</v>
+        <v>91</v>
       </c>
       <c r="Q81" t="s" s="4">
         <v>30</v>
@@ -8672,19 +8573,19 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>513</v>
+        <v>501</v>
       </c>
       <c r="C82" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>514</v>
+        <v>502</v>
       </c>
       <c r="E82" t="s" s="7">
-        <v>515</v>
+        <v>503</v>
       </c>
       <c r="F82" t="s" s="7">
         <v>29</v>
@@ -8693,31 +8594,31 @@
         <v>30</v>
       </c>
       <c r="H82" t="s" s="7">
-        <v>516</v>
+        <v>504</v>
       </c>
       <c r="I82" t="n" s="7">
-        <v>455184.0</v>
+        <v>155000.0</v>
       </c>
       <c r="J82" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K82" t="n" s="7">
-        <v>3.846899E7</v>
+        <v>3.8993628E7</v>
       </c>
       <c r="L82" t="s" s="7">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="M82" t="s" s="4">
-        <v>518</v>
+        <v>506</v>
       </c>
       <c r="N82" t="s" s="4">
-        <v>519</v>
+        <v>507</v>
       </c>
       <c r="O82" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P82" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Q82" t="s" s="4">
         <v>30</v>
@@ -8752,19 +8653,19 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>520</v>
+        <v>508</v>
       </c>
       <c r="C83" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>521</v>
+        <v>509</v>
       </c>
       <c r="E83" t="s" s="7">
-        <v>522</v>
+        <v>510</v>
       </c>
       <c r="F83" t="s" s="7">
         <v>29</v>
@@ -8773,37 +8674,37 @@
         <v>30</v>
       </c>
       <c r="H83" t="s" s="7">
-        <v>523</v>
+        <v>511</v>
       </c>
       <c r="I83" t="n" s="7">
-        <v>154791.0</v>
+        <v>72023.0</v>
       </c>
       <c r="J83" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K83" t="n" s="7">
-        <v>3.8013806E7</v>
+        <v>3.8838628E7</v>
       </c>
       <c r="L83" t="s" s="7">
-        <v>524</v>
+        <v>512</v>
       </c>
       <c r="M83" t="s" s="4">
-        <v>525</v>
+        <v>513</v>
       </c>
       <c r="N83" t="s" s="4">
-        <v>526</v>
+        <v>514</v>
       </c>
       <c r="O83" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P83" t="s" s="4">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="Q83" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R83" t="s" s="4">
-        <v>177</v>
+        <v>30</v>
       </c>
       <c r="S83" t="s" s="4">
         <v>30</v>
@@ -8832,19 +8733,19 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B84" t="s" s="5">
-        <v>527</v>
+        <v>515</v>
       </c>
       <c r="C84" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>528</v>
+        <v>516</v>
       </c>
       <c r="E84" t="s" s="7">
-        <v>529</v>
+        <v>517</v>
       </c>
       <c r="F84" t="s" s="7">
         <v>29</v>
@@ -8853,31 +8754,31 @@
         <v>30</v>
       </c>
       <c r="H84" t="s" s="7">
-        <v>530</v>
+        <v>369</v>
       </c>
       <c r="I84" t="n" s="7">
-        <v>107143.0</v>
+        <v>211963.0</v>
       </c>
       <c r="J84" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K84" t="n" s="7">
-        <v>3.7859015E7</v>
+        <v>3.8766605E7</v>
       </c>
       <c r="L84" t="s" s="7">
-        <v>531</v>
+        <v>370</v>
       </c>
       <c r="M84" t="s" s="4">
-        <v>167</v>
+        <v>371</v>
       </c>
       <c r="N84" t="s" s="4">
-        <v>532</v>
+        <v>372</v>
       </c>
       <c r="O84" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P84" t="s" s="4">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q84" t="s" s="4">
         <v>30</v>
@@ -8912,19 +8813,19 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B85" t="s" s="5">
-        <v>533</v>
+        <v>518</v>
       </c>
       <c r="C85" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>534</v>
+        <v>519</v>
       </c>
       <c r="E85" t="s" s="7">
-        <v>535</v>
+        <v>520</v>
       </c>
       <c r="F85" t="s" s="7">
         <v>29</v>
@@ -8933,37 +8834,37 @@
         <v>30</v>
       </c>
       <c r="H85" t="s" s="7">
-        <v>523</v>
-      </c>
-      <c r="I85" t="n" s="7">
-        <v>187000.0</v>
-      </c>
-      <c r="J85" t="s" s="7">
-        <v>30</v>
+        <v>270</v>
+      </c>
+      <c r="I85" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J85" t="n" s="7">
+        <v>5000000.0</v>
       </c>
       <c r="K85" t="n" s="7">
-        <v>3.7751872E7</v>
+        <v>3.8554642E7</v>
       </c>
       <c r="L85" t="s" s="7">
-        <v>524</v>
+        <v>271</v>
       </c>
       <c r="M85" t="s" s="4">
-        <v>525</v>
+        <v>272</v>
       </c>
       <c r="N85" t="s" s="4">
-        <v>536</v>
+        <v>273</v>
       </c>
       <c r="O85" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P85" t="s" s="4">
-        <v>261</v>
+        <v>51</v>
       </c>
       <c r="Q85" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R85" t="s" s="4">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="S85" t="s" s="4">
         <v>30</v>
@@ -8992,19 +8893,19 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B86" t="s" s="5">
-        <v>537</v>
+        <v>521</v>
       </c>
       <c r="C86" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>538</v>
+        <v>522</v>
       </c>
       <c r="E86" t="s" s="7">
-        <v>539</v>
+        <v>523</v>
       </c>
       <c r="F86" t="s" s="7">
         <v>29</v>
@@ -9013,31 +8914,31 @@
         <v>30</v>
       </c>
       <c r="H86" t="s" s="7">
-        <v>523</v>
+        <v>263</v>
       </c>
       <c r="I86" t="n" s="7">
-        <v>334500.0</v>
+        <v>491182.0</v>
       </c>
       <c r="J86" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K86" t="n" s="7">
-        <v>3.7564872E7</v>
+        <v>4.3554642E7</v>
       </c>
       <c r="L86" t="s" s="7">
-        <v>524</v>
+        <v>264</v>
       </c>
       <c r="M86" t="s" s="4">
-        <v>525</v>
+        <v>265</v>
       </c>
       <c r="N86" t="s" s="4">
-        <v>536</v>
+        <v>266</v>
       </c>
       <c r="O86" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P86" t="s" s="4">
-        <v>261</v>
+        <v>43</v>
       </c>
       <c r="Q86" t="s" s="4">
         <v>30</v>
@@ -9072,19 +8973,19 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B87" t="s" s="5">
-        <v>540</v>
+        <v>524</v>
       </c>
       <c r="C87" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>541</v>
+        <v>525</v>
       </c>
       <c r="E87" t="s" s="7">
-        <v>542</v>
+        <v>526</v>
       </c>
       <c r="F87" t="s" s="7">
         <v>29</v>
@@ -9093,31 +8994,31 @@
         <v>30</v>
       </c>
       <c r="H87" t="s" s="7">
-        <v>543</v>
+        <v>141</v>
       </c>
       <c r="I87" t="n" s="7">
-        <v>2148107.0</v>
+        <v>907500.0</v>
       </c>
       <c r="J87" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K87" t="n" s="7">
-        <v>3.7230372E7</v>
+        <v>4.306346E7</v>
       </c>
       <c r="L87" t="s" s="7">
-        <v>544</v>
+        <v>142</v>
       </c>
       <c r="M87" t="s" s="4">
-        <v>545</v>
+        <v>143</v>
       </c>
       <c r="N87" t="s" s="4">
-        <v>546</v>
+        <v>144</v>
       </c>
       <c r="O87" t="s" s="4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P87" t="s" s="4">
-        <v>547</v>
+        <v>43</v>
       </c>
       <c r="Q87" t="s" s="4">
         <v>30</v>
@@ -9152,19 +9053,19 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B88" t="s" s="5">
-        <v>548</v>
+        <v>527</v>
       </c>
       <c r="C88" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>549</v>
+        <v>528</v>
       </c>
       <c r="E88" t="s" s="7">
-        <v>550</v>
+        <v>529</v>
       </c>
       <c r="F88" t="s" s="7">
         <v>29</v>
@@ -9173,37 +9074,37 @@
         <v>30</v>
       </c>
       <c r="H88" t="s" s="7">
-        <v>551</v>
+        <v>126</v>
       </c>
       <c r="I88" t="n" s="7">
-        <v>150000.0</v>
+        <v>319000.0</v>
       </c>
       <c r="J88" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K88" t="n" s="7">
-        <v>3.5082265E7</v>
+        <v>4.215596E7</v>
       </c>
       <c r="L88" t="s" s="7">
-        <v>552</v>
+        <v>127</v>
       </c>
       <c r="M88" t="s" s="4">
-        <v>553</v>
+        <v>128</v>
       </c>
       <c r="N88" t="s" s="4">
-        <v>554</v>
+        <v>129</v>
       </c>
       <c r="O88" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P88" t="s" s="4">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="Q88" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R88" t="s" s="4">
-        <v>555</v>
+        <v>30</v>
       </c>
       <c r="S88" t="s" s="4">
         <v>30</v>
@@ -9232,19 +9133,19 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B89" t="s" s="5">
-        <v>556</v>
+        <v>530</v>
       </c>
       <c r="C89" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>557</v>
+        <v>531</v>
       </c>
       <c r="E89" t="s" s="7">
-        <v>558</v>
+        <v>532</v>
       </c>
       <c r="F89" t="s" s="7">
         <v>29</v>
@@ -9253,31 +9154,31 @@
         <v>30</v>
       </c>
       <c r="H89" t="s" s="7">
+        <v>141</v>
+      </c>
+      <c r="I89" t="n" s="7">
+        <v>641100.0</v>
+      </c>
+      <c r="J89" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K89" t="n" s="7">
+        <v>4.183696E7</v>
+      </c>
+      <c r="L89" t="s" s="7">
+        <v>142</v>
+      </c>
+      <c r="M89" t="s" s="4">
         <v>143</v>
       </c>
-      <c r="I89" t="n" s="7">
-        <v>22039.0</v>
-      </c>
-      <c r="J89" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="K89" t="n" s="7">
-        <v>3.4932265E7</v>
-      </c>
-      <c r="L89" t="s" s="7">
-        <v>144</v>
-      </c>
-      <c r="M89" t="s" s="4">
-        <v>145</v>
-      </c>
       <c r="N89" t="s" s="4">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="O89" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P89" t="s" s="4">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="Q89" t="s" s="4">
         <v>30</v>
@@ -9312,19 +9213,19 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B90" t="s" s="5">
-        <v>559</v>
+        <v>533</v>
       </c>
       <c r="C90" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>560</v>
+        <v>534</v>
       </c>
       <c r="E90" t="s" s="7">
-        <v>561</v>
+        <v>535</v>
       </c>
       <c r="F90" t="s" s="7">
         <v>29</v>
@@ -9333,31 +9234,31 @@
         <v>30</v>
       </c>
       <c r="H90" t="s" s="7">
-        <v>562</v>
+        <v>355</v>
       </c>
       <c r="I90" t="n" s="7">
-        <v>310000.0</v>
+        <v>5385.0</v>
       </c>
       <c r="J90" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K90" t="n" s="7">
-        <v>3.4910226E7</v>
+        <v>4.119586E7</v>
       </c>
       <c r="L90" t="s" s="7">
-        <v>563</v>
+        <v>356</v>
       </c>
       <c r="M90" t="s" s="4">
-        <v>564</v>
+        <v>357</v>
       </c>
       <c r="N90" t="s" s="4">
-        <v>565</v>
+        <v>358</v>
       </c>
       <c r="O90" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P90" t="s" s="4">
-        <v>261</v>
+        <v>36</v>
       </c>
       <c r="Q90" t="s" s="4">
         <v>30</v>
@@ -9392,19 +9293,19 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B91" t="s" s="5">
-        <v>566</v>
+        <v>536</v>
       </c>
       <c r="C91" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>567</v>
+        <v>537</v>
       </c>
       <c r="E91" t="s" s="7">
-        <v>568</v>
+        <v>538</v>
       </c>
       <c r="F91" t="s" s="7">
         <v>29</v>
@@ -9413,31 +9314,31 @@
         <v>30</v>
       </c>
       <c r="H91" t="s" s="7">
-        <v>569</v>
+        <v>186</v>
       </c>
       <c r="I91" t="n" s="7">
-        <v>196721.0</v>
+        <v>367446.0</v>
       </c>
       <c r="J91" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K91" t="n" s="7">
-        <v>3.4600226E7</v>
+        <v>4.1190475E7</v>
       </c>
       <c r="L91" t="s" s="7">
-        <v>570</v>
+        <v>187</v>
       </c>
       <c r="M91" t="s" s="4">
-        <v>571</v>
+        <v>188</v>
       </c>
       <c r="N91" t="s" s="4">
-        <v>572</v>
+        <v>189</v>
       </c>
       <c r="O91" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P91" t="s" s="4">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="Q91" t="s" s="4">
         <v>30</v>
@@ -9472,19 +9373,19 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" t="n" s="4">
-        <v>45855.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B92" t="s" s="5">
-        <v>573</v>
+        <v>539</v>
       </c>
       <c r="C92" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>574</v>
+        <v>540</v>
       </c>
       <c r="E92" t="s" s="7">
-        <v>575</v>
+        <v>541</v>
       </c>
       <c r="F92" t="s" s="7">
         <v>29</v>
@@ -9493,31 +9394,31 @@
         <v>30</v>
       </c>
       <c r="H92" t="s" s="7">
-        <v>143</v>
+        <v>542</v>
       </c>
       <c r="I92" t="n" s="7">
-        <v>5000000.0</v>
+        <v>800000.0</v>
       </c>
       <c r="J92" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K92" t="n" s="7">
-        <v>3.4403505E7</v>
+        <v>4.0823029E7</v>
       </c>
       <c r="L92" t="s" s="7">
-        <v>144</v>
+        <v>543</v>
       </c>
       <c r="M92" t="s" s="4">
-        <v>145</v>
+        <v>544</v>
       </c>
       <c r="N92" t="s" s="4">
-        <v>146</v>
+        <v>545</v>
       </c>
       <c r="O92" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P92" t="s" s="4">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="Q92" t="s" s="4">
         <v>30</v>
@@ -9552,19 +9453,19 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" t="n" s="4">
-        <v>45855.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B93" t="s" s="5">
-        <v>576</v>
+        <v>546</v>
       </c>
       <c r="C93" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>577</v>
+        <v>547</v>
       </c>
       <c r="E93" t="s" s="7">
-        <v>578</v>
+        <v>548</v>
       </c>
       <c r="F93" t="s" s="7">
         <v>29</v>
@@ -9573,31 +9474,31 @@
         <v>30</v>
       </c>
       <c r="H93" t="s" s="7">
-        <v>579</v>
+        <v>549</v>
       </c>
       <c r="I93" t="n" s="7">
-        <v>265192.0</v>
+        <v>10000.0</v>
       </c>
       <c r="J93" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K93" t="n" s="7">
-        <v>2.9403505E7</v>
+        <v>4.0023029E7</v>
       </c>
       <c r="L93" t="s" s="7">
-        <v>580</v>
+        <v>550</v>
       </c>
       <c r="M93" t="s" s="4">
-        <v>160</v>
+        <v>551</v>
       </c>
       <c r="N93" t="s" s="4">
-        <v>581</v>
+        <v>552</v>
       </c>
       <c r="O93" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P93" t="s" s="4">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="Q93" t="s" s="4">
         <v>30</v>
@@ -9632,19 +9533,19 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" t="n" s="4">
-        <v>45855.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B94" t="s" s="5">
-        <v>582</v>
+        <v>177</v>
       </c>
       <c r="C94" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>583</v>
+        <v>553</v>
       </c>
       <c r="E94" t="s" s="7">
-        <v>584</v>
+        <v>554</v>
       </c>
       <c r="F94" t="s" s="7">
         <v>29</v>
@@ -9653,31 +9554,31 @@
         <v>30</v>
       </c>
       <c r="H94" t="s" s="7">
-        <v>440</v>
+        <v>555</v>
       </c>
       <c r="I94" t="n" s="7">
-        <v>240000.0</v>
+        <v>104078.0</v>
       </c>
       <c r="J94" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K94" t="n" s="7">
-        <v>2.9138313E7</v>
+        <v>4.0013029E7</v>
       </c>
       <c r="L94" t="s" s="7">
-        <v>441</v>
+        <v>556</v>
       </c>
       <c r="M94" t="s" s="4">
-        <v>442</v>
+        <v>557</v>
       </c>
       <c r="N94" t="s" s="4">
-        <v>443</v>
+        <v>558</v>
       </c>
       <c r="O94" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P94" t="s" s="4">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="Q94" t="s" s="4">
         <v>30</v>
@@ -9712,19 +9613,19 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" t="n" s="4">
-        <v>45855.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B95" t="s" s="5">
-        <v>585</v>
+        <v>559</v>
       </c>
       <c r="C95" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>586</v>
+        <v>560</v>
       </c>
       <c r="E95" t="s" s="7">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="F95" t="s" s="7">
         <v>29</v>
@@ -9733,31 +9634,31 @@
         <v>30</v>
       </c>
       <c r="H95" t="s" s="7">
-        <v>588</v>
+        <v>113</v>
       </c>
       <c r="I95" t="n" s="7">
-        <v>3627.0</v>
+        <v>474429.0</v>
       </c>
       <c r="J95" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K95" t="n" s="7">
-        <v>2.8898313E7</v>
+        <v>3.9908951E7</v>
       </c>
       <c r="L95" t="s" s="7">
-        <v>589</v>
+        <v>114</v>
       </c>
       <c r="M95" t="s" s="4">
-        <v>590</v>
+        <v>115</v>
       </c>
       <c r="N95" t="s" s="4">
-        <v>591</v>
+        <v>116</v>
       </c>
       <c r="O95" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P95" t="s" s="4">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q95" t="s" s="4">
         <v>30</v>
@@ -9792,19 +9693,19 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" t="n" s="4">
-        <v>45855.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B96" t="s" s="5">
-        <v>592</v>
+        <v>190</v>
       </c>
       <c r="C96" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>593</v>
+        <v>562</v>
       </c>
       <c r="E96" t="s" s="7">
-        <v>594</v>
+        <v>563</v>
       </c>
       <c r="F96" t="s" s="7">
         <v>29</v>
@@ -9813,25 +9714,25 @@
         <v>30</v>
       </c>
       <c r="H96" t="s" s="7">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="I96" t="n" s="7">
-        <v>1000000.0</v>
+        <v>49037.0</v>
       </c>
       <c r="J96" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K96" t="n" s="7">
-        <v>2.8894686E7</v>
+        <v>3.9434522E7</v>
       </c>
       <c r="L96" t="s" s="7">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="M96" t="s" s="4">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="N96" t="s" s="4">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="O96" t="s" s="4">
         <v>35</v>
@@ -9872,19 +9773,19 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" t="n" s="4">
-        <v>45855.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B97" t="s" s="5">
-        <v>595</v>
+        <v>568</v>
       </c>
       <c r="C97" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>596</v>
+        <v>569</v>
       </c>
       <c r="E97" t="s" s="7">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="F97" t="s" s="7">
         <v>29</v>
@@ -9893,31 +9794,31 @@
         <v>30</v>
       </c>
       <c r="H97" t="s" s="7">
-        <v>333</v>
+        <v>571</v>
       </c>
       <c r="I97" t="n" s="7">
-        <v>14399.0</v>
+        <v>252077.0</v>
       </c>
       <c r="J97" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K97" t="n" s="7">
-        <v>2.7894686E7</v>
+        <v>3.9385485E7</v>
       </c>
       <c r="L97" t="s" s="7">
-        <v>334</v>
+        <v>572</v>
       </c>
       <c r="M97" t="s" s="4">
-        <v>335</v>
+        <v>566</v>
       </c>
       <c r="N97" t="s" s="4">
-        <v>598</v>
+        <v>573</v>
       </c>
       <c r="O97" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P97" t="s" s="4">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="Q97" t="s" s="4">
         <v>30</v>
@@ -9952,19 +9853,19 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" t="n" s="4">
-        <v>45855.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B98" t="s" s="5">
-        <v>599</v>
+        <v>574</v>
       </c>
       <c r="C98" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>600</v>
+        <v>575</v>
       </c>
       <c r="E98" t="s" s="7">
-        <v>601</v>
+        <v>576</v>
       </c>
       <c r="F98" t="s" s="7">
         <v>29</v>
@@ -9973,31 +9874,31 @@
         <v>30</v>
       </c>
       <c r="H98" t="s" s="7">
-        <v>602</v>
+        <v>141</v>
       </c>
       <c r="I98" t="n" s="7">
-        <v>1235640.0</v>
+        <v>235000.0</v>
       </c>
       <c r="J98" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K98" t="n" s="7">
-        <v>2.7880287E7</v>
+        <v>3.9133408E7</v>
       </c>
       <c r="L98" t="s" s="7">
-        <v>603</v>
+        <v>142</v>
       </c>
       <c r="M98" t="s" s="4">
-        <v>604</v>
+        <v>143</v>
       </c>
       <c r="N98" t="s" s="4">
-        <v>605</v>
+        <v>182</v>
       </c>
       <c r="O98" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P98" t="s" s="4">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Q98" t="s" s="4">
         <v>30</v>
@@ -10032,19 +9933,19 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" t="n" s="4">
-        <v>45855.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B99" t="s" s="5">
-        <v>599</v>
+        <v>577</v>
       </c>
       <c r="C99" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>606</v>
+        <v>578</v>
       </c>
       <c r="E99" t="s" s="7">
-        <v>607</v>
+        <v>579</v>
       </c>
       <c r="F99" t="s" s="7">
         <v>29</v>
@@ -10053,31 +9954,31 @@
         <v>30</v>
       </c>
       <c r="H99" t="s" s="7">
-        <v>333</v>
+        <v>141</v>
       </c>
       <c r="I99" t="n" s="7">
-        <v>149000.0</v>
+        <v>705873.0</v>
       </c>
       <c r="J99" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K99" t="n" s="7">
-        <v>2.6644647E7</v>
+        <v>3.8898408E7</v>
       </c>
       <c r="L99" t="s" s="7">
-        <v>334</v>
+        <v>142</v>
       </c>
       <c r="M99" t="s" s="4">
-        <v>335</v>
+        <v>143</v>
       </c>
       <c r="N99" t="s" s="4">
-        <v>336</v>
+        <v>144</v>
       </c>
       <c r="O99" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P99" t="s" s="4">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="Q99" t="s" s="4">
         <v>30</v>
@@ -10112,19 +10013,19 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" t="n" s="4">
-        <v>45855.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B100" t="s" s="5">
-        <v>608</v>
+        <v>577</v>
       </c>
       <c r="C100" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
       <c r="E100" t="s" s="7">
-        <v>610</v>
+        <v>581</v>
       </c>
       <c r="F100" t="s" s="7">
         <v>29</v>
@@ -10133,31 +10034,31 @@
         <v>30</v>
       </c>
       <c r="H100" t="s" s="7">
-        <v>158</v>
+        <v>126</v>
       </c>
       <c r="I100" t="n" s="7">
-        <v>238000.0</v>
+        <v>547750.0</v>
       </c>
       <c r="J100" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K100" t="n" s="7">
-        <v>2.6495647E7</v>
+        <v>3.8192535E7</v>
       </c>
       <c r="L100" t="s" s="7">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="M100" t="s" s="4">
-        <v>160</v>
+        <v>128</v>
       </c>
       <c r="N100" t="s" s="4">
-        <v>161</v>
+        <v>129</v>
       </c>
       <c r="O100" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P100" t="s" s="4">
-        <v>30</v>
+        <v>130</v>
       </c>
       <c r="Q100" t="s" s="4">
         <v>30</v>
@@ -10192,19 +10093,19 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" t="n" s="4">
-        <v>45855.0</v>
+        <v>45861.0</v>
       </c>
       <c r="B101" t="s" s="5">
-        <v>611</v>
+        <v>582</v>
       </c>
       <c r="C101" t="n" s="4">
-        <v>45856.0</v>
+        <v>45861.0</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>612</v>
+        <v>583</v>
       </c>
       <c r="E101" t="s" s="7">
-        <v>613</v>
+        <v>584</v>
       </c>
       <c r="F101" t="s" s="7">
         <v>29</v>
@@ -10213,37 +10114,37 @@
         <v>30</v>
       </c>
       <c r="H101" t="s" s="7">
-        <v>614</v>
+        <v>239</v>
       </c>
       <c r="I101" t="n" s="7">
-        <v>194805.0</v>
+        <v>362202.0</v>
       </c>
       <c r="J101" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K101" t="n" s="7">
-        <v>2.6257647E7</v>
+        <v>3.7644785E7</v>
       </c>
       <c r="L101" t="s" s="7">
-        <v>615</v>
+        <v>240</v>
       </c>
       <c r="M101" t="s" s="4">
-        <v>616</v>
+        <v>241</v>
       </c>
       <c r="N101" t="s" s="4">
-        <v>617</v>
+        <v>242</v>
       </c>
       <c r="O101" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P101" t="s" s="4">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="Q101" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R101" t="s" s="4">
-        <v>169</v>
+        <v>30</v>
       </c>
       <c r="S101" t="s" s="4">
         <v>30</v>

--- a/Bancos/excel_detallado.xlsx
+++ b/Bancos/excel_detallado.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4284" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4284" uniqueCount="608">
   <si>
     <t>Fecha de transacción</t>
   </si>
@@ -93,6 +93,1026 @@
     <t>Nº de tarjeta</t>
   </si>
   <si>
+    <t>12:19</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751298100995245</t>
+  </si>
+  <si>
+    <t>316219031215</t>
+  </si>
+  <si>
+    <t>TRANSFERENCIA</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Transferencia recibida de GUERRERO RODRIGUEZ BETSABE DAM</t>
+  </si>
+  <si>
+    <t>GUERRERO RODRIGUEZ BETSABE DAM</t>
+  </si>
+  <si>
+    <t>26970935-9</t>
+  </si>
+  <si>
+    <t>00000000000026970935</t>
+  </si>
+  <si>
+    <t>Cuenta corriente</t>
+  </si>
+  <si>
+    <t>Banco Estado</t>
+  </si>
+  <si>
+    <t>12:17</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751298175973100</t>
+  </si>
+  <si>
+    <t>825353586236</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de MIGUEL ANGEL FUENTES GIMENEZ</t>
+  </si>
+  <si>
+    <t>MIGUEL ANGEL FUENTES GIMENEZ</t>
+  </si>
+  <si>
+    <t>26364429-8</t>
+  </si>
+  <si>
+    <t>00000000015842284090</t>
+  </si>
+  <si>
+    <t>Banco Falabella</t>
+  </si>
+  <si>
+    <t>12:07</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751298809641809</t>
+  </si>
+  <si>
+    <t>311207094240</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de DAED MY SHOP COMPANY SPA</t>
+  </si>
+  <si>
+    <t>DAED MY SHOP COMPANY SPA</t>
+  </si>
+  <si>
+    <t>77649923-4</t>
+  </si>
+  <si>
+    <t>00000000002573238667</t>
+  </si>
+  <si>
+    <t>12:02</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751299115072753</t>
+  </si>
+  <si>
+    <t>001824540353</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de DAED COMPANY SPA</t>
+  </si>
+  <si>
+    <t>DAED COMPANY SPA</t>
+  </si>
+  <si>
+    <t>77973414-5</t>
+  </si>
+  <si>
+    <t>00000000000094954860</t>
+  </si>
+  <si>
+    <t>Banco Santander</t>
+  </si>
+  <si>
+    <t>12:01</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751299149617910</t>
+  </si>
+  <si>
+    <t>311201079135</t>
+  </si>
+  <si>
+    <t>00000000002573425700</t>
+  </si>
+  <si>
+    <t>12:00</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751299235632808</t>
+  </si>
+  <si>
+    <t>13940414</t>
+  </si>
+  <si>
+    <t>000089318480</t>
+  </si>
+  <si>
+    <t>BANCO DE CREDITO E INVERSIONES</t>
+  </si>
+  <si>
+    <t>11:58</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751299372414855</t>
+  </si>
+  <si>
+    <t>120523370890</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de INVERSIONES UF SpA</t>
+  </si>
+  <si>
+    <t>INVERSIONES UF SpA</t>
+  </si>
+  <si>
+    <t>78035119-5</t>
+  </si>
+  <si>
+    <t>00000000000158124303</t>
+  </si>
+  <si>
+    <t>Banco de Chile</t>
+  </si>
+  <si>
+    <t>11:56</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751299467865103</t>
+  </si>
+  <si>
+    <t>311156065081</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de INVERSIONES UF SPA</t>
+  </si>
+  <si>
+    <t>INVERSIONES UF SPA</t>
+  </si>
+  <si>
+    <t>00000000023572326551</t>
+  </si>
+  <si>
+    <t>11:55</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751299518607331</t>
+  </si>
+  <si>
+    <t>670032104879</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de NEHOMAR ANTONIO CASTILLO FERNA</t>
+  </si>
+  <si>
+    <t>NEHOMAR ANTONIO CASTILLO FERNA</t>
+  </si>
+  <si>
+    <t>27468148-9</t>
+  </si>
+  <si>
+    <t>00000000019841198018</t>
+  </si>
+  <si>
+    <t>11:33</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751300868925824</t>
+  </si>
+  <si>
+    <t>311133003605</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de CORPORACION PORTENA SPA</t>
+  </si>
+  <si>
+    <t>CORPORACION PORTENA SPA</t>
+  </si>
+  <si>
+    <t>77141864-3</t>
+  </si>
+  <si>
+    <t>00000000035171349069</t>
+  </si>
+  <si>
+    <t>11:23</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751301419715296</t>
+  </si>
+  <si>
+    <t>316123082211</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de TORREALBA  JOSE AUGUSTO</t>
+  </si>
+  <si>
+    <t>TORREALBA  JOSE AUGUSTO</t>
+  </si>
+  <si>
+    <t>27112686-7</t>
+  </si>
+  <si>
+    <t>00000000000027112686</t>
+  </si>
+  <si>
+    <t>11:22</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751301515523265</t>
+  </si>
+  <si>
+    <t>113746446195</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de CLAUDIO RAMON GARCIA LINARES</t>
+  </si>
+  <si>
+    <t>CLAUDIO RAMON GARCIA LINARES</t>
+  </si>
+  <si>
+    <t>27637144-4</t>
+  </si>
+  <si>
+    <t>00000000010013672909</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751301532825717</t>
+  </si>
+  <si>
+    <t>316121023078</t>
+  </si>
+  <si>
+    <t>11:20</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751301617482516</t>
+  </si>
+  <si>
+    <t>1034090588</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de ERIK REY CORDERO</t>
+  </si>
+  <si>
+    <t>ERIK REY CORDERO</t>
+  </si>
+  <si>
+    <t>26216519-1</t>
+  </si>
+  <si>
+    <t>67233953</t>
+  </si>
+  <si>
+    <t>Cuenta prima</t>
+  </si>
+  <si>
+    <t>Banco Bci</t>
+  </si>
+  <si>
+    <t>Sin mensaje</t>
+  </si>
+  <si>
+    <t>11:09</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751302259333612</t>
+  </si>
+  <si>
+    <t>001824453388</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de ST CRISTOBAL SPA</t>
+  </si>
+  <si>
+    <t>ST CRISTOBAL SPA</t>
+  </si>
+  <si>
+    <t>77936187-K</t>
+  </si>
+  <si>
+    <t>00000000000094288371</t>
+  </si>
+  <si>
+    <t>11:06</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751302447628231</t>
+  </si>
+  <si>
+    <t>311106035027</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de FERRER GUERRA JOSVIC RAFAEL</t>
+  </si>
+  <si>
+    <t>FERRER GUERRA JOSVIC RAFAEL</t>
+  </si>
+  <si>
+    <t>26902058-K</t>
+  </si>
+  <si>
+    <t>00000000051900039925</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751302838940263</t>
+  </si>
+  <si>
+    <t>311100018650</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de GONZALEZ BARBOZA LUIS DANIEL</t>
+  </si>
+  <si>
+    <t>GONZALEZ BARBOZA LUIS DANIEL</t>
+  </si>
+  <si>
+    <t>26742839-5</t>
+  </si>
+  <si>
+    <t>00000000037300022104</t>
+  </si>
+  <si>
+    <t>10:59</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751302892337760</t>
+  </si>
+  <si>
+    <t>000112671457</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de Yaimelith Vargas Pellicer</t>
+  </si>
+  <si>
+    <t>Yaimelith Vargas Pellicer</t>
+  </si>
+  <si>
+    <t>25289617-1</t>
+  </si>
+  <si>
+    <t>00000000001019409648</t>
+  </si>
+  <si>
+    <t>10:56</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751303091319005</t>
+  </si>
+  <si>
+    <t>738164795506</t>
+  </si>
+  <si>
+    <t>10:55</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751303149761381</t>
+  </si>
+  <si>
+    <t>13924023</t>
+  </si>
+  <si>
+    <t>Transferencia enviada a FELIPE ANDRES RAMIREZ NUNEZ</t>
+  </si>
+  <si>
+    <t>FELIPE ANDRES RAMIREZ NUNEZ</t>
+  </si>
+  <si>
+    <t>10511434-6</t>
+  </si>
+  <si>
+    <t>000000000207924115</t>
+  </si>
+  <si>
+    <t>Banco Itaú</t>
+  </si>
+  <si>
+    <t>10:46</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751303674376501</t>
+  </si>
+  <si>
+    <t>120521188470</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de Yaimelith Vargas</t>
+  </si>
+  <si>
+    <t>Yaimelith Vargas</t>
+  </si>
+  <si>
+    <t>00000000000010522083</t>
+  </si>
+  <si>
+    <t>10:45</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751303697936263</t>
+  </si>
+  <si>
+    <t>311045082447</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de VILLALOBOS REYES ZULIMAR DEL C</t>
+  </si>
+  <si>
+    <t>VILLALOBOS REYES ZULIMAR DEL C</t>
+  </si>
+  <si>
+    <t>26862770-7</t>
+  </si>
+  <si>
+    <t>00000000052100281287</t>
+  </si>
+  <si>
+    <t>10:42</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751303920523591</t>
+  </si>
+  <si>
+    <t>381405304580</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de CARLOS ALFREDO SAYAGO DURAN</t>
+  </si>
+  <si>
+    <t>CARLOS ALFREDO SAYAGO DURAN</t>
+  </si>
+  <si>
+    <t>27809753-6</t>
+  </si>
+  <si>
+    <t>00000000015660106819</t>
+  </si>
+  <si>
+    <t>10:29</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751304686973867</t>
+  </si>
+  <si>
+    <t>311029041692</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de HURTADO SOTO PETRA MARINA</t>
+  </si>
+  <si>
+    <t>HURTADO SOTO PETRA MARINA</t>
+  </si>
+  <si>
+    <t>26644278-5</t>
+  </si>
+  <si>
+    <t>00000000031900025931</t>
+  </si>
+  <si>
+    <t>10:27</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751304782528672</t>
+  </si>
+  <si>
+    <t>311027037725</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de SERVICIOS TECNOLOGICOS SAN CRI</t>
+  </si>
+  <si>
+    <t>SERVICIOS TECNOLOGICOS SAN CRI</t>
+  </si>
+  <si>
+    <t>77469173-1</t>
+  </si>
+  <si>
+    <t>00000000035571462514</t>
+  </si>
+  <si>
+    <t>10:26</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751304858919151</t>
+  </si>
+  <si>
+    <t>120520596700</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de Mireya Jeannette Alvar</t>
+  </si>
+  <si>
+    <t>Mireya Jeannette Alvar</t>
+  </si>
+  <si>
+    <t>14040576-0</t>
+  </si>
+  <si>
+    <t>00000000000335024031</t>
+  </si>
+  <si>
+    <t>10:23</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751305015989138</t>
+  </si>
+  <si>
+    <t>13916262</t>
+  </si>
+  <si>
+    <t>Transferencia enviada a Senna Spa</t>
+  </si>
+  <si>
+    <t>Senna Spa</t>
+  </si>
+  <si>
+    <t>77069616-K</t>
+  </si>
+  <si>
+    <t>46741437</t>
+  </si>
+  <si>
+    <t>10:22</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751305125582458</t>
+  </si>
+  <si>
+    <t>001824378167</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de VITAL SERVIC RP SPA</t>
+  </si>
+  <si>
+    <t>VITAL SERVIC RP SPA</t>
+  </si>
+  <si>
+    <t>78048629-5</t>
+  </si>
+  <si>
+    <t>00000000000096150040</t>
+  </si>
+  <si>
+    <t>10:16</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751305486675324</t>
+  </si>
+  <si>
+    <t>120520330110</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de R?b Supply Spa</t>
+  </si>
+  <si>
+    <t>R?b Supply Spa</t>
+  </si>
+  <si>
+    <t>77147473-K</t>
+  </si>
+  <si>
+    <t>00000000001851256907</t>
+  </si>
+  <si>
+    <t>10:06</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751306053794146</t>
+  </si>
+  <si>
+    <t>250731162570</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de HERNANDEZ DIAZ MARIANGEL SABRI</t>
+  </si>
+  <si>
+    <t>HERNANDEZ DIAZ MARIANGEL SABRI</t>
+  </si>
+  <si>
+    <t>26591541-8</t>
+  </si>
+  <si>
+    <t>00000000000984697171</t>
+  </si>
+  <si>
+    <t>Banco Scotiabank</t>
+  </si>
+  <si>
+    <t>INFORMACION REF. 250731162570</t>
+  </si>
+  <si>
+    <t>10:04</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751306185668511</t>
+  </si>
+  <si>
+    <t>13911708</t>
+  </si>
+  <si>
+    <t>Transferencia enviada a BRAVO PENA LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>BRAVO PENA LUIS ENRIQUE</t>
+  </si>
+  <si>
+    <t>27214362-5</t>
+  </si>
+  <si>
+    <t>000000000082292349</t>
+  </si>
+  <si>
+    <t>transferbinancep2p@gmail.com</t>
+  </si>
+  <si>
+    <t>10:00</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751306454420770</t>
+  </si>
+  <si>
+    <t>903570363630</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de ROSSY CAROLINA RAMIREZ SOTO</t>
+  </si>
+  <si>
+    <t>ROSSY CAROLINA RAMIREZ SOTO</t>
+  </si>
+  <si>
+    <t>26363760-7</t>
+  </si>
+  <si>
+    <t>00000000777026363760</t>
+  </si>
+  <si>
+    <t>09:39</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751307692855552</t>
+  </si>
+  <si>
+    <t>1033998358</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de YOSELIN DEL VALLE BELDA MACAYO</t>
+  </si>
+  <si>
+    <t>YOSELIN DEL VALLE BELDA MACAYO</t>
+  </si>
+  <si>
+    <t>25636363-1</t>
+  </si>
+  <si>
+    <t>49963040</t>
+  </si>
+  <si>
+    <t>09:26</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751308457299161</t>
+  </si>
+  <si>
+    <t>001824297228</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de PLUS SERVICIOS GENERALES SPA</t>
+  </si>
+  <si>
+    <t>PLUS SERVICIOS GENERALES SPA</t>
+  </si>
+  <si>
+    <t>77800495-K</t>
+  </si>
+  <si>
+    <t>00000000000092159370</t>
+  </si>
+  <si>
+    <t>09:23</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751308671908628</t>
+  </si>
+  <si>
+    <t>001824292678</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de INVERSIONES AR SPA</t>
+  </si>
+  <si>
+    <t>INVERSIONES AR SPA</t>
+  </si>
+  <si>
+    <t>77653656-3</t>
+  </si>
+  <si>
+    <t>00000000000088795202</t>
+  </si>
+  <si>
+    <t>09:13</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751309218921603</t>
+  </si>
+  <si>
+    <t>197220689171</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de LUCELIS ROSSIL MENDEZ VILLALOB</t>
+  </si>
+  <si>
+    <t>LUCELIS ROSSIL MENDEZ VILLALOB</t>
+  </si>
+  <si>
+    <t>26441580-2</t>
+  </si>
+  <si>
+    <t>00000000014510148752</t>
+  </si>
+  <si>
+    <t>09:03</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751309826158428</t>
+  </si>
+  <si>
+    <t>000016837703</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de INVERSIONESRYM SPA</t>
+  </si>
+  <si>
+    <t>INVERSIONESRYM SPA</t>
+  </si>
+  <si>
+    <t>78044797-4</t>
+  </si>
+  <si>
+    <t>00000000000178044797</t>
+  </si>
+  <si>
+    <t>08:34</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751311591280670</t>
+  </si>
+  <si>
+    <t>000114209564</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de Juan Carlos Valero Semprun</t>
+  </si>
+  <si>
+    <t>Juan Carlos Valero Semprun</t>
+  </si>
+  <si>
+    <t>27135781-8</t>
+  </si>
+  <si>
+    <t>00000000001024078842</t>
+  </si>
+  <si>
+    <t>08:05</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751313310455351</t>
+  </si>
+  <si>
+    <t>310805042871</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de SERVICIOS MYG SPA</t>
+  </si>
+  <si>
+    <t>SERVICIOS MYG SPA</t>
+  </si>
+  <si>
+    <t>77418244-6</t>
+  </si>
+  <si>
+    <t>00000000090270531317</t>
+  </si>
+  <si>
+    <t>05:21</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751323177569058</t>
+  </si>
+  <si>
+    <t>000112627311</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de SERVICIOS DE TECNOLOGIA A&amp;J SP</t>
+  </si>
+  <si>
+    <t>SERVICIOS DE TECNOLOGIA A&amp;J SP</t>
+  </si>
+  <si>
+    <t>78031142-8</t>
+  </si>
+  <si>
+    <t>00000000001048618972</t>
+  </si>
+  <si>
+    <t>03:08</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751331116214063</t>
+  </si>
+  <si>
+    <t>001824157486</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de CARLOS ANTONIO GARCIA OVIEDO</t>
+  </si>
+  <si>
+    <t>CARLOS ANTONIO GARCIA OVIEDO</t>
+  </si>
+  <si>
+    <t>26434851-K</t>
+  </si>
+  <si>
+    <t>00000000000084327883</t>
+  </si>
+  <si>
+    <t>00:35</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751340344719833</t>
+  </si>
+  <si>
+    <t>310035077636</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de RINCON MARQUEZ FERNANDO RAMON</t>
+  </si>
+  <si>
+    <t>RINCON MARQUEZ FERNANDO RAMON</t>
+  </si>
+  <si>
+    <t>25972737-5</t>
+  </si>
+  <si>
+    <t>00000000022300168390</t>
+  </si>
+  <si>
+    <t>00:34</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751340407541135</t>
+  </si>
+  <si>
+    <t>1033883870</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de FERNANDO RAMON RINCON MARQUEZ</t>
+  </si>
+  <si>
+    <t>FERNANDO RAMON RINCON MARQUEZ</t>
+  </si>
+  <si>
+    <t>50864700</t>
+  </si>
+  <si>
+    <t>00:09</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751341910871835</t>
+  </si>
+  <si>
+    <t>000042385243</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de JACKELINE ADRIANA MAVAREZ NUNE</t>
+  </si>
+  <si>
+    <t>JACKELINE ADRIANA MAVAREZ NUNE</t>
+  </si>
+  <si>
+    <t>26679882-2</t>
+  </si>
+  <si>
+    <t>00000000111126679882</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>23:59</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751342501100145</t>
+  </si>
+  <si>
+    <t>001824121149</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de MARIA MIGDALIA OCHOA PEREZ</t>
+  </si>
+  <si>
+    <t>MARIA MIGDALIA OCHOA PEREZ</t>
+  </si>
+  <si>
+    <t>26492321-2</t>
+  </si>
+  <si>
+    <t>00000000000084998079</t>
+  </si>
+  <si>
+    <t>22:43</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751347046228148</t>
+  </si>
+  <si>
+    <t>001824091114</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de INTERMEDIACION MONETARIA GABRI</t>
+  </si>
+  <si>
+    <t>INTERMEDIACION MONETARIA GABRI</t>
+  </si>
+  <si>
+    <t>78063633-5</t>
+  </si>
+  <si>
+    <t>00000000000097150834</t>
+  </si>
+  <si>
+    <t>22:01</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751349552318809</t>
+  </si>
+  <si>
+    <t>302201052767</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de SAN CRISTOBAL SPA</t>
+  </si>
+  <si>
+    <t>SAN CRISTOBAL SPA</t>
+  </si>
+  <si>
+    <t>77773448-2</t>
+  </si>
+  <si>
+    <t>00000000005670109889</t>
+  </si>
+  <si>
+    <t>21:36</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751351047928323</t>
+  </si>
+  <si>
+    <t>302136020709</t>
+  </si>
+  <si>
+    <t>Transferencia recibida de INVERSIONES AS SPA</t>
+  </si>
+  <si>
+    <t>INVERSIONES AS SPA</t>
+  </si>
+  <si>
+    <t>77430655-2</t>
+  </si>
+  <si>
+    <t>00000000090270792129</t>
+  </si>
+  <si>
+    <t>20:37</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751354619637366</t>
+  </si>
+  <si>
+    <t>817603372390</t>
+  </si>
+  <si>
+    <t>19:30</t>
+  </si>
+  <si>
+    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751358642842496</t>
+  </si>
+  <si>
+    <t>301930020533</t>
+  </si>
+  <si>
     <t>18:50</t>
   </si>
   <si>
@@ -102,48 +1122,12 @@
     <t>301850047280</t>
   </si>
   <si>
-    <t>TRANSFERENCIA</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Transferencia recibida de CORPORACION PORTENA SPA</t>
-  </si>
-  <si>
-    <t>CORPORACION PORTENA SPA</t>
-  </si>
-  <si>
-    <t>77141864-3</t>
-  </si>
-  <si>
-    <t>00000000035171349069</t>
-  </si>
-  <si>
-    <t>Cuenta corriente</t>
-  </si>
-  <si>
-    <t>Banco Estado</t>
-  </si>
-  <si>
     <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751361017135717</t>
   </si>
   <si>
     <t>301850047051</t>
   </si>
   <si>
-    <t>Transferencia recibida de INVERSIONES UF SPA</t>
-  </si>
-  <si>
-    <t>INVERSIONES UF SPA</t>
-  </si>
-  <si>
-    <t>78035119-5</t>
-  </si>
-  <si>
-    <t>00000000023572326551</t>
-  </si>
-  <si>
     <t>18:43</t>
   </si>
   <si>
@@ -207,9 +1191,6 @@
     <t>00000000000097012040</t>
   </si>
   <si>
-    <t>Banco Santander</t>
-  </si>
-  <si>
     <t>18:15</t>
   </si>
   <si>
@@ -255,15 +1236,9 @@
     <t>Yoselin Del Valle Beld</t>
   </si>
   <si>
-    <t>25636363-1</t>
-  </si>
-  <si>
     <t>00000000000055521189</t>
   </si>
   <si>
-    <t>Banco de Chile</t>
-  </si>
-  <si>
     <t>17:45</t>
   </si>
   <si>
@@ -273,18 +1248,6 @@
     <t>301745022978</t>
   </si>
   <si>
-    <t>Transferencia recibida de VILLALOBOS REYES ZULIMAR DEL C</t>
-  </si>
-  <si>
-    <t>VILLALOBOS REYES ZULIMAR DEL C</t>
-  </si>
-  <si>
-    <t>26862770-7</t>
-  </si>
-  <si>
-    <t>00000000052100281287</t>
-  </si>
-  <si>
     <t>16:56</t>
   </si>
   <si>
@@ -294,27 +1257,6 @@
     <t>1033592447</t>
   </si>
   <si>
-    <t>Transferencia recibida de ERIK REY CORDERO</t>
-  </si>
-  <si>
-    <t>ERIK REY CORDERO</t>
-  </si>
-  <si>
-    <t>26216519-1</t>
-  </si>
-  <si>
-    <t>67233953</t>
-  </si>
-  <si>
-    <t>Cuenta prima</t>
-  </si>
-  <si>
-    <t>Banco Bci</t>
-  </si>
-  <si>
-    <t>Sin mensaje</t>
-  </si>
-  <si>
     <t>16:51</t>
   </si>
   <si>
@@ -399,9 +1341,6 @@
     <t>00000000019820143613</t>
   </si>
   <si>
-    <t>Banco Falabella</t>
-  </si>
-  <si>
     <t>16:05</t>
   </si>
   <si>
@@ -441,18 +1380,6 @@
     <t>413083841668</t>
   </si>
   <si>
-    <t>Transferencia recibida de NEHOMAR ANTONIO CASTILLO FERNA</t>
-  </si>
-  <si>
-    <t>NEHOMAR ANTONIO CASTILLO FERNA</t>
-  </si>
-  <si>
-    <t>27468148-9</t>
-  </si>
-  <si>
-    <t>00000000019841198018</t>
-  </si>
-  <si>
     <t>14:46</t>
   </si>
   <si>
@@ -483,18 +1410,6 @@
     <t>120506660790</t>
   </si>
   <si>
-    <t>Transferencia recibida de Yaimelith Vargas</t>
-  </si>
-  <si>
-    <t>Yaimelith Vargas</t>
-  </si>
-  <si>
-    <t>25289617-1</t>
-  </si>
-  <si>
-    <t>00000000000010522083</t>
-  </si>
-  <si>
     <t>13:28</t>
   </si>
   <si>
@@ -522,15 +1437,6 @@
     <t>1033463249</t>
   </si>
   <si>
-    <t>Transferencia recibida de YOSELIN DEL VALLE BELDA MACAYO</t>
-  </si>
-  <si>
-    <t>YOSELIN DEL VALLE BELDA MACAYO</t>
-  </si>
-  <si>
-    <t>49963040</t>
-  </si>
-  <si>
     <t>12:56</t>
   </si>
   <si>
@@ -582,18 +1488,6 @@
     <t>001823549840</t>
   </si>
   <si>
-    <t>Transferencia recibida de PLUS SERVICIOS GENERALES SPA</t>
-  </si>
-  <si>
-    <t>PLUS SERVICIOS GENERALES SPA</t>
-  </si>
-  <si>
-    <t>77800495-K</t>
-  </si>
-  <si>
-    <t>00000000000092159370</t>
-  </si>
-  <si>
     <t>12:45</t>
   </si>
   <si>
@@ -603,18 +1497,6 @@
     <t>301245083617</t>
   </si>
   <si>
-    <t>Transferencia recibida de SERVICIOS MYG SPA</t>
-  </si>
-  <si>
-    <t>SERVICIOS MYG SPA</t>
-  </si>
-  <si>
-    <t>77418244-6</t>
-  </si>
-  <si>
-    <t>00000000090270531317</t>
-  </si>
-  <si>
     <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751382952570115</t>
   </si>
   <si>
@@ -741,9 +1623,6 @@
     <t>301153081869</t>
   </si>
   <si>
-    <t>11:33</t>
-  </si>
-  <si>
     <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751387239032563</t>
   </si>
   <si>
@@ -771,18 +1650,6 @@
     <t>875588631045</t>
   </si>
   <si>
-    <t>Transferencia recibida de ROSSY CAROLINA RAMIREZ SOTO</t>
-  </si>
-  <si>
-    <t>ROSSY CAROLINA RAMIREZ SOTO</t>
-  </si>
-  <si>
-    <t>26363760-7</t>
-  </si>
-  <si>
-    <t>00000000777026363760</t>
-  </si>
-  <si>
     <t>11:14</t>
   </si>
   <si>
@@ -822,15 +1689,9 @@
     <t>00000000002653326003</t>
   </si>
   <si>
-    <t>Banco Scotiabank</t>
-  </si>
-  <si>
     <t>INFORMACION REF. 250730848998</t>
   </si>
   <si>
-    <t>11:09</t>
-  </si>
-  <si>
     <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751388711747505</t>
   </si>
   <si>
@@ -876,39 +1737,12 @@
     <t>001823433966</t>
   </si>
   <si>
-    <t>Transferencia recibida de VITAL SERVIC RP SPA</t>
-  </si>
-  <si>
-    <t>VITAL SERVIC RP SPA</t>
-  </si>
-  <si>
-    <t>78048629-5</t>
-  </si>
-  <si>
-    <t>00000000000096150040</t>
-  </si>
-  <si>
-    <t>11:00</t>
-  </si>
-  <si>
     <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751389221827143</t>
   </si>
   <si>
     <t>120502449010</t>
   </si>
   <si>
-    <t>Transferencia recibida de R?b Supply Spa</t>
-  </si>
-  <si>
-    <t>R?b Supply Spa</t>
-  </si>
-  <si>
-    <t>77147473-K</t>
-  </si>
-  <si>
-    <t>00000000001851256907</t>
-  </si>
-  <si>
     <t>10:54</t>
   </si>
   <si>
@@ -978,21 +1812,6 @@
     <t>424860602825</t>
   </si>
   <si>
-    <t>Transferencia recibida de CARLOS ALFREDO SAYAGO DURAN</t>
-  </si>
-  <si>
-    <t>CARLOS ALFREDO SAYAGO DURAN</t>
-  </si>
-  <si>
-    <t>27809753-6</t>
-  </si>
-  <si>
-    <t>00000000015660106819</t>
-  </si>
-  <si>
-    <t>10:26</t>
-  </si>
-  <si>
     <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751391236852992</t>
   </si>
   <si>
@@ -1018,915 +1837,6 @@
   </si>
   <si>
     <t>429416991405</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de MIGUEL ANGEL FUENTES GIMENEZ</t>
-  </si>
-  <si>
-    <t>MIGUEL ANGEL FUENTES GIMENEZ</t>
-  </si>
-  <si>
-    <t>26364429-8</t>
-  </si>
-  <si>
-    <t>00000000015842284090</t>
-  </si>
-  <si>
-    <t>10:09</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751392290454238</t>
-  </si>
-  <si>
-    <t>001823379288</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de DANIELA VANESSA BLANCO TORREAL</t>
-  </si>
-  <si>
-    <t>DANIELA VANESSA BLANCO TORREAL</t>
-  </si>
-  <si>
-    <t>26870197-4</t>
-  </si>
-  <si>
-    <t>00000000000093309375</t>
-  </si>
-  <si>
-    <t>09:58</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751392963740362</t>
-  </si>
-  <si>
-    <t>252113413311</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de INVERSIONES VINOTINTO SPA</t>
-  </si>
-  <si>
-    <t>INVERSIONES VINOTINTO SPA</t>
-  </si>
-  <si>
-    <t>77407447-3</t>
-  </si>
-  <si>
-    <t>00390001000223232637</t>
-  </si>
-  <si>
-    <t>Banco Itaú</t>
-  </si>
-  <si>
-    <t>Pago</t>
-  </si>
-  <si>
-    <t>09:44</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751393796710193</t>
-  </si>
-  <si>
-    <t>300944047703</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de ST CRISTOBAL SPA</t>
-  </si>
-  <si>
-    <t>ST CRISTOBAL SPA</t>
-  </si>
-  <si>
-    <t>77936187-K</t>
-  </si>
-  <si>
-    <t>00000000005670106740</t>
-  </si>
-  <si>
-    <t>09:43</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751393857063403</t>
-  </si>
-  <si>
-    <t>300943046076</t>
-  </si>
-  <si>
-    <t>09:42</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751393918407139</t>
-  </si>
-  <si>
-    <t>120500993440</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de Maria Nelly Rojas</t>
-  </si>
-  <si>
-    <t>Maria Nelly Rojas</t>
-  </si>
-  <si>
-    <t>26919327-1</t>
-  </si>
-  <si>
-    <t>00000000000100823024</t>
-  </si>
-  <si>
-    <t>09:37</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751394176898025</t>
-  </si>
-  <si>
-    <t>13788027</t>
-  </si>
-  <si>
-    <t>Transferencia enviada a SAN MARTIN LORCA PAULINA VALEZKA</t>
-  </si>
-  <si>
-    <t>SAN MARTIN LORCA PAULINA VALEZKA</t>
-  </si>
-  <si>
-    <t>15068057-3</t>
-  </si>
-  <si>
-    <t>000000000069296491</t>
-  </si>
-  <si>
-    <t>09:28</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751394740674877</t>
-  </si>
-  <si>
-    <t>000113878364</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de Juan Carlos Valero Semprun</t>
-  </si>
-  <si>
-    <t>Juan Carlos Valero Semprun</t>
-  </si>
-  <si>
-    <t>27135781-8</t>
-  </si>
-  <si>
-    <t>00000000001024078842</t>
-  </si>
-  <si>
-    <t>09:11</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751395790407559</t>
-  </si>
-  <si>
-    <t>13784660</t>
-  </si>
-  <si>
-    <t>Transferencia enviada a ROJAS SAAVEDRA ROBINSON NICOLS</t>
-  </si>
-  <si>
-    <t>ROJAS SAAVEDRA ROBINSON NICOLS</t>
-  </si>
-  <si>
-    <t>20827945-9</t>
-  </si>
-  <si>
-    <t>000000015130237273</t>
-  </si>
-  <si>
-    <t>09:08</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751395943116906</t>
-  </si>
-  <si>
-    <t>120500409730</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de Eudy Orangel Castillo</t>
-  </si>
-  <si>
-    <t>Eudy Orangel Castillo</t>
-  </si>
-  <si>
-    <t>26396786-0</t>
-  </si>
-  <si>
-    <t>00000000000025221013</t>
-  </si>
-  <si>
-    <t>Eudy</t>
-  </si>
-  <si>
-    <t>08:44</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751397394025906</t>
-  </si>
-  <si>
-    <t>13781919</t>
-  </si>
-  <si>
-    <t>Transferencia enviada a SAN CRISTOBAL SPA 630</t>
-  </si>
-  <si>
-    <t>SAN CRISTOBAL SPA 630</t>
-  </si>
-  <si>
-    <t>77773448-2</t>
-  </si>
-  <si>
-    <t>000000000091404630</t>
-  </si>
-  <si>
-    <t>sergio.plaza.altamirano@gmail.com</t>
-  </si>
-  <si>
-    <t>08:42</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751397489458836</t>
-  </si>
-  <si>
-    <t>132455015390</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de MANUEL RUBEN LLOVERA CARRASQUE</t>
-  </si>
-  <si>
-    <t>MANUEL RUBEN LLOVERA CARRASQUE</t>
-  </si>
-  <si>
-    <t>28216451-5</t>
-  </si>
-  <si>
-    <t>00000000010013878478</t>
-  </si>
-  <si>
-    <t>08:32</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751398081308941</t>
-  </si>
-  <si>
-    <t>305832021406</t>
-  </si>
-  <si>
-    <t>00000000000026096940</t>
-  </si>
-  <si>
-    <t>07:29</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751401870293868</t>
-  </si>
-  <si>
-    <t>000112307183</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de SERVICIOS DE TECNOLOGIA A&amp;J SP</t>
-  </si>
-  <si>
-    <t>SERVICIOS DE TECNOLOGIA A&amp;J SP</t>
-  </si>
-  <si>
-    <t>78031142-8</t>
-  </si>
-  <si>
-    <t>00000000001048618972</t>
-  </si>
-  <si>
-    <t>04:09</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751413898379230</t>
-  </si>
-  <si>
-    <t>001823252138</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de CARLOS ANTONIO GARCIA OVIEDO</t>
-  </si>
-  <si>
-    <t>CARLOS ANTONIO GARCIA OVIEDO</t>
-  </si>
-  <si>
-    <t>26434851-K</t>
-  </si>
-  <si>
-    <t>00000000000084327883</t>
-  </si>
-  <si>
-    <t>01:43</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751422655081658</t>
-  </si>
-  <si>
-    <t>001823241147</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de MARIA MIGDALIA OCHOA PEREZ</t>
-  </si>
-  <si>
-    <t>MARIA MIGDALIA OCHOA PEREZ</t>
-  </si>
-  <si>
-    <t>26492321-2</t>
-  </si>
-  <si>
-    <t>00000000000084998079</t>
-  </si>
-  <si>
-    <t>00:07</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751428429990433</t>
-  </si>
-  <si>
-    <t>426356556972</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de LEANDRO JOSE MAYA GUILLEN</t>
-  </si>
-  <si>
-    <t>LEANDRO JOSE MAYA GUILLEN</t>
-  </si>
-  <si>
-    <t>26047488-K</t>
-  </si>
-  <si>
-    <t>00000000019994291932</t>
-  </si>
-  <si>
-    <t>23:52</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751429296805624</t>
-  </si>
-  <si>
-    <t>292352073117</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de RINCON MARQUEZ FERNANDO RAMON</t>
-  </si>
-  <si>
-    <t>RINCON MARQUEZ FERNANDO RAMON</t>
-  </si>
-  <si>
-    <t>25972737-5</t>
-  </si>
-  <si>
-    <t>00000000022300168390</t>
-  </si>
-  <si>
-    <t>22:42</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751433506282485</t>
-  </si>
-  <si>
-    <t>297242036474</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de SALAZAR LARREAL ALEJANDRA ELEN</t>
-  </si>
-  <si>
-    <t>SALAZAR LARREAL ALEJANDRA ELEN</t>
-  </si>
-  <si>
-    <t>27209758-5</t>
-  </si>
-  <si>
-    <t>00000000000027209758</t>
-  </si>
-  <si>
-    <t>22:31</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751434164260672</t>
-  </si>
-  <si>
-    <t>000042285430</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de JACKELINE ADRIANA MAVAREZ NUNE</t>
-  </si>
-  <si>
-    <t>JACKELINE ADRIANA MAVAREZ NUNE</t>
-  </si>
-  <si>
-    <t>26679882-2</t>
-  </si>
-  <si>
-    <t>00000000111126679882</t>
-  </si>
-  <si>
-    <t>00000000</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751434186323359</t>
-  </si>
-  <si>
-    <t>000113816778</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de Alvaro Jose Quintero Monsalve</t>
-  </si>
-  <si>
-    <t>Alvaro Jose Quintero Monsalve</t>
-  </si>
-  <si>
-    <t>26418642-0</t>
-  </si>
-  <si>
-    <t>00000000001087032867</t>
-  </si>
-  <si>
-    <t>22:23</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751434664335599</t>
-  </si>
-  <si>
-    <t>292223008550</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de INVERSIONES AS SPA</t>
-  </si>
-  <si>
-    <t>INVERSIONES AS SPA</t>
-  </si>
-  <si>
-    <t>77430655-2</t>
-  </si>
-  <si>
-    <t>00000000090270792129</t>
-  </si>
-  <si>
-    <t>21:39</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751437313263386</t>
-  </si>
-  <si>
-    <t>000016822530</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de INVERSIONESRYM SPA</t>
-  </si>
-  <si>
-    <t>INVERSIONESRYM SPA</t>
-  </si>
-  <si>
-    <t>78044797-4</t>
-  </si>
-  <si>
-    <t>00000000000178044797</t>
-  </si>
-  <si>
-    <t>21:37</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751437397451637</t>
-  </si>
-  <si>
-    <t>292137058845</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de HURTADO SOTO PETRA MARINA</t>
-  </si>
-  <si>
-    <t>HURTADO SOTO PETRA MARINA</t>
-  </si>
-  <si>
-    <t>26644278-5</t>
-  </si>
-  <si>
-    <t>00000000031900025931</t>
-  </si>
-  <si>
-    <t>21:27</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751438004999156</t>
-  </si>
-  <si>
-    <t>292127046621</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de COMERCIALIZADORA GYG SPA</t>
-  </si>
-  <si>
-    <t>COMERCIALIZADORA GYG SPA</t>
-  </si>
-  <si>
-    <t>78044298-0</t>
-  </si>
-  <si>
-    <t>00000000020470158744</t>
-  </si>
-  <si>
-    <t>21:16</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751438652023019</t>
-  </si>
-  <si>
-    <t>292116033130</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de LABARCA MORAN AIBELIN YORLITH</t>
-  </si>
-  <si>
-    <t>LABARCA MORAN AIBELIN YORLITH</t>
-  </si>
-  <si>
-    <t>25311831-8</t>
-  </si>
-  <si>
-    <t>00000000034500048605</t>
-  </si>
-  <si>
-    <t>20:35</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751441153840233</t>
-  </si>
-  <si>
-    <t>120496604140</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de Heber Gerdenson Campos</t>
-  </si>
-  <si>
-    <t>Heber Gerdenson Campos</t>
-  </si>
-  <si>
-    <t>26392450-9</t>
-  </si>
-  <si>
-    <t>00000000008011636608</t>
-  </si>
-  <si>
-    <t>20:23</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751441861388446</t>
-  </si>
-  <si>
-    <t>000113783638</t>
-  </si>
-  <si>
-    <t>20:03</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751443030194265</t>
-  </si>
-  <si>
-    <t>120495980130</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de INVERSIONES UF SpA</t>
-  </si>
-  <si>
-    <t>INVERSIONES UF SpA</t>
-  </si>
-  <si>
-    <t>00000000000158124303</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751443069693144</t>
-  </si>
-  <si>
-    <t>292003030898</t>
-  </si>
-  <si>
-    <t>19:51</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751443787695690</t>
-  </si>
-  <si>
-    <t>291951012770</t>
-  </si>
-  <si>
-    <t>19:47</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751443977372174</t>
-  </si>
-  <si>
-    <t>700681275992</t>
-  </si>
-  <si>
-    <t>19:02</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751446694611910</t>
-  </si>
-  <si>
-    <t>443530137628</t>
-  </si>
-  <si>
-    <t>18:58</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751446950587703</t>
-  </si>
-  <si>
-    <t>120495280420</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de Luis Jose Nunez</t>
-  </si>
-  <si>
-    <t>Luis Jose Nunez</t>
-  </si>
-  <si>
-    <t>25819498-5</t>
-  </si>
-  <si>
-    <t>00000000000045222006</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751446951479663</t>
-  </si>
-  <si>
-    <t>291858026195</t>
-  </si>
-  <si>
-    <t>18:17</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751449431348029</t>
-  </si>
-  <si>
-    <t>048372655036</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de JOSE TERESIO MEJIAS DEL ROSARI</t>
-  </si>
-  <si>
-    <t>JOSE TERESIO MEJIAS DEL ROSARI</t>
-  </si>
-  <si>
-    <t>26885252-2</t>
-  </si>
-  <si>
-    <t>00000000018800108605</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751451312748452</t>
-  </si>
-  <si>
-    <t>296745014348</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de MARCHAN BENITEZ JOSE EULISES</t>
-  </si>
-  <si>
-    <t>MARCHAN BENITEZ JOSE EULISES</t>
-  </si>
-  <si>
-    <t>27909867-6</t>
-  </si>
-  <si>
-    <t>00000000000027909867</t>
-  </si>
-  <si>
-    <t>17:33</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751452044700849</t>
-  </si>
-  <si>
-    <t>1033036341</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de EDUARDO JOSE CASTRO FUENMAYOR</t>
-  </si>
-  <si>
-    <t>EDUARDO JOSE CASTRO FUENMAYOR</t>
-  </si>
-  <si>
-    <t>26192218-5</t>
-  </si>
-  <si>
-    <t>46389873</t>
-  </si>
-  <si>
-    <t>17:20</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751452798494002</t>
-  </si>
-  <si>
-    <t>291720052104</t>
-  </si>
-  <si>
-    <t>16:33</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751455653301123</t>
-  </si>
-  <si>
-    <t>291633075853</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de ALTUVE DIAZ PAOLA COROMOTO EDU</t>
-  </si>
-  <si>
-    <t>ALTUVE DIAZ PAOLA COROMOTO EDU</t>
-  </si>
-  <si>
-    <t>26176031-2</t>
-  </si>
-  <si>
-    <t>00000000032100066709</t>
-  </si>
-  <si>
-    <t>16:22</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751456290940266</t>
-  </si>
-  <si>
-    <t>001822943689</t>
-  </si>
-  <si>
-    <t>16:16</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751456671734622</t>
-  </si>
-  <si>
-    <t>291616049828</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de GONZALEZ BARBOZA LUIS DANIEL</t>
-  </si>
-  <si>
-    <t>GONZALEZ BARBOZA LUIS DANIEL</t>
-  </si>
-  <si>
-    <t>26742839-5</t>
-  </si>
-  <si>
-    <t>00000000037300022104</t>
-  </si>
-  <si>
-    <t>16:14</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751456812739083</t>
-  </si>
-  <si>
-    <t>291613046193</t>
-  </si>
-  <si>
-    <t>16:01</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751457584376621</t>
-  </si>
-  <si>
-    <t>250729675650</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de MENDEZ BRAVO ISELIN</t>
-  </si>
-  <si>
-    <t>MENDEZ BRAVO ISELIN</t>
-  </si>
-  <si>
-    <t>25816099-1</t>
-  </si>
-  <si>
-    <t>00000000000987827165</t>
-  </si>
-  <si>
-    <t>INFORMACION REF. 250729675650</t>
-  </si>
-  <si>
-    <t>15:52</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751458082139020</t>
-  </si>
-  <si>
-    <t>822318758053</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de FERNANDO RAMON RINCON MARQUEZ</t>
-  </si>
-  <si>
-    <t>FERNANDO RAMON RINCON MARQUEZ</t>
-  </si>
-  <si>
-    <t>00000000777925972737</t>
-  </si>
-  <si>
-    <t>15:46</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751458469782784</t>
-  </si>
-  <si>
-    <t>001822914935</t>
-  </si>
-  <si>
-    <t>15:39</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751458864423536</t>
-  </si>
-  <si>
-    <t>291539093024</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de RODRIGUEZ ZAMBRANO JOSE GREGOR</t>
-  </si>
-  <si>
-    <t>RODRIGUEZ ZAMBRANO JOSE GREGOR</t>
-  </si>
-  <si>
-    <t>27034397-K</t>
-  </si>
-  <si>
-    <t>00000000005400036456</t>
-  </si>
-  <si>
-    <t>15:38</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751458924540482</t>
-  </si>
-  <si>
-    <t>001822909100</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de INVERSIONES AR SPA</t>
-  </si>
-  <si>
-    <t>INVERSIONES AR SPA</t>
-  </si>
-  <si>
-    <t>77653656-3</t>
-  </si>
-  <si>
-    <t>00000000000088795202</t>
-  </si>
-  <si>
-    <t>15:09</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751460677253950</t>
-  </si>
-  <si>
-    <t>296509044773</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de ALMAO DE RODRIGUEZ ZORAIDA DE</t>
-  </si>
-  <si>
-    <t>ALMAO DE RODRIGUEZ ZORAIDA DE</t>
-  </si>
-  <si>
-    <t>27062243-7</t>
-  </si>
-  <si>
-    <t>00000000000027062243</t>
-  </si>
-  <si>
-    <t>15:08</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751460756621049</t>
-  </si>
-  <si>
-    <t>001822885452</t>
-  </si>
-  <si>
-    <t>Transferencia recibida de JOSSELINE DEL CARMEN RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>JOSSELINE DEL CARMEN RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>26250800-5</t>
-  </si>
-  <si>
-    <t>00000000000091176157</t>
-  </si>
-  <si>
-    <t>15:00</t>
-  </si>
-  <si>
-    <t>1220D4D567C863E2D7A0E7D67B00A9B484216258|9010751461214346231</t>
-  </si>
-  <si>
-    <t>291500032063</t>
   </si>
 </sst>
 </file>
@@ -2332,7 +2242,7 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="n">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>26</v>
@@ -2356,13 +2266,13 @@
         <v>31</v>
       </c>
       <c r="I2" s="7" t="n">
-        <v>191000.0</v>
+        <v>80000.0</v>
       </c>
       <c r="J2" s="7" t="s">
         <v>30</v>
       </c>
       <c r="K2" s="7" t="n">
-        <v>1.0996314E7</v>
+        <v>1.8575317E7</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>32</v>
@@ -2412,19 +2322,19 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="n">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="n">
         <v>45869.0</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>29</v>
@@ -2433,31 +2343,31 @@
         <v>30</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I3" s="7" t="n">
-        <v>750751.0</v>
+        <v>529967.0</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>30</v>
       </c>
       <c r="K3" s="7" t="n">
-        <v>1.0805314E7</v>
+        <v>1.8495317E7</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O3" s="4" t="s">
         <v>35</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>30</v>
@@ -2492,19 +2402,19 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B4" t="s" s="5">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n" s="4">
         <v>45869.0</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s" s="7">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s" s="7">
         <v>29</v>
@@ -2513,25 +2423,25 @@
         <v>30</v>
       </c>
       <c r="H4" t="s" s="7">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I4" t="n" s="7">
-        <v>100000.0</v>
+        <v>894100.0</v>
       </c>
       <c r="J4" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K4" t="n" s="7">
-        <v>1.0054563E7</v>
+        <v>1.796535E7</v>
       </c>
       <c r="L4" t="s" s="7">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s" s="4">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N4" t="s" s="4">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O4" t="s" s="4">
         <v>35</v>
@@ -2572,19 +2482,19 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B5" t="s" s="5">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" t="n" s="4">
         <v>45869.0</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s" s="7">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="F5" t="s" s="7">
         <v>29</v>
@@ -2593,31 +2503,31 @@
         <v>30</v>
       </c>
       <c r="H5" t="s" s="7">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="I5" t="n" s="7">
-        <v>25000.0</v>
+        <v>1814519.0</v>
       </c>
       <c r="J5" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K5" t="n" s="7">
-        <v>9954563.0</v>
+        <v>1.707125E7</v>
       </c>
       <c r="L5" t="s" s="7">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M5" t="s" s="4">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N5" t="s" s="4">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="O5" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P5" t="s" s="4">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q5" t="s" s="4">
         <v>30</v>
@@ -2652,19 +2562,19 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B6" t="s" s="5">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C6" t="n" s="4">
         <v>45869.0</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s" s="7">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s" s="7">
         <v>29</v>
@@ -2673,22 +2583,22 @@
         <v>30</v>
       </c>
       <c r="H6" t="s" s="7">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I6" t="n" s="7">
-        <v>179104.0</v>
+        <v>525000.0</v>
       </c>
       <c r="J6" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K6" t="n" s="7">
-        <v>9929563.0</v>
+        <v>1.5256731E7</v>
       </c>
       <c r="L6" t="s" s="7">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M6" t="s" s="4">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="N6" t="s" s="4">
         <v>63</v>
@@ -2697,7 +2607,7 @@
         <v>35</v>
       </c>
       <c r="P6" t="s" s="4">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Q6" t="s" s="4">
         <v>30</v>
@@ -2732,19 +2642,19 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B7" t="s" s="5">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C7" t="n" s="4">
         <v>45869.0</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="E7" t="s" s="7">
         <v>66</v>
-      </c>
-      <c r="E7" t="s" s="7">
-        <v>67</v>
       </c>
       <c r="F7" t="s" s="7">
         <v>29</v>
@@ -2753,31 +2663,31 @@
         <v>30</v>
       </c>
       <c r="H7" t="s" s="7">
+        <v>48</v>
+      </c>
+      <c r="I7" t="n" s="7">
+        <v>1031236.0</v>
+      </c>
+      <c r="J7" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K7" t="n" s="7">
+        <v>1.4731731E7</v>
+      </c>
+      <c r="L7" t="s" s="7">
+        <v>49</v>
+      </c>
+      <c r="M7" t="s" s="4">
+        <v>50</v>
+      </c>
+      <c r="N7" t="s" s="4">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s" s="4">
+        <v>30</v>
+      </c>
+      <c r="P7" t="s" s="4">
         <v>68</v>
-      </c>
-      <c r="I7" t="n" s="7">
-        <v>700000.0</v>
-      </c>
-      <c r="J7" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="K7" t="n" s="7">
-        <v>9750459.0</v>
-      </c>
-      <c r="L7" t="s" s="7">
-        <v>69</v>
-      </c>
-      <c r="M7" t="s" s="4">
-        <v>70</v>
-      </c>
-      <c r="N7" t="s" s="4">
-        <v>71</v>
-      </c>
-      <c r="O7" t="s" s="4">
-        <v>35</v>
-      </c>
-      <c r="P7" t="s" s="4">
-        <v>36</v>
       </c>
       <c r="Q7" t="s" s="4">
         <v>30</v>
@@ -2812,19 +2722,19 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B8" t="s" s="5">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C8" t="n" s="4">
         <v>45869.0</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s" s="7">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="F8" t="s" s="7">
         <v>29</v>
@@ -2833,31 +2743,31 @@
         <v>30</v>
       </c>
       <c r="H8" t="s" s="7">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="I8" t="n" s="7">
-        <v>240240.0</v>
+        <v>21818.0</v>
       </c>
       <c r="J8" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K8" t="n" s="7">
-        <v>9050459.0</v>
+        <v>1.3700495E7</v>
       </c>
       <c r="L8" t="s" s="7">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="M8" t="s" s="4">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="N8" t="s" s="4">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P8" t="s" s="4">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q8" t="s" s="4">
         <v>30</v>
@@ -2892,19 +2802,19 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B9" t="s" s="5">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C9" t="n" s="4">
         <v>45869.0</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s" s="7">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F9" t="s" s="7">
         <v>29</v>
@@ -2913,31 +2823,31 @@
         <v>30</v>
       </c>
       <c r="H9" t="s" s="7">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="I9" t="n" s="7">
-        <v>90634.0</v>
+        <v>160000.0</v>
       </c>
       <c r="J9" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K9" t="n" s="7">
-        <v>8810219.0</v>
+        <v>1.3678677E7</v>
       </c>
       <c r="L9" t="s" s="7">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M9" t="s" s="4">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="N9" t="s" s="4">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="O9" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P9" t="s" s="4">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="Q9" t="s" s="4">
         <v>30</v>
@@ -2972,7 +2882,7 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B10" t="s" s="5">
         <v>83</v>
@@ -2996,13 +2906,13 @@
         <v>86</v>
       </c>
       <c r="I10" t="n" s="7">
-        <v>50000.0</v>
+        <v>53000.0</v>
       </c>
       <c r="J10" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K10" t="n" s="7">
-        <v>8719585.0</v>
+        <v>1.3518677E7</v>
       </c>
       <c r="L10" t="s" s="7">
         <v>87</v>
@@ -3017,7 +2927,7 @@
         <v>35</v>
       </c>
       <c r="P10" t="s" s="4">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q10" t="s" s="4">
         <v>30</v>
@@ -3052,7 +2962,7 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B11" t="s" s="5">
         <v>90</v>
@@ -3076,13 +2986,13 @@
         <v>93</v>
       </c>
       <c r="I11" t="n" s="7">
-        <v>127000.0</v>
+        <v>9000.0</v>
       </c>
       <c r="J11" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K11" t="n" s="7">
-        <v>8669585.0</v>
+        <v>1.3465677E7</v>
       </c>
       <c r="L11" t="s" s="7">
         <v>94</v>
@@ -3094,16 +3004,16 @@
         <v>96</v>
       </c>
       <c r="O11" t="s" s="4">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="P11" t="s" s="4">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="Q11" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R11" t="s" s="4">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="S11" t="s" s="4">
         <v>30</v>
@@ -3132,19 +3042,19 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B12" t="s" s="5">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C12" t="n" s="4">
         <v>45869.0</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E12" t="s" s="7">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F12" t="s" s="7">
         <v>29</v>
@@ -3153,31 +3063,31 @@
         <v>30</v>
       </c>
       <c r="H12" t="s" s="7">
+        <v>100</v>
+      </c>
+      <c r="I12" t="n" s="7">
+        <v>5000.0</v>
+      </c>
+      <c r="J12" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K12" t="n" s="7">
+        <v>1.3456677E7</v>
+      </c>
+      <c r="L12" t="s" s="7">
+        <v>101</v>
+      </c>
+      <c r="M12" t="s" s="4">
+        <v>102</v>
+      </c>
+      <c r="N12" t="s" s="4">
         <v>103</v>
-      </c>
-      <c r="I12" t="n" s="7">
-        <v>50000.0</v>
-      </c>
-      <c r="J12" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="K12" t="n" s="7">
-        <v>8542585.0</v>
-      </c>
-      <c r="L12" t="s" s="7">
-        <v>104</v>
-      </c>
-      <c r="M12" t="s" s="4">
-        <v>105</v>
-      </c>
-      <c r="N12" t="s" s="4">
-        <v>106</v>
       </c>
       <c r="O12" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P12" t="s" s="4">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="Q12" t="s" s="4">
         <v>30</v>
@@ -3212,19 +3122,19 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B13" t="s" s="5">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C13" t="n" s="4">
         <v>45869.0</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E13" t="s" s="7">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F13" t="s" s="7">
         <v>29</v>
@@ -3233,31 +3143,31 @@
         <v>30</v>
       </c>
       <c r="H13" t="s" s="7">
+        <v>107</v>
+      </c>
+      <c r="I13" t="n" s="7">
+        <v>75000.0</v>
+      </c>
+      <c r="J13" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K13" t="n" s="7">
+        <v>1.3451677E7</v>
+      </c>
+      <c r="L13" t="s" s="7">
+        <v>108</v>
+      </c>
+      <c r="M13" t="s" s="4">
+        <v>109</v>
+      </c>
+      <c r="N13" t="s" s="4">
         <v>110</v>
-      </c>
-      <c r="I13" t="n" s="7">
-        <v>180000.0</v>
-      </c>
-      <c r="J13" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="K13" t="n" s="7">
-        <v>8492585.0</v>
-      </c>
-      <c r="L13" t="s" s="7">
-        <v>111</v>
-      </c>
-      <c r="M13" t="s" s="4">
-        <v>112</v>
-      </c>
-      <c r="N13" t="s" s="4">
-        <v>113</v>
       </c>
       <c r="O13" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P13" t="s" s="4">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="Q13" t="s" s="4">
         <v>30</v>
@@ -3292,19 +3202,19 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B14" t="s" s="5">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="C14" t="n" s="4">
         <v>45869.0</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E14" t="s" s="7">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s" s="7">
         <v>29</v>
@@ -3313,31 +3223,31 @@
         <v>30</v>
       </c>
       <c r="H14" t="s" s="7">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="I14" t="n" s="7">
-        <v>200000.0</v>
+        <v>40000.0</v>
       </c>
       <c r="J14" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K14" t="n" s="7">
-        <v>8312585.0</v>
+        <v>1.3376677E7</v>
       </c>
       <c r="L14" t="s" s="7">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="M14" t="s" s="4">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="N14" t="s" s="4">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="O14" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P14" t="s" s="4">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q14" t="s" s="4">
         <v>30</v>
@@ -3372,19 +3282,19 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B15" t="s" s="5">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C15" t="n" s="4">
         <v>45869.0</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s" s="7">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="F15" t="s" s="7">
         <v>29</v>
@@ -3393,37 +3303,37 @@
         <v>30</v>
       </c>
       <c r="H15" t="s" s="7">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="I15" t="n" s="7">
-        <v>170000.0</v>
+        <v>120000.0</v>
       </c>
       <c r="J15" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K15" t="n" s="7">
-        <v>8112585.0</v>
+        <v>1.3336677E7</v>
       </c>
       <c r="L15" t="s" s="7">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="M15" t="s" s="4">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="N15" t="s" s="4">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="O15" t="s" s="4">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="P15" t="s" s="4">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q15" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R15" t="s" s="4">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="S15" t="s" s="4">
         <v>30</v>
@@ -3452,19 +3362,19 @@
     </row>
     <row r="16" ht="15.75" customHeight="1">
       <c r="A16" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B16" t="s" s="5">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="C16" t="n" s="4">
         <v>45869.0</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E16" t="s" s="7">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="F16" t="s" s="7">
         <v>29</v>
@@ -3473,37 +3383,37 @@
         <v>30</v>
       </c>
       <c r="H16" t="s" s="7">
-        <v>93</v>
+        <v>126</v>
       </c>
       <c r="I16" t="n" s="7">
-        <v>170000.0</v>
+        <v>5320751.0</v>
       </c>
       <c r="J16" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K16" t="n" s="7">
-        <v>7942585.0</v>
+        <v>1.3216677E7</v>
       </c>
       <c r="L16" t="s" s="7">
-        <v>94</v>
+        <v>127</v>
       </c>
       <c r="M16" t="s" s="4">
-        <v>95</v>
+        <v>128</v>
       </c>
       <c r="N16" t="s" s="4">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="O16" t="s" s="4">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="P16" t="s" s="4">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="Q16" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R16" t="s" s="4">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="S16" t="s" s="4">
         <v>30</v>
@@ -3532,19 +3442,19 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B17" t="s" s="5">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C17" t="n" s="4">
         <v>45869.0</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E17" t="s" s="7">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F17" t="s" s="7">
         <v>29</v>
@@ -3553,31 +3463,31 @@
         <v>30</v>
       </c>
       <c r="H17" t="s" s="7">
+        <v>133</v>
+      </c>
+      <c r="I17" t="n" s="7">
+        <v>200000.0</v>
+      </c>
+      <c r="J17" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K17" t="n" s="7">
+        <v>7895926.0</v>
+      </c>
+      <c r="L17" t="s" s="7">
+        <v>134</v>
+      </c>
+      <c r="M17" t="s" s="4">
         <v>135</v>
       </c>
-      <c r="I17" t="n" s="7">
-        <v>96386.0</v>
-      </c>
-      <c r="J17" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="K17" t="n" s="7">
-        <v>7772585.0</v>
-      </c>
-      <c r="L17" t="s" s="7">
+      <c r="N17" t="s" s="4">
         <v>136</v>
-      </c>
-      <c r="M17" t="s" s="4">
-        <v>137</v>
-      </c>
-      <c r="N17" t="s" s="4">
-        <v>138</v>
       </c>
       <c r="O17" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P17" t="s" s="4">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="Q17" t="s" s="4">
         <v>30</v>
@@ -3612,19 +3522,19 @@
     </row>
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B18" t="s" s="5">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C18" t="n" s="4">
         <v>45869.0</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E18" t="s" s="7">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F18" t="s" s="7">
         <v>29</v>
@@ -3633,31 +3543,31 @@
         <v>30</v>
       </c>
       <c r="H18" t="s" s="7">
+        <v>140</v>
+      </c>
+      <c r="I18" t="n" s="7">
+        <v>347306.0</v>
+      </c>
+      <c r="J18" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K18" t="n" s="7">
+        <v>7695926.0</v>
+      </c>
+      <c r="L18" t="s" s="7">
+        <v>141</v>
+      </c>
+      <c r="M18" t="s" s="4">
         <v>142</v>
       </c>
-      <c r="I18" t="n" s="7">
-        <v>67500.0</v>
-      </c>
-      <c r="J18" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="K18" t="n" s="7">
-        <v>7676199.0</v>
-      </c>
-      <c r="L18" t="s" s="7">
+      <c r="N18" t="s" s="4">
         <v>143</v>
-      </c>
-      <c r="M18" t="s" s="4">
-        <v>144</v>
-      </c>
-      <c r="N18" t="s" s="4">
-        <v>145</v>
       </c>
       <c r="O18" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P18" t="s" s="4">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="Q18" t="s" s="4">
         <v>30</v>
@@ -3692,19 +3602,19 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B19" t="s" s="5">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C19" t="n" s="4">
         <v>45869.0</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="E19" t="s" s="7">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F19" t="s" s="7">
         <v>29</v>
@@ -3713,31 +3623,31 @@
         <v>30</v>
       </c>
       <c r="H19" t="s" s="7">
+        <v>147</v>
+      </c>
+      <c r="I19" t="n" s="7">
+        <v>82000.0</v>
+      </c>
+      <c r="J19" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="K19" t="n" s="7">
+        <v>7348620.0</v>
+      </c>
+      <c r="L19" t="s" s="7">
+        <v>148</v>
+      </c>
+      <c r="M19" t="s" s="4">
         <v>149</v>
       </c>
-      <c r="I19" t="n" s="7">
-        <v>180000.0</v>
-      </c>
-      <c r="J19" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="K19" t="n" s="7">
-        <v>7608699.0</v>
-      </c>
-      <c r="L19" t="s" s="7">
+      <c r="N19" t="s" s="4">
         <v>150</v>
-      </c>
-      <c r="M19" t="s" s="4">
-        <v>151</v>
-      </c>
-      <c r="N19" t="s" s="4">
-        <v>152</v>
       </c>
       <c r="O19" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P19" t="s" s="4">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Q19" t="s" s="4">
         <v>30</v>
@@ -3772,19 +3682,19 @@
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B20" t="s" s="5">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C20" t="n" s="4">
         <v>45869.0</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E20" t="s" s="7">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F20" t="s" s="7">
         <v>29</v>
@@ -3793,31 +3703,31 @@
         <v>30</v>
       </c>
       <c r="H20" t="s" s="7">
-        <v>156</v>
+        <v>107</v>
       </c>
       <c r="I20" t="n" s="7">
-        <v>55000.0</v>
+        <v>120000.0</v>
       </c>
       <c r="J20" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K20" t="n" s="7">
-        <v>7428699.0</v>
+        <v>7266620.0</v>
       </c>
       <c r="L20" t="s" s="7">
-        <v>157</v>
+        <v>108</v>
       </c>
       <c r="M20" t="s" s="4">
-        <v>158</v>
+        <v>109</v>
       </c>
       <c r="N20" t="s" s="4">
-        <v>159</v>
+        <v>110</v>
       </c>
       <c r="O20" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P20" t="s" s="4">
-        <v>82</v>
+        <v>44</v>
       </c>
       <c r="Q20" t="s" s="4">
         <v>30</v>
@@ -3852,19 +3762,19 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B21" t="s" s="5">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C21" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E21" t="s" s="7">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="F21" t="s" s="7">
         <v>29</v>
@@ -3873,31 +3783,31 @@
         <v>30</v>
       </c>
       <c r="H21" t="s" s="7">
-        <v>39</v>
-      </c>
-      <c r="I21" t="n" s="7">
-        <v>238806.0</v>
-      </c>
-      <c r="J21" t="s" s="7">
-        <v>30</v>
+        <v>157</v>
+      </c>
+      <c r="I21" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J21" t="n" s="7">
+        <v>3300666.0</v>
       </c>
       <c r="K21" t="n" s="7">
-        <v>7373699.0</v>
+        <v>7146620.0</v>
       </c>
       <c r="L21" t="s" s="7">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="M21" t="s" s="4">
-        <v>41</v>
+        <v>159</v>
       </c>
       <c r="N21" t="s" s="4">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="O21" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P21" t="s" s="4">
-        <v>36</v>
+        <v>161</v>
       </c>
       <c r="Q21" t="s" s="4">
         <v>30</v>
@@ -3932,19 +3842,19 @@
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B22" t="s" s="5">
+        <v>162</v>
+      </c>
+      <c r="C22" t="n" s="4">
+        <v>45869.0</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="C22" t="n" s="4">
-        <v>45868.0</v>
-      </c>
-      <c r="D22" s="6" t="s">
+      <c r="E22" t="s" s="7">
         <v>164</v>
-      </c>
-      <c r="E22" t="s" s="7">
-        <v>165</v>
       </c>
       <c r="F22" t="s" s="7">
         <v>29</v>
@@ -3953,37 +3863,37 @@
         <v>30</v>
       </c>
       <c r="H22" t="s" s="7">
-        <v>93</v>
+        <v>165</v>
       </c>
       <c r="I22" t="n" s="7">
-        <v>85000.0</v>
+        <v>80000.0</v>
       </c>
       <c r="J22" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K22" t="n" s="7">
-        <v>7134893.0</v>
+        <v>1.0447286E7</v>
       </c>
       <c r="L22" t="s" s="7">
-        <v>94</v>
+        <v>166</v>
       </c>
       <c r="M22" t="s" s="4">
-        <v>95</v>
+        <v>149</v>
       </c>
       <c r="N22" t="s" s="4">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="O22" t="s" s="4">
-        <v>97</v>
+        <v>35</v>
       </c>
       <c r="P22" t="s" s="4">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="Q22" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R22" t="s" s="4">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="S22" t="s" s="4">
         <v>30</v>
@@ -4012,19 +3922,19 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B23" t="s" s="5">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C23" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E23" t="s" s="7">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F23" t="s" s="7">
         <v>29</v>
@@ -4033,37 +3943,37 @@
         <v>30</v>
       </c>
       <c r="H23" t="s" s="7">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I23" t="n" s="7">
-        <v>78313.0</v>
+        <v>50000.0</v>
       </c>
       <c r="J23" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K23" t="n" s="7">
-        <v>7049893.0</v>
+        <v>1.0367286E7</v>
       </c>
       <c r="L23" t="s" s="7">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="M23" t="s" s="4">
-        <v>80</v>
+        <v>173</v>
       </c>
       <c r="N23" t="s" s="4">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="O23" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P23" t="s" s="4">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="Q23" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R23" t="s" s="4">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="S23" t="s" s="4">
         <v>30</v>
@@ -4092,19 +4002,19 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B24" t="s" s="5">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C24" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E24" t="s" s="7">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="F24" t="s" s="7">
         <v>29</v>
@@ -4113,31 +4023,31 @@
         <v>30</v>
       </c>
       <c r="H24" t="s" s="7">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="I24" t="n" s="7">
-        <v>97455.0</v>
+        <v>300000.0</v>
       </c>
       <c r="J24" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K24" t="n" s="7">
-        <v>6971580.0</v>
+        <v>1.0317286E7</v>
       </c>
       <c r="L24" t="s" s="7">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="M24" t="s" s="4">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="N24" t="s" s="4">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="O24" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P24" t="s" s="4">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q24" t="s" s="4">
         <v>30</v>
@@ -4172,19 +4082,19 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B25" t="s" s="5">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C25" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="E25" t="s" s="7">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="F25" t="s" s="7">
         <v>29</v>
@@ -4193,34 +4103,34 @@
         <v>30</v>
       </c>
       <c r="H25" t="s" s="7">
-        <v>182</v>
-      </c>
-      <c r="I25" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="J25" t="n" s="7">
-        <v>1121513.0</v>
+        <v>185</v>
+      </c>
+      <c r="I25" t="n" s="7">
+        <v>250000.0</v>
+      </c>
+      <c r="J25" t="s" s="7">
+        <v>30</v>
       </c>
       <c r="K25" t="n" s="7">
-        <v>6874125.0</v>
+        <v>1.0017286E7</v>
       </c>
       <c r="L25" t="s" s="7">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M25" t="s" s="4">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="N25" t="s" s="4">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="O25" t="s" s="4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P25" t="s" s="4">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Q25" t="s" s="4">
-        <v>186</v>
+        <v>30</v>
       </c>
       <c r="R25" t="s" s="4">
         <v>30</v>
@@ -4252,19 +4162,19 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B26" t="s" s="5">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C26" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="E26" t="s" s="7">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F26" t="s" s="7">
         <v>29</v>
@@ -4273,31 +4183,31 @@
         <v>30</v>
       </c>
       <c r="H26" t="s" s="7">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="I26" t="n" s="7">
-        <v>131667.0</v>
+        <v>780624.0</v>
       </c>
       <c r="J26" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K26" t="n" s="7">
-        <v>7995638.0</v>
+        <v>9767286.0</v>
       </c>
       <c r="L26" t="s" s="7">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="M26" t="s" s="4">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N26" t="s" s="4">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="O26" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P26" t="s" s="4">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Q26" t="s" s="4">
         <v>30</v>
@@ -4332,19 +4242,19 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B27" t="s" s="5">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C27" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="E27" t="s" s="7">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="F27" t="s" s="7">
         <v>29</v>
@@ -4353,31 +4263,31 @@
         <v>30</v>
       </c>
       <c r="H27" t="s" s="7">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="I27" t="n" s="7">
-        <v>95210.0</v>
+        <v>134000.0</v>
       </c>
       <c r="J27" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K27" t="n" s="7">
-        <v>7863971.0</v>
+        <v>8986662.0</v>
       </c>
       <c r="L27" t="s" s="7">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="M27" t="s" s="4">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="N27" t="s" s="4">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="O27" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P27" t="s" s="4">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q27" t="s" s="4">
         <v>30</v>
@@ -4412,19 +4322,19 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B28" t="s" s="5">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C28" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="E28" t="s" s="7">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="F28" t="s" s="7">
         <v>29</v>
@@ -4433,31 +4343,31 @@
         <v>30</v>
       </c>
       <c r="H28" t="s" s="7">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="I28" t="s" s="7">
         <v>30</v>
       </c>
       <c r="J28" t="n" s="7">
-        <v>1839273.0</v>
+        <v>7000000.0</v>
       </c>
       <c r="K28" t="n" s="7">
-        <v>7768761.0</v>
+        <v>8852662.0</v>
       </c>
       <c r="L28" t="s" s="7">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="M28" t="s" s="4">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="N28" t="s" s="4">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="O28" t="s" s="4">
         <v>30</v>
       </c>
       <c r="P28" t="s" s="4">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="Q28" t="s" s="4">
         <v>30</v>
@@ -4492,19 +4402,19 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B29" t="s" s="5">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C29" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E29" t="s" s="7">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F29" t="s" s="7">
         <v>29</v>
@@ -4513,34 +4423,34 @@
         <v>30</v>
       </c>
       <c r="H29" t="s" s="7">
-        <v>209</v>
-      </c>
-      <c r="I29" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="J29" t="n" s="7">
-        <v>3904431.0</v>
+        <v>213</v>
+      </c>
+      <c r="I29" t="n" s="7">
+        <v>895527.0</v>
+      </c>
+      <c r="J29" t="s" s="7">
+        <v>30</v>
       </c>
       <c r="K29" t="n" s="7">
-        <v>9608034.0</v>
+        <v>1.5852662E7</v>
       </c>
       <c r="L29" t="s" s="7">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M29" t="s" s="4">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="N29" t="s" s="4">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="O29" t="s" s="4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P29" t="s" s="4">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q29" t="s" s="4">
-        <v>213</v>
+        <v>30</v>
       </c>
       <c r="R29" t="s" s="4">
         <v>30</v>
@@ -4572,19 +4482,19 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B30" t="s" s="5">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C30" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E30" t="s" s="7">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="F30" t="s" s="7">
         <v>29</v>
@@ -4593,31 +4503,31 @@
         <v>30</v>
       </c>
       <c r="H30" t="s" s="7">
-        <v>217</v>
-      </c>
-      <c r="I30" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="J30" t="n" s="7">
-        <v>1723115.0</v>
+        <v>220</v>
+      </c>
+      <c r="I30" t="n" s="7">
+        <v>300000.0</v>
+      </c>
+      <c r="J30" t="s" s="7">
+        <v>30</v>
       </c>
       <c r="K30" t="n" s="7">
-        <v>1.3512465E7</v>
+        <v>1.4957135E7</v>
       </c>
       <c r="L30" t="s" s="7">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="M30" t="s" s="4">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="N30" t="s" s="4">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="O30" t="s" s="4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P30" t="s" s="4">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="Q30" t="s" s="4">
         <v>30</v>
@@ -4652,19 +4562,19 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B31" t="s" s="5">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C31" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E31" t="s" s="7">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F31" t="s" s="7">
         <v>29</v>
@@ -4673,37 +4583,37 @@
         <v>30</v>
       </c>
       <c r="H31" t="s" s="7">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I31" t="n" s="7">
-        <v>92573.0</v>
+        <v>34210.0</v>
       </c>
       <c r="J31" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K31" t="n" s="7">
-        <v>1.523558E7</v>
+        <v>1.4657135E7</v>
       </c>
       <c r="L31" t="s" s="7">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="M31" t="s" s="4">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="N31" t="s" s="4">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="O31" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P31" t="s" s="4">
-        <v>98</v>
+        <v>231</v>
       </c>
       <c r="Q31" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R31" t="s" s="4">
-        <v>30</v>
+        <v>232</v>
       </c>
       <c r="S31" t="s" s="4">
         <v>30</v>
@@ -4732,19 +4642,19 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B32" t="s" s="5">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="C32" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="E32" t="s" s="7">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F32" t="s" s="7">
         <v>29</v>
@@ -4753,34 +4663,34 @@
         <v>30</v>
       </c>
       <c r="H32" t="s" s="7">
-        <v>78</v>
-      </c>
-      <c r="I32" t="n" s="7">
-        <v>90361.0</v>
-      </c>
-      <c r="J32" t="s" s="7">
-        <v>30</v>
+        <v>236</v>
+      </c>
+      <c r="I32" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J32" t="n" s="7">
+        <v>2702190.0</v>
       </c>
       <c r="K32" t="n" s="7">
-        <v>1.5143007E7</v>
+        <v>1.4622925E7</v>
       </c>
       <c r="L32" t="s" s="7">
-        <v>79</v>
+        <v>237</v>
       </c>
       <c r="M32" t="s" s="4">
-        <v>80</v>
+        <v>238</v>
       </c>
       <c r="N32" t="s" s="4">
-        <v>81</v>
+        <v>239</v>
       </c>
       <c r="O32" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P32" t="s" s="4">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="Q32" t="s" s="4">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="R32" t="s" s="4">
         <v>30</v>
@@ -4812,19 +4722,19 @@
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B33" t="s" s="5">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C33" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="E33" t="s" s="7">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="F33" t="s" s="7">
         <v>29</v>
@@ -4833,34 +4743,34 @@
         <v>30</v>
       </c>
       <c r="H33" t="s" s="7">
-        <v>234</v>
-      </c>
-      <c r="I33" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="J33" t="n" s="7">
-        <v>1951911.0</v>
+        <v>244</v>
+      </c>
+      <c r="I33" t="n" s="7">
+        <v>20000.0</v>
+      </c>
+      <c r="J33" t="s" s="7">
+        <v>30</v>
       </c>
       <c r="K33" t="n" s="7">
-        <v>1.5052646E7</v>
+        <v>1.7325115E7</v>
       </c>
       <c r="L33" t="s" s="7">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="M33" t="s" s="4">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="N33" t="s" s="4">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="O33" t="s" s="4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P33" t="s" s="4">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="Q33" t="s" s="4">
-        <v>238</v>
+        <v>30</v>
       </c>
       <c r="R33" t="s" s="4">
         <v>30</v>
@@ -4892,19 +4802,19 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B34" t="s" s="5">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="C34" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="E34" t="s" s="7">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="F34" t="s" s="7">
         <v>29</v>
@@ -4913,37 +4823,37 @@
         <v>30</v>
       </c>
       <c r="H34" t="s" s="7">
-        <v>39</v>
+        <v>251</v>
       </c>
       <c r="I34" t="n" s="7">
-        <v>298151.0</v>
+        <v>118038.0</v>
       </c>
       <c r="J34" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K34" t="n" s="7">
-        <v>1.7004557E7</v>
+        <v>1.7305115E7</v>
       </c>
       <c r="L34" t="s" s="7">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="M34" t="s" s="4">
-        <v>41</v>
+        <v>253</v>
       </c>
       <c r="N34" t="s" s="4">
-        <v>42</v>
+        <v>254</v>
       </c>
       <c r="O34" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P34" t="s" s="4">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="Q34" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R34" t="s" s="4">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="S34" t="s" s="4">
         <v>30</v>
@@ -4972,19 +4882,19 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B35" t="s" s="5">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C35" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
       <c r="E35" t="s" s="7">
-        <v>244</v>
+        <v>257</v>
       </c>
       <c r="F35" t="s" s="7">
         <v>29</v>
@@ -4993,31 +4903,31 @@
         <v>30</v>
       </c>
       <c r="H35" t="s" s="7">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="I35" t="n" s="7">
-        <v>126506.0</v>
+        <v>276024.0</v>
       </c>
       <c r="J35" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K35" t="n" s="7">
-        <v>1.6706406E7</v>
+        <v>1.7187077E7</v>
       </c>
       <c r="L35" t="s" s="7">
-        <v>246</v>
+        <v>259</v>
       </c>
       <c r="M35" t="s" s="4">
-        <v>80</v>
+        <v>260</v>
       </c>
       <c r="N35" t="s" s="4">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="O35" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P35" t="s" s="4">
-        <v>248</v>
+        <v>59</v>
       </c>
       <c r="Q35" t="s" s="4">
         <v>30</v>
@@ -5052,19 +4962,19 @@
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B36" t="s" s="5">
-        <v>249</v>
+        <v>262</v>
       </c>
       <c r="C36" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
       <c r="E36" t="s" s="7">
-        <v>251</v>
+        <v>264</v>
       </c>
       <c r="F36" t="s" s="7">
         <v>29</v>
@@ -5073,31 +4983,31 @@
         <v>30</v>
       </c>
       <c r="H36" t="s" s="7">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="I36" t="n" s="7">
-        <v>30000.0</v>
+        <v>722892.0</v>
       </c>
       <c r="J36" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K36" t="n" s="7">
-        <v>1.65799E7</v>
+        <v>1.6911053E7</v>
       </c>
       <c r="L36" t="s" s="7">
-        <v>253</v>
+        <v>266</v>
       </c>
       <c r="M36" t="s" s="4">
-        <v>254</v>
+        <v>267</v>
       </c>
       <c r="N36" t="s" s="4">
-        <v>255</v>
+        <v>268</v>
       </c>
       <c r="O36" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P36" t="s" s="4">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="Q36" t="s" s="4">
         <v>30</v>
@@ -5132,19 +5042,19 @@
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B37" t="s" s="5">
-        <v>256</v>
+        <v>269</v>
       </c>
       <c r="C37" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="E37" t="s" s="7">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="F37" t="s" s="7">
         <v>29</v>
@@ -5153,31 +5063,31 @@
         <v>30</v>
       </c>
       <c r="H37" t="s" s="7">
-        <v>86</v>
+        <v>272</v>
       </c>
       <c r="I37" t="n" s="7">
-        <v>50000.0</v>
+        <v>149253.0</v>
       </c>
       <c r="J37" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K37" t="n" s="7">
-        <v>1.65499E7</v>
+        <v>1.6188161E7</v>
       </c>
       <c r="L37" t="s" s="7">
-        <v>87</v>
+        <v>273</v>
       </c>
       <c r="M37" t="s" s="4">
-        <v>88</v>
+        <v>274</v>
       </c>
       <c r="N37" t="s" s="4">
-        <v>89</v>
+        <v>275</v>
       </c>
       <c r="O37" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P37" t="s" s="4">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q37" t="s" s="4">
         <v>30</v>
@@ -5212,19 +5122,19 @@
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B38" t="s" s="5">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="C38" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="E38" t="s" s="7">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="F38" t="s" s="7">
         <v>29</v>
@@ -5233,31 +5143,31 @@
         <v>30</v>
       </c>
       <c r="H38" t="s" s="7">
-        <v>142</v>
+        <v>279</v>
       </c>
       <c r="I38" t="n" s="7">
-        <v>59000.0</v>
+        <v>1246511.0</v>
       </c>
       <c r="J38" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K38" t="n" s="7">
-        <v>1.64999E7</v>
+        <v>1.6038908E7</v>
       </c>
       <c r="L38" t="s" s="7">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="M38" t="s" s="4">
-        <v>144</v>
+        <v>281</v>
       </c>
       <c r="N38" t="s" s="4">
-        <v>145</v>
+        <v>282</v>
       </c>
       <c r="O38" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P38" t="s" s="4">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="Q38" t="s" s="4">
         <v>30</v>
@@ -5292,19 +5202,19 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B39" t="s" s="5">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="C39" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="E39" t="s" s="7">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="F39" t="s" s="7">
         <v>29</v>
@@ -5313,37 +5223,37 @@
         <v>30</v>
       </c>
       <c r="H39" t="s" s="7">
-        <v>265</v>
+        <v>286</v>
       </c>
       <c r="I39" t="n" s="7">
-        <v>15000.0</v>
+        <v>381798.0</v>
       </c>
       <c r="J39" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K39" t="n" s="7">
-        <v>1.64409E7</v>
+        <v>1.4792397E7</v>
       </c>
       <c r="L39" t="s" s="7">
-        <v>266</v>
+        <v>287</v>
       </c>
       <c r="M39" t="s" s="4">
-        <v>267</v>
+        <v>288</v>
       </c>
       <c r="N39" t="s" s="4">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="O39" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P39" t="s" s="4">
-        <v>269</v>
+        <v>30</v>
       </c>
       <c r="Q39" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R39" t="s" s="4">
-        <v>270</v>
+        <v>30</v>
       </c>
       <c r="S39" t="s" s="4">
         <v>30</v>
@@ -5372,19 +5282,19 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B40" t="s" s="5">
-        <v>271</v>
+        <v>290</v>
       </c>
       <c r="C40" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="E40" t="s" s="7">
-        <v>273</v>
+        <v>292</v>
       </c>
       <c r="F40" t="s" s="7">
         <v>29</v>
@@ -5393,25 +5303,25 @@
         <v>30</v>
       </c>
       <c r="H40" t="s" s="7">
-        <v>274</v>
+        <v>293</v>
       </c>
       <c r="I40" t="n" s="7">
-        <v>167000.0</v>
+        <v>192728.0</v>
       </c>
       <c r="J40" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K40" t="n" s="7">
-        <v>1.64259E7</v>
+        <v>1.4410599E7</v>
       </c>
       <c r="L40" t="s" s="7">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="M40" t="s" s="4">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="N40" t="s" s="4">
-        <v>277</v>
+        <v>296</v>
       </c>
       <c r="O40" t="s" s="4">
         <v>35</v>
@@ -5452,19 +5362,19 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B41" t="s" s="5">
-        <v>278</v>
+        <v>297</v>
       </c>
       <c r="C41" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>279</v>
+        <v>298</v>
       </c>
       <c r="E41" t="s" s="7">
-        <v>280</v>
+        <v>299</v>
       </c>
       <c r="F41" t="s" s="7">
         <v>29</v>
@@ -5473,31 +5383,31 @@
         <v>30</v>
       </c>
       <c r="H41" t="s" s="7">
-        <v>281</v>
+        <v>300</v>
       </c>
       <c r="I41" t="n" s="7">
-        <v>158000.0</v>
+        <v>543994.0</v>
       </c>
       <c r="J41" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K41" t="n" s="7">
-        <v>1.62589E7</v>
+        <v>1.4217871E7</v>
       </c>
       <c r="L41" t="s" s="7">
-        <v>282</v>
+        <v>301</v>
       </c>
       <c r="M41" t="s" s="4">
-        <v>276</v>
+        <v>302</v>
       </c>
       <c r="N41" t="s" s="4">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="O41" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P41" t="s" s="4">
-        <v>128</v>
+        <v>30</v>
       </c>
       <c r="Q41" t="s" s="4">
         <v>30</v>
@@ -5532,19 +5442,19 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B42" t="s" s="5">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="C42" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="E42" t="s" s="7">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="F42" t="s" s="7">
         <v>29</v>
@@ -5553,31 +5463,31 @@
         <v>30</v>
       </c>
       <c r="H42" t="s" s="7">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="I42" t="n" s="7">
-        <v>358212.0</v>
+        <v>249031.0</v>
       </c>
       <c r="J42" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K42" t="n" s="7">
-        <v>1.61009E7</v>
+        <v>1.3673877E7</v>
       </c>
       <c r="L42" t="s" s="7">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="M42" t="s" s="4">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="N42" t="s" s="4">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="O42" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P42" t="s" s="4">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q42" t="s" s="4">
         <v>30</v>
@@ -5612,19 +5522,19 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B43" t="s" s="5">
-        <v>291</v>
+        <v>311</v>
       </c>
       <c r="C43" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="E43" t="s" s="7">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="F43" t="s" s="7">
         <v>29</v>
@@ -5633,31 +5543,31 @@
         <v>30</v>
       </c>
       <c r="H43" t="s" s="7">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="I43" t="n" s="7">
-        <v>200000.0</v>
+        <v>220852.0</v>
       </c>
       <c r="J43" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K43" t="n" s="7">
-        <v>1.5742688E7</v>
+        <v>1.3424846E7</v>
       </c>
       <c r="L43" t="s" s="7">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="M43" t="s" s="4">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="N43" t="s" s="4">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="O43" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P43" t="s" s="4">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="Q43" t="s" s="4">
         <v>30</v>
@@ -5692,19 +5602,19 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B44" t="s" s="5">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="C44" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="E44" t="s" s="7">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="F44" t="s" s="7">
         <v>29</v>
@@ -5713,37 +5623,37 @@
         <v>30</v>
       </c>
       <c r="H44" t="s" s="7">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="I44" t="n" s="7">
-        <v>15000.0</v>
+        <v>220000.0</v>
       </c>
       <c r="J44" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K44" t="n" s="7">
-        <v>1.5542688E7</v>
+        <v>1.3203994E7</v>
       </c>
       <c r="L44" t="s" s="7">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="M44" t="s" s="4">
-        <v>303</v>
+        <v>316</v>
       </c>
       <c r="N44" t="s" s="4">
-        <v>304</v>
+        <v>323</v>
       </c>
       <c r="O44" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P44" t="s" s="4">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q44" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R44" t="s" s="4">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="S44" t="s" s="4">
         <v>30</v>
@@ -5772,19 +5682,19 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="B45" t="s" s="5">
-        <v>305</v>
+        <v>324</v>
       </c>
       <c r="C45" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>306</v>
+        <v>325</v>
       </c>
       <c r="E45" t="s" s="7">
-        <v>307</v>
+        <v>326</v>
       </c>
       <c r="F45" t="s" s="7">
         <v>29</v>
@@ -5793,37 +5703,37 @@
         <v>30</v>
       </c>
       <c r="H45" t="s" s="7">
-        <v>110</v>
+        <v>327</v>
       </c>
       <c r="I45" t="n" s="7">
-        <v>102000.0</v>
+        <v>47590.0</v>
       </c>
       <c r="J45" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K45" t="n" s="7">
-        <v>1.5527688E7</v>
+        <v>1.2983994E7</v>
       </c>
       <c r="L45" t="s" s="7">
-        <v>111</v>
+        <v>328</v>
       </c>
       <c r="M45" t="s" s="4">
-        <v>112</v>
+        <v>329</v>
       </c>
       <c r="N45" t="s" s="4">
-        <v>113</v>
+        <v>330</v>
       </c>
       <c r="O45" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P45" t="s" s="4">
-        <v>64</v>
+        <v>30</v>
       </c>
       <c r="Q45" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R45" t="s" s="4">
-        <v>30</v>
+        <v>331</v>
       </c>
       <c r="S45" t="s" s="4">
         <v>30</v>
@@ -5855,16 +5765,16 @@
         <v>45868.0</v>
       </c>
       <c r="B46" t="s" s="5">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="C46" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="E46" t="s" s="7">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="F46" t="s" s="7">
         <v>29</v>
@@ -5873,31 +5783,31 @@
         <v>30</v>
       </c>
       <c r="H46" t="s" s="7">
-        <v>39</v>
+        <v>335</v>
       </c>
       <c r="I46" t="n" s="7">
-        <v>121212.0</v>
+        <v>60060.0</v>
       </c>
       <c r="J46" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K46" t="n" s="7">
-        <v>1.5425688E7</v>
+        <v>1.2936404E7</v>
       </c>
       <c r="L46" t="s" s="7">
-        <v>40</v>
+        <v>336</v>
       </c>
       <c r="M46" t="s" s="4">
-        <v>41</v>
+        <v>337</v>
       </c>
       <c r="N46" t="s" s="4">
-        <v>42</v>
+        <v>338</v>
       </c>
       <c r="O46" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P46" t="s" s="4">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q46" t="s" s="4">
         <v>30</v>
@@ -5935,16 +5845,16 @@
         <v>45868.0</v>
       </c>
       <c r="B47" t="s" s="5">
-        <v>311</v>
+        <v>339</v>
       </c>
       <c r="C47" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D47" s="6" t="s">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="E47" t="s" s="7">
-        <v>313</v>
+        <v>341</v>
       </c>
       <c r="F47" t="s" s="7">
         <v>29</v>
@@ -5953,31 +5863,31 @@
         <v>30</v>
       </c>
       <c r="H47" t="s" s="7">
-        <v>78</v>
+        <v>342</v>
       </c>
       <c r="I47" t="n" s="7">
-        <v>10929.0</v>
+        <v>453000.0</v>
       </c>
       <c r="J47" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K47" t="n" s="7">
-        <v>1.5304476E7</v>
+        <v>1.2876344E7</v>
       </c>
       <c r="L47" t="s" s="7">
-        <v>79</v>
+        <v>343</v>
       </c>
       <c r="M47" t="s" s="4">
-        <v>80</v>
+        <v>344</v>
       </c>
       <c r="N47" t="s" s="4">
-        <v>81</v>
+        <v>345</v>
       </c>
       <c r="O47" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P47" t="s" s="4">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="Q47" t="s" s="4">
         <v>30</v>
@@ -6015,16 +5925,16 @@
         <v>45868.0</v>
       </c>
       <c r="B48" t="s" s="5">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="C48" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D48" s="6" t="s">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="E48" t="s" s="7">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="F48" t="s" s="7">
         <v>29</v>
@@ -6033,31 +5943,31 @@
         <v>30</v>
       </c>
       <c r="H48" t="s" s="7">
-        <v>169</v>
+        <v>349</v>
       </c>
       <c r="I48" t="n" s="7">
-        <v>187000.0</v>
+        <v>750000.0</v>
       </c>
       <c r="J48" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K48" t="n" s="7">
-        <v>1.5293547E7</v>
+        <v>1.2423344E7</v>
       </c>
       <c r="L48" t="s" s="7">
-        <v>170</v>
+        <v>350</v>
       </c>
       <c r="M48" t="s" s="4">
-        <v>80</v>
+        <v>351</v>
       </c>
       <c r="N48" t="s" s="4">
-        <v>317</v>
+        <v>352</v>
       </c>
       <c r="O48" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P48" t="s" s="4">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="Q48" t="s" s="4">
         <v>30</v>
@@ -6095,16 +6005,16 @@
         <v>45868.0</v>
       </c>
       <c r="B49" t="s" s="5">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="C49" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D49" s="6" t="s">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="E49" t="s" s="7">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="F49" t="s" s="7">
         <v>29</v>
@@ -6113,31 +6023,31 @@
         <v>30</v>
       </c>
       <c r="H49" t="s" s="7">
-        <v>321</v>
+        <v>356</v>
       </c>
       <c r="I49" t="n" s="7">
-        <v>300000.0</v>
+        <v>180180.0</v>
       </c>
       <c r="J49" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K49" t="n" s="7">
-        <v>1.5106547E7</v>
+        <v>1.1673344E7</v>
       </c>
       <c r="L49" t="s" s="7">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="M49" t="s" s="4">
-        <v>323</v>
+        <v>358</v>
       </c>
       <c r="N49" t="s" s="4">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="O49" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P49" t="s" s="4">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="Q49" t="s" s="4">
         <v>30</v>
@@ -6175,16 +6085,16 @@
         <v>45868.0</v>
       </c>
       <c r="B50" t="s" s="5">
-        <v>325</v>
+        <v>360</v>
       </c>
       <c r="C50" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D50" s="6" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="E50" t="s" s="7">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="F50" t="s" s="7">
         <v>29</v>
@@ -6193,31 +6103,31 @@
         <v>30</v>
       </c>
       <c r="H50" t="s" s="7">
-        <v>328</v>
+        <v>107</v>
       </c>
       <c r="I50" t="n" s="7">
-        <v>50000.0</v>
+        <v>110000.0</v>
       </c>
       <c r="J50" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K50" t="n" s="7">
-        <v>1.4806547E7</v>
+        <v>1.1493164E7</v>
       </c>
       <c r="L50" t="s" s="7">
-        <v>329</v>
+        <v>108</v>
       </c>
       <c r="M50" t="s" s="4">
-        <v>330</v>
+        <v>109</v>
       </c>
       <c r="N50" t="s" s="4">
-        <v>331</v>
+        <v>110</v>
       </c>
       <c r="O50" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P50" t="s" s="4">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="Q50" t="s" s="4">
         <v>30</v>
@@ -6255,16 +6165,16 @@
         <v>45868.0</v>
       </c>
       <c r="B51" t="s" s="5">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="C51" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D51" s="6" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
       <c r="E51" t="s" s="7">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="F51" t="s" s="7">
         <v>29</v>
@@ -6273,31 +6183,31 @@
         <v>30</v>
       </c>
       <c r="H51" t="s" s="7">
-        <v>335</v>
+        <v>185</v>
       </c>
       <c r="I51" t="n" s="7">
-        <v>549457.0</v>
+        <v>386850.0</v>
       </c>
       <c r="J51" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K51" t="n" s="7">
-        <v>1.4756547E7</v>
+        <v>1.1383164E7</v>
       </c>
       <c r="L51" t="s" s="7">
-        <v>336</v>
+        <v>186</v>
       </c>
       <c r="M51" t="s" s="4">
-        <v>337</v>
+        <v>187</v>
       </c>
       <c r="N51" t="s" s="4">
-        <v>338</v>
+        <v>188</v>
       </c>
       <c r="O51" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P51" t="s" s="4">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="Q51" t="s" s="4">
         <v>30</v>
@@ -6335,16 +6245,16 @@
         <v>45868.0</v>
       </c>
       <c r="B52" t="s" s="5">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="C52" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="E52" t="s" s="7">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="F52" t="s" s="7">
         <v>29</v>
@@ -6353,31 +6263,31 @@
         <v>30</v>
       </c>
       <c r="H52" t="s" s="7">
-        <v>342</v>
+        <v>93</v>
       </c>
       <c r="I52" t="n" s="7">
-        <v>115686.0</v>
+        <v>191000.0</v>
       </c>
       <c r="J52" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K52" t="n" s="7">
-        <v>1.420709E7</v>
+        <v>1.0996314E7</v>
       </c>
       <c r="L52" t="s" s="7">
-        <v>343</v>
+        <v>94</v>
       </c>
       <c r="M52" t="s" s="4">
-        <v>344</v>
+        <v>95</v>
       </c>
       <c r="N52" t="s" s="4">
-        <v>345</v>
+        <v>96</v>
       </c>
       <c r="O52" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P52" t="s" s="4">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Q52" t="s" s="4">
         <v>30</v>
@@ -6415,16 +6325,16 @@
         <v>45868.0</v>
       </c>
       <c r="B53" t="s" s="5">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="C53" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="E53" t="s" s="7">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="F53" t="s" s="7">
         <v>29</v>
@@ -6433,37 +6343,37 @@
         <v>30</v>
       </c>
       <c r="H53" t="s" s="7">
-        <v>349</v>
+        <v>80</v>
       </c>
       <c r="I53" t="n" s="7">
-        <v>1679360.0</v>
+        <v>750751.0</v>
       </c>
       <c r="J53" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K53" t="n" s="7">
-        <v>1.4091404E7</v>
+        <v>1.0805314E7</v>
       </c>
       <c r="L53" t="s" s="7">
-        <v>350</v>
+        <v>81</v>
       </c>
       <c r="M53" t="s" s="4">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="N53" t="s" s="4">
-        <v>352</v>
+        <v>82</v>
       </c>
       <c r="O53" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P53" t="s" s="4">
-        <v>353</v>
+        <v>36</v>
       </c>
       <c r="Q53" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R53" t="s" s="4">
-        <v>354</v>
+        <v>30</v>
       </c>
       <c r="S53" t="s" s="4">
         <v>30</v>
@@ -6495,16 +6405,16 @@
         <v>45868.0</v>
       </c>
       <c r="B54" t="s" s="5">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C54" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D54" s="6" t="s">
-        <v>356</v>
+        <v>372</v>
       </c>
       <c r="E54" t="s" s="7">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="F54" t="s" s="7">
         <v>29</v>
@@ -6513,25 +6423,25 @@
         <v>30</v>
       </c>
       <c r="H54" t="s" s="7">
-        <v>358</v>
+        <v>374</v>
       </c>
       <c r="I54" t="n" s="7">
-        <v>368098.0</v>
+        <v>100000.0</v>
       </c>
       <c r="J54" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K54" t="n" s="7">
-        <v>1.2412044E7</v>
+        <v>1.0054563E7</v>
       </c>
       <c r="L54" t="s" s="7">
-        <v>359</v>
+        <v>375</v>
       </c>
       <c r="M54" t="s" s="4">
-        <v>360</v>
+        <v>376</v>
       </c>
       <c r="N54" t="s" s="4">
-        <v>361</v>
+        <v>377</v>
       </c>
       <c r="O54" t="s" s="4">
         <v>35</v>
@@ -6575,16 +6485,16 @@
         <v>45868.0</v>
       </c>
       <c r="B55" t="s" s="5">
-        <v>362</v>
+        <v>378</v>
       </c>
       <c r="C55" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D55" s="6" t="s">
-        <v>363</v>
+        <v>379</v>
       </c>
       <c r="E55" t="s" s="7">
-        <v>364</v>
+        <v>380</v>
       </c>
       <c r="F55" t="s" s="7">
         <v>29</v>
@@ -6593,25 +6503,25 @@
         <v>30</v>
       </c>
       <c r="H55" t="s" s="7">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="I55" t="n" s="7">
-        <v>303398.0</v>
+        <v>25000.0</v>
       </c>
       <c r="J55" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K55" t="n" s="7">
-        <v>1.2043946E7</v>
+        <v>9954563.0</v>
       </c>
       <c r="L55" t="s" s="7">
-        <v>359</v>
+        <v>382</v>
       </c>
       <c r="M55" t="s" s="4">
-        <v>360</v>
+        <v>383</v>
       </c>
       <c r="N55" t="s" s="4">
-        <v>361</v>
+        <v>384</v>
       </c>
       <c r="O55" t="s" s="4">
         <v>35</v>
@@ -6655,16 +6565,16 @@
         <v>45868.0</v>
       </c>
       <c r="B56" t="s" s="5">
-        <v>365</v>
+        <v>385</v>
       </c>
       <c r="C56" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D56" s="6" t="s">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="E56" t="s" s="7">
-        <v>367</v>
+        <v>387</v>
       </c>
       <c r="F56" t="s" s="7">
         <v>29</v>
@@ -6673,31 +6583,31 @@
         <v>30</v>
       </c>
       <c r="H56" t="s" s="7">
-        <v>368</v>
+        <v>388</v>
       </c>
       <c r="I56" t="n" s="7">
-        <v>50000.0</v>
+        <v>179104.0</v>
       </c>
       <c r="J56" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K56" t="n" s="7">
-        <v>1.1740548E7</v>
+        <v>9929563.0</v>
       </c>
       <c r="L56" t="s" s="7">
-        <v>369</v>
+        <v>389</v>
       </c>
       <c r="M56" t="s" s="4">
-        <v>370</v>
+        <v>390</v>
       </c>
       <c r="N56" t="s" s="4">
-        <v>371</v>
+        <v>391</v>
       </c>
       <c r="O56" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P56" t="s" s="4">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="Q56" t="s" s="4">
         <v>30</v>
@@ -6735,16 +6645,16 @@
         <v>45868.0</v>
       </c>
       <c r="B57" t="s" s="5">
-        <v>372</v>
+        <v>392</v>
       </c>
       <c r="C57" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D57" s="6" t="s">
-        <v>373</v>
+        <v>393</v>
       </c>
       <c r="E57" t="s" s="7">
-        <v>374</v>
+        <v>394</v>
       </c>
       <c r="F57" t="s" s="7">
         <v>29</v>
@@ -6753,31 +6663,31 @@
         <v>30</v>
       </c>
       <c r="H57" t="s" s="7">
-        <v>375</v>
-      </c>
-      <c r="I57" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="J57" t="n" s="7">
-        <v>2922355.0</v>
+        <v>395</v>
+      </c>
+      <c r="I57" t="n" s="7">
+        <v>700000.0</v>
+      </c>
+      <c r="J57" t="s" s="7">
+        <v>30</v>
       </c>
       <c r="K57" t="n" s="7">
-        <v>1.1690548E7</v>
+        <v>9750459.0</v>
       </c>
       <c r="L57" t="s" s="7">
-        <v>376</v>
+        <v>396</v>
       </c>
       <c r="M57" t="s" s="4">
-        <v>377</v>
+        <v>397</v>
       </c>
       <c r="N57" t="s" s="4">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="O57" t="s" s="4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P57" t="s" s="4">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Q57" t="s" s="4">
         <v>30</v>
@@ -6815,16 +6725,16 @@
         <v>45868.0</v>
       </c>
       <c r="B58" t="s" s="5">
-        <v>379</v>
+        <v>399</v>
       </c>
       <c r="C58" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D58" s="6" t="s">
-        <v>380</v>
+        <v>400</v>
       </c>
       <c r="E58" t="s" s="7">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="F58" t="s" s="7">
         <v>29</v>
@@ -6833,31 +6743,31 @@
         <v>30</v>
       </c>
       <c r="H58" t="s" s="7">
-        <v>382</v>
+        <v>80</v>
       </c>
       <c r="I58" t="n" s="7">
-        <v>178572.0</v>
+        <v>240240.0</v>
       </c>
       <c r="J58" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K58" t="n" s="7">
-        <v>1.4612903E7</v>
+        <v>9050459.0</v>
       </c>
       <c r="L58" t="s" s="7">
-        <v>383</v>
+        <v>81</v>
       </c>
       <c r="M58" t="s" s="4">
-        <v>384</v>
+        <v>74</v>
       </c>
       <c r="N58" t="s" s="4">
-        <v>385</v>
+        <v>82</v>
       </c>
       <c r="O58" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P58" t="s" s="4">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q58" t="s" s="4">
         <v>30</v>
@@ -6895,16 +6805,16 @@
         <v>45868.0</v>
       </c>
       <c r="B59" t="s" s="5">
-        <v>386</v>
+        <v>402</v>
       </c>
       <c r="C59" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D59" s="6" t="s">
-        <v>387</v>
+        <v>403</v>
       </c>
       <c r="E59" t="s" s="7">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="F59" t="s" s="7">
         <v>29</v>
@@ -6913,31 +6823,31 @@
         <v>30</v>
       </c>
       <c r="H59" t="s" s="7">
-        <v>389</v>
-      </c>
-      <c r="I59" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="J59" t="n" s="7">
-        <v>509869.0</v>
+        <v>405</v>
+      </c>
+      <c r="I59" t="n" s="7">
+        <v>90634.0</v>
+      </c>
+      <c r="J59" t="s" s="7">
+        <v>30</v>
       </c>
       <c r="K59" t="n" s="7">
-        <v>1.4434331E7</v>
+        <v>8810219.0</v>
       </c>
       <c r="L59" t="s" s="7">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="M59" t="s" s="4">
-        <v>391</v>
+        <v>253</v>
       </c>
       <c r="N59" t="s" s="4">
-        <v>392</v>
+        <v>407</v>
       </c>
       <c r="O59" t="s" s="4">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P59" t="s" s="4">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="Q59" t="s" s="4">
         <v>30</v>
@@ -6975,16 +6885,16 @@
         <v>45868.0</v>
       </c>
       <c r="B60" t="s" s="5">
-        <v>393</v>
+        <v>408</v>
       </c>
       <c r="C60" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="E60" t="s" s="7">
-        <v>395</v>
+        <v>410</v>
       </c>
       <c r="F60" t="s" s="7">
         <v>29</v>
@@ -6993,37 +6903,37 @@
         <v>30</v>
       </c>
       <c r="H60" t="s" s="7">
-        <v>396</v>
+        <v>171</v>
       </c>
       <c r="I60" t="n" s="7">
-        <v>81418.0</v>
+        <v>50000.0</v>
       </c>
       <c r="J60" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K60" t="n" s="7">
-        <v>1.49442E7</v>
+        <v>8719585.0</v>
       </c>
       <c r="L60" t="s" s="7">
-        <v>397</v>
+        <v>172</v>
       </c>
       <c r="M60" t="s" s="4">
-        <v>398</v>
+        <v>173</v>
       </c>
       <c r="N60" t="s" s="4">
-        <v>399</v>
+        <v>174</v>
       </c>
       <c r="O60" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P60" t="s" s="4">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="Q60" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R60" t="s" s="4">
-        <v>400</v>
+        <v>30</v>
       </c>
       <c r="S60" t="s" s="4">
         <v>30</v>
@@ -7055,16 +6965,16 @@
         <v>45868.0</v>
       </c>
       <c r="B61" t="s" s="5">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="C61" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="E61" t="s" s="7">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="F61" t="s" s="7">
         <v>29</v>
@@ -7073,37 +6983,37 @@
         <v>30</v>
       </c>
       <c r="H61" t="s" s="7">
-        <v>404</v>
-      </c>
-      <c r="I61" t="s" s="7">
-        <v>30</v>
-      </c>
-      <c r="J61" t="n" s="7">
-        <v>7000000.0</v>
+        <v>116</v>
+      </c>
+      <c r="I61" t="n" s="7">
+        <v>127000.0</v>
+      </c>
+      <c r="J61" t="s" s="7">
+        <v>30</v>
       </c>
       <c r="K61" t="n" s="7">
-        <v>1.4862782E7</v>
+        <v>8669585.0</v>
       </c>
       <c r="L61" t="s" s="7">
-        <v>405</v>
+        <v>117</v>
       </c>
       <c r="M61" t="s" s="4">
-        <v>406</v>
+        <v>118</v>
       </c>
       <c r="N61" t="s" s="4">
-        <v>407</v>
+        <v>119</v>
       </c>
       <c r="O61" t="s" s="4">
-        <v>30</v>
+        <v>120</v>
       </c>
       <c r="P61" t="s" s="4">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="Q61" t="s" s="4">
-        <v>408</v>
+        <v>30</v>
       </c>
       <c r="R61" t="s" s="4">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="S61" t="s" s="4">
         <v>30</v>
@@ -7135,16 +7045,16 @@
         <v>45868.0</v>
       </c>
       <c r="B62" t="s" s="5">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="C62" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D62" s="6" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="E62" t="s" s="7">
-        <v>411</v>
+        <v>416</v>
       </c>
       <c r="F62" t="s" s="7">
         <v>29</v>
@@ -7153,31 +7063,31 @@
         <v>30</v>
       </c>
       <c r="H62" t="s" s="7">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="I62" t="n" s="7">
-        <v>459336.0</v>
+        <v>50000.0</v>
       </c>
       <c r="J62" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K62" t="n" s="7">
-        <v>2.1862782E7</v>
+        <v>8542585.0</v>
       </c>
       <c r="L62" t="s" s="7">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="M62" t="s" s="4">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="N62" t="s" s="4">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="O62" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P62" t="s" s="4">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="Q62" t="s" s="4">
         <v>30</v>
@@ -7215,16 +7125,16 @@
         <v>45868.0</v>
       </c>
       <c r="B63" t="s" s="5">
-        <v>416</v>
+        <v>421</v>
       </c>
       <c r="C63" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D63" s="6" t="s">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E63" t="s" s="7">
-        <v>418</v>
+        <v>423</v>
       </c>
       <c r="F63" t="s" s="7">
         <v>29</v>
@@ -7233,31 +7143,31 @@
         <v>30</v>
       </c>
       <c r="H63" t="s" s="7">
-        <v>53</v>
+        <v>424</v>
       </c>
       <c r="I63" t="n" s="7">
-        <v>96600.0</v>
+        <v>180000.0</v>
       </c>
       <c r="J63" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K63" t="n" s="7">
-        <v>2.1403446E7</v>
+        <v>8492585.0</v>
       </c>
       <c r="L63" t="s" s="7">
-        <v>54</v>
+        <v>425</v>
       </c>
       <c r="M63" t="s" s="4">
-        <v>55</v>
+        <v>426</v>
       </c>
       <c r="N63" t="s" s="4">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="O63" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P63" t="s" s="4">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q63" t="s" s="4">
         <v>30</v>
@@ -7295,16 +7205,16 @@
         <v>45868.0</v>
       </c>
       <c r="B64" t="s" s="5">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C64" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D64" s="6" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="E64" t="s" s="7">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="F64" t="s" s="7">
         <v>29</v>
@@ -7313,25 +7223,25 @@
         <v>30</v>
       </c>
       <c r="H64" t="s" s="7">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="I64" t="n" s="7">
-        <v>332770.0</v>
+        <v>200000.0</v>
       </c>
       <c r="J64" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K64" t="n" s="7">
-        <v>2.1306846E7</v>
+        <v>8312585.0</v>
       </c>
       <c r="L64" t="s" s="7">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="M64" t="s" s="4">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="N64" t="s" s="4">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="O64" t="s" s="4">
         <v>35</v>
@@ -7375,16 +7285,16 @@
         <v>45868.0</v>
       </c>
       <c r="B65" t="s" s="5">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="C65" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D65" s="6" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="E65" t="s" s="7">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="F65" t="s" s="7">
         <v>29</v>
@@ -7393,31 +7303,31 @@
         <v>30</v>
       </c>
       <c r="H65" t="s" s="7">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="I65" t="n" s="7">
-        <v>59700.0</v>
+        <v>170000.0</v>
       </c>
       <c r="J65" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K65" t="n" s="7">
-        <v>2.0974076E7</v>
+        <v>8112585.0</v>
       </c>
       <c r="L65" t="s" s="7">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="M65" t="s" s="4">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="N65" t="s" s="4">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="O65" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P65" t="s" s="4">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="Q65" t="s" s="4">
         <v>30</v>
@@ -7455,16 +7365,16 @@
         <v>45868.0</v>
       </c>
       <c r="B66" t="s" s="5">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C66" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D66" s="6" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="E66" t="s" s="7">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="F66" t="s" s="7">
         <v>29</v>
@@ -7473,37 +7383,37 @@
         <v>30</v>
       </c>
       <c r="H66" t="s" s="7">
-        <v>437</v>
+        <v>116</v>
       </c>
       <c r="I66" t="n" s="7">
-        <v>60060.0</v>
+        <v>170000.0</v>
       </c>
       <c r="J66" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K66" t="n" s="7">
-        <v>2.0914376E7</v>
+        <v>7942585.0</v>
       </c>
       <c r="L66" t="s" s="7">
-        <v>438</v>
+        <v>117</v>
       </c>
       <c r="M66" t="s" s="4">
-        <v>439</v>
+        <v>118</v>
       </c>
       <c r="N66" t="s" s="4">
-        <v>440</v>
+        <v>119</v>
       </c>
       <c r="O66" t="s" s="4">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="P66" t="s" s="4">
-        <v>64</v>
+        <v>121</v>
       </c>
       <c r="Q66" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R66" t="s" s="4">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="S66" t="s" s="4">
         <v>30</v>
@@ -7535,16 +7445,16 @@
         <v>45868.0</v>
       </c>
       <c r="B67" t="s" s="5">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C67" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D67" s="6" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E67" t="s" s="7">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F67" t="s" s="7">
         <v>29</v>
@@ -7553,31 +7463,31 @@
         <v>30</v>
       </c>
       <c r="H67" t="s" s="7">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="I67" t="n" s="7">
-        <v>200000.0</v>
+        <v>96386.0</v>
       </c>
       <c r="J67" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K67" t="n" s="7">
-        <v>2.0854316E7</v>
+        <v>7772585.0</v>
       </c>
       <c r="L67" t="s" s="7">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M67" t="s" s="4">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N67" t="s" s="4">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="O67" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P67" t="s" s="4">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="Q67" t="s" s="4">
         <v>30</v>
@@ -7612,19 +7522,19 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B68" t="s" s="5">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C68" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D68" s="6" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="E68" t="s" s="7">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="F68" t="s" s="7">
         <v>29</v>
@@ -7633,31 +7543,31 @@
         <v>30</v>
       </c>
       <c r="H68" t="s" s="7">
-        <v>451</v>
+        <v>86</v>
       </c>
       <c r="I68" t="n" s="7">
-        <v>65262.0</v>
+        <v>67500.0</v>
       </c>
       <c r="J68" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K68" t="n" s="7">
-        <v>2.0654316E7</v>
+        <v>7676199.0</v>
       </c>
       <c r="L68" t="s" s="7">
-        <v>452</v>
+        <v>87</v>
       </c>
       <c r="M68" t="s" s="4">
-        <v>453</v>
+        <v>88</v>
       </c>
       <c r="N68" t="s" s="4">
-        <v>454</v>
+        <v>89</v>
       </c>
       <c r="O68" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P68" t="s" s="4">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q68" t="s" s="4">
         <v>30</v>
@@ -7692,13 +7602,13 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B69" t="s" s="5">
         <v>455</v>
       </c>
       <c r="C69" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D69" s="6" t="s">
         <v>456</v>
@@ -7716,13 +7626,13 @@
         <v>458</v>
       </c>
       <c r="I69" t="n" s="7">
-        <v>160080.0</v>
+        <v>180000.0</v>
       </c>
       <c r="J69" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K69" t="n" s="7">
-        <v>2.0589054E7</v>
+        <v>7608699.0</v>
       </c>
       <c r="L69" t="s" s="7">
         <v>459</v>
@@ -7772,13 +7682,13 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B70" t="s" s="5">
         <v>462</v>
       </c>
       <c r="C70" t="n" s="4">
-        <v>45868.0</v>
+        <v>45869.0</v>
       </c>
       <c r="D70" s="6" t="s">
         <v>463</v>
@@ -7793,37 +7703,37 @@
         <v>30</v>
       </c>
       <c r="H70" t="s" s="7">
-        <v>465</v>
+        <v>165</v>
       </c>
       <c r="I70" t="n" s="7">
-        <v>59880.0</v>
+        <v>55000.0</v>
       </c>
       <c r="J70" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K70" t="n" s="7">
-        <v>2.0428974E7</v>
+        <v>7428699.0</v>
       </c>
       <c r="L70" t="s" s="7">
-        <v>466</v>
+        <v>166</v>
       </c>
       <c r="M70" t="s" s="4">
-        <v>467</v>
+        <v>149</v>
       </c>
       <c r="N70" t="s" s="4">
-        <v>468</v>
+        <v>167</v>
       </c>
       <c r="O70" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P70" t="s" s="4">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="Q70" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R70" t="s" s="4">
-        <v>469</v>
+        <v>30</v>
       </c>
       <c r="S70" t="s" s="4">
         <v>30</v>
@@ -7852,19 +7762,19 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B71" t="s" s="5">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="C71" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="E71" t="s" s="7">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="F71" t="s" s="7">
         <v>29</v>
@@ -7873,31 +7783,31 @@
         <v>30</v>
       </c>
       <c r="H71" t="s" s="7">
-        <v>472</v>
+        <v>80</v>
       </c>
       <c r="I71" t="n" s="7">
-        <v>119760.0</v>
+        <v>238806.0</v>
       </c>
       <c r="J71" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K71" t="n" s="7">
-        <v>2.0369094E7</v>
+        <v>7373699.0</v>
       </c>
       <c r="L71" t="s" s="7">
-        <v>473</v>
+        <v>81</v>
       </c>
       <c r="M71" t="s" s="4">
-        <v>474</v>
+        <v>74</v>
       </c>
       <c r="N71" t="s" s="4">
-        <v>475</v>
+        <v>82</v>
       </c>
       <c r="O71" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P71" t="s" s="4">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="Q71" t="s" s="4">
         <v>30</v>
@@ -7932,19 +7842,19 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B72" t="s" s="5">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C72" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="E72" t="s" s="7">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="F72" t="s" s="7">
         <v>29</v>
@@ -7953,37 +7863,37 @@
         <v>30</v>
       </c>
       <c r="H72" t="s" s="7">
-        <v>479</v>
+        <v>116</v>
       </c>
       <c r="I72" t="n" s="7">
-        <v>190477.0</v>
+        <v>85000.0</v>
       </c>
       <c r="J72" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K72" t="n" s="7">
-        <v>2.0249334E7</v>
+        <v>7134893.0</v>
       </c>
       <c r="L72" t="s" s="7">
-        <v>480</v>
+        <v>117</v>
       </c>
       <c r="M72" t="s" s="4">
-        <v>481</v>
+        <v>118</v>
       </c>
       <c r="N72" t="s" s="4">
-        <v>482</v>
+        <v>119</v>
       </c>
       <c r="O72" t="s" s="4">
-        <v>35</v>
+        <v>120</v>
       </c>
       <c r="P72" t="s" s="4">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="Q72" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R72" t="s" s="4">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="S72" t="s" s="4">
         <v>30</v>
@@ -8012,19 +7922,19 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B73" t="s" s="5">
-        <v>483</v>
+        <v>471</v>
       </c>
       <c r="C73" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D73" s="6" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="E73" t="s" s="7">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="F73" t="s" s="7">
         <v>29</v>
@@ -8033,37 +7943,37 @@
         <v>30</v>
       </c>
       <c r="H73" t="s" s="7">
-        <v>486</v>
+        <v>251</v>
       </c>
       <c r="I73" t="n" s="7">
-        <v>1696595.0</v>
+        <v>78313.0</v>
       </c>
       <c r="J73" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K73" t="n" s="7">
-        <v>2.0058857E7</v>
+        <v>7049893.0</v>
       </c>
       <c r="L73" t="s" s="7">
-        <v>487</v>
+        <v>252</v>
       </c>
       <c r="M73" t="s" s="4">
-        <v>488</v>
+        <v>253</v>
       </c>
       <c r="N73" t="s" s="4">
-        <v>489</v>
+        <v>254</v>
       </c>
       <c r="O73" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P73" t="s" s="4">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="Q73" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R73" t="s" s="4">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="S73" t="s" s="4">
         <v>30</v>
@@ -8092,19 +8002,19 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B74" t="s" s="5">
-        <v>490</v>
+        <v>474</v>
       </c>
       <c r="C74" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D74" s="6" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
       <c r="E74" t="s" s="7">
-        <v>492</v>
+        <v>476</v>
       </c>
       <c r="F74" t="s" s="7">
         <v>29</v>
@@ -8113,25 +8023,25 @@
         <v>30</v>
       </c>
       <c r="H74" t="s" s="7">
-        <v>493</v>
+        <v>477</v>
       </c>
       <c r="I74" t="n" s="7">
-        <v>55330.0</v>
+        <v>97455.0</v>
       </c>
       <c r="J74" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K74" t="n" s="7">
-        <v>1.8362262E7</v>
+        <v>6971580.0</v>
       </c>
       <c r="L74" t="s" s="7">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="M74" t="s" s="4">
-        <v>495</v>
+        <v>479</v>
       </c>
       <c r="N74" t="s" s="4">
-        <v>496</v>
+        <v>480</v>
       </c>
       <c r="O74" t="s" s="4">
         <v>35</v>
@@ -8172,19 +8082,19 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B75" t="s" s="5">
-        <v>497</v>
+        <v>481</v>
       </c>
       <c r="C75" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D75" s="6" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="E75" t="s" s="7">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="F75" t="s" s="7">
         <v>29</v>
@@ -8193,34 +8103,34 @@
         <v>30</v>
       </c>
       <c r="H75" t="s" s="7">
-        <v>500</v>
-      </c>
-      <c r="I75" t="n" s="7">
-        <v>1691905.0</v>
-      </c>
-      <c r="J75" t="s" s="7">
-        <v>30</v>
+        <v>484</v>
+      </c>
+      <c r="I75" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J75" t="n" s="7">
+        <v>1121513.0</v>
       </c>
       <c r="K75" t="n" s="7">
-        <v>1.8306932E7</v>
+        <v>6874125.0</v>
       </c>
       <c r="L75" t="s" s="7">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="M75" t="s" s="4">
-        <v>502</v>
+        <v>486</v>
       </c>
       <c r="N75" t="s" s="4">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="O75" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P75" t="s" s="4">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q75" t="s" s="4">
-        <v>30</v>
+        <v>488</v>
       </c>
       <c r="R75" t="s" s="4">
         <v>30</v>
@@ -8252,19 +8162,19 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B76" t="s" s="5">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="C76" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D76" s="6" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="E76" t="s" s="7">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="F76" t="s" s="7">
         <v>29</v>
@@ -8273,31 +8183,31 @@
         <v>30</v>
       </c>
       <c r="H76" t="s" s="7">
-        <v>507</v>
+        <v>258</v>
       </c>
       <c r="I76" t="n" s="7">
-        <v>106506.0</v>
+        <v>131667.0</v>
       </c>
       <c r="J76" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K76" t="n" s="7">
-        <v>1.6615027E7</v>
+        <v>7995638.0</v>
       </c>
       <c r="L76" t="s" s="7">
-        <v>508</v>
+        <v>259</v>
       </c>
       <c r="M76" t="s" s="4">
-        <v>509</v>
+        <v>260</v>
       </c>
       <c r="N76" t="s" s="4">
-        <v>510</v>
+        <v>261</v>
       </c>
       <c r="O76" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P76" t="s" s="4">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q76" t="s" s="4">
         <v>30</v>
@@ -8332,19 +8242,19 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B77" t="s" s="5">
-        <v>511</v>
+        <v>491</v>
       </c>
       <c r="C77" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D77" s="6" t="s">
-        <v>512</v>
+        <v>492</v>
       </c>
       <c r="E77" t="s" s="7">
-        <v>513</v>
+        <v>493</v>
       </c>
       <c r="F77" t="s" s="7">
         <v>29</v>
@@ -8353,37 +8263,37 @@
         <v>30</v>
       </c>
       <c r="H77" t="s" s="7">
-        <v>514</v>
+        <v>293</v>
       </c>
       <c r="I77" t="n" s="7">
-        <v>100000.0</v>
+        <v>95210.0</v>
       </c>
       <c r="J77" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K77" t="n" s="7">
-        <v>1.6508521E7</v>
+        <v>7863971.0</v>
       </c>
       <c r="L77" t="s" s="7">
-        <v>515</v>
+        <v>294</v>
       </c>
       <c r="M77" t="s" s="4">
-        <v>516</v>
+        <v>295</v>
       </c>
       <c r="N77" t="s" s="4">
-        <v>517</v>
+        <v>296</v>
       </c>
       <c r="O77" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P77" t="s" s="4">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="Q77" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R77" t="s" s="4">
-        <v>354</v>
+        <v>30</v>
       </c>
       <c r="S77" t="s" s="4">
         <v>30</v>
@@ -8412,19 +8322,19 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B78" t="s" s="5">
-        <v>518</v>
+        <v>491</v>
       </c>
       <c r="C78" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D78" s="6" t="s">
-        <v>519</v>
+        <v>494</v>
       </c>
       <c r="E78" t="s" s="7">
-        <v>520</v>
+        <v>495</v>
       </c>
       <c r="F78" t="s" s="7">
         <v>29</v>
@@ -8433,31 +8343,31 @@
         <v>30</v>
       </c>
       <c r="H78" t="s" s="7">
-        <v>117</v>
-      </c>
-      <c r="I78" t="n" s="7">
-        <v>202381.0</v>
-      </c>
-      <c r="J78" t="s" s="7">
-        <v>30</v>
+        <v>496</v>
+      </c>
+      <c r="I78" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J78" t="n" s="7">
+        <v>1839273.0</v>
       </c>
       <c r="K78" t="n" s="7">
-        <v>1.6408521E7</v>
+        <v>7768761.0</v>
       </c>
       <c r="L78" t="s" s="7">
-        <v>118</v>
+        <v>497</v>
       </c>
       <c r="M78" t="s" s="4">
-        <v>119</v>
+        <v>498</v>
       </c>
       <c r="N78" t="s" s="4">
-        <v>120</v>
+        <v>499</v>
       </c>
       <c r="O78" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P78" t="s" s="4">
-        <v>30</v>
+        <v>121</v>
       </c>
       <c r="Q78" t="s" s="4">
         <v>30</v>
@@ -8492,19 +8402,19 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B79" t="s" s="5">
-        <v>521</v>
+        <v>500</v>
       </c>
       <c r="C79" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D79" s="6" t="s">
-        <v>522</v>
+        <v>501</v>
       </c>
       <c r="E79" t="s" s="7">
-        <v>523</v>
+        <v>502</v>
       </c>
       <c r="F79" t="s" s="7">
         <v>29</v>
@@ -8513,34 +8423,34 @@
         <v>30</v>
       </c>
       <c r="H79" t="s" s="7">
-        <v>524</v>
-      </c>
-      <c r="I79" t="n" s="7">
-        <v>119048.0</v>
-      </c>
-      <c r="J79" t="s" s="7">
-        <v>30</v>
+        <v>503</v>
+      </c>
+      <c r="I79" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J79" t="n" s="7">
+        <v>3904431.0</v>
       </c>
       <c r="K79" t="n" s="7">
-        <v>1.620614E7</v>
+        <v>9608034.0</v>
       </c>
       <c r="L79" t="s" s="7">
-        <v>525</v>
+        <v>504</v>
       </c>
       <c r="M79" t="s" s="4">
-        <v>41</v>
+        <v>505</v>
       </c>
       <c r="N79" t="s" s="4">
-        <v>526</v>
+        <v>506</v>
       </c>
       <c r="O79" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P79" t="s" s="4">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="Q79" t="s" s="4">
-        <v>30</v>
+        <v>507</v>
       </c>
       <c r="R79" t="s" s="4">
         <v>30</v>
@@ -8572,19 +8482,19 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B80" t="s" s="5">
-        <v>521</v>
+        <v>508</v>
       </c>
       <c r="C80" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>527</v>
+        <v>509</v>
       </c>
       <c r="E80" t="s" s="7">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="F80" t="s" s="7">
         <v>29</v>
@@ -8593,31 +8503,31 @@
         <v>30</v>
       </c>
       <c r="H80" t="s" s="7">
-        <v>46</v>
-      </c>
-      <c r="I80" t="n" s="7">
-        <v>100000.0</v>
-      </c>
-      <c r="J80" t="s" s="7">
-        <v>30</v>
+        <v>511</v>
+      </c>
+      <c r="I80" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J80" t="n" s="7">
+        <v>1723115.0</v>
       </c>
       <c r="K80" t="n" s="7">
-        <v>1.6087092E7</v>
+        <v>1.3512465E7</v>
       </c>
       <c r="L80" t="s" s="7">
-        <v>47</v>
+        <v>512</v>
       </c>
       <c r="M80" t="s" s="4">
-        <v>48</v>
+        <v>513</v>
       </c>
       <c r="N80" t="s" s="4">
-        <v>49</v>
+        <v>514</v>
       </c>
       <c r="O80" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P80" t="s" s="4">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q80" t="s" s="4">
         <v>30</v>
@@ -8652,19 +8562,19 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B81" t="s" s="5">
-        <v>529</v>
+        <v>515</v>
       </c>
       <c r="C81" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D81" s="6" t="s">
-        <v>530</v>
+        <v>516</v>
       </c>
       <c r="E81" t="s" s="7">
-        <v>531</v>
+        <v>517</v>
       </c>
       <c r="F81" t="s" s="7">
         <v>29</v>
@@ -8673,31 +8583,31 @@
         <v>30</v>
       </c>
       <c r="H81" t="s" s="7">
-        <v>39</v>
+        <v>518</v>
       </c>
       <c r="I81" t="n" s="7">
-        <v>119048.0</v>
+        <v>92573.0</v>
       </c>
       <c r="J81" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K81" t="n" s="7">
-        <v>1.5987092E7</v>
+        <v>1.523558E7</v>
       </c>
       <c r="L81" t="s" s="7">
-        <v>40</v>
+        <v>519</v>
       </c>
       <c r="M81" t="s" s="4">
-        <v>41</v>
+        <v>520</v>
       </c>
       <c r="N81" t="s" s="4">
-        <v>42</v>
+        <v>521</v>
       </c>
       <c r="O81" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P81" t="s" s="4">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="Q81" t="s" s="4">
         <v>30</v>
@@ -8732,19 +8642,19 @@
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B82" t="s" s="5">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="C82" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D82" s="6" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="E82" t="s" s="7">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="F82" t="s" s="7">
         <v>29</v>
@@ -8753,31 +8663,31 @@
         <v>30</v>
       </c>
       <c r="H82" t="s" s="7">
-        <v>321</v>
+        <v>405</v>
       </c>
       <c r="I82" t="n" s="7">
-        <v>59524.0</v>
+        <v>90361.0</v>
       </c>
       <c r="J82" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K82" t="n" s="7">
-        <v>1.5868044E7</v>
+        <v>1.5143007E7</v>
       </c>
       <c r="L82" t="s" s="7">
-        <v>322</v>
+        <v>406</v>
       </c>
       <c r="M82" t="s" s="4">
-        <v>323</v>
+        <v>253</v>
       </c>
       <c r="N82" t="s" s="4">
-        <v>324</v>
+        <v>407</v>
       </c>
       <c r="O82" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P82" t="s" s="4">
-        <v>128</v>
+        <v>76</v>
       </c>
       <c r="Q82" t="s" s="4">
         <v>30</v>
@@ -8812,19 +8722,19 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B83" t="s" s="5">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="C83" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D83" s="6" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="E83" t="s" s="7">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F83" t="s" s="7">
         <v>29</v>
@@ -8833,34 +8743,34 @@
         <v>30</v>
       </c>
       <c r="H83" t="s" s="7">
-        <v>252</v>
-      </c>
-      <c r="I83" t="n" s="7">
-        <v>38571.0</v>
-      </c>
-      <c r="J83" t="s" s="7">
-        <v>30</v>
+        <v>528</v>
+      </c>
+      <c r="I83" t="s" s="7">
+        <v>30</v>
+      </c>
+      <c r="J83" t="n" s="7">
+        <v>1951911.0</v>
       </c>
       <c r="K83" t="n" s="7">
-        <v>1.580852E7</v>
+        <v>1.5052646E7</v>
       </c>
       <c r="L83" t="s" s="7">
-        <v>253</v>
+        <v>529</v>
       </c>
       <c r="M83" t="s" s="4">
-        <v>254</v>
+        <v>530</v>
       </c>
       <c r="N83" t="s" s="4">
-        <v>255</v>
+        <v>531</v>
       </c>
       <c r="O83" t="s" s="4">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="P83" t="s" s="4">
-        <v>98</v>
+        <v>121</v>
       </c>
       <c r="Q83" t="s" s="4">
-        <v>30</v>
+        <v>532</v>
       </c>
       <c r="R83" t="s" s="4">
         <v>30</v>
@@ -8892,19 +8802,19 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B84" t="s" s="5">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="C84" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D84" s="6" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="E84" t="s" s="7">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="F84" t="s" s="7">
         <v>29</v>
@@ -8913,31 +8823,31 @@
         <v>30</v>
       </c>
       <c r="H84" t="s" s="7">
-        <v>541</v>
+        <v>80</v>
       </c>
       <c r="I84" t="n" s="7">
-        <v>55000.0</v>
+        <v>298151.0</v>
       </c>
       <c r="J84" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K84" t="n" s="7">
-        <v>1.5769949E7</v>
+        <v>1.7004557E7</v>
       </c>
       <c r="L84" t="s" s="7">
-        <v>542</v>
+        <v>81</v>
       </c>
       <c r="M84" t="s" s="4">
-        <v>543</v>
+        <v>74</v>
       </c>
       <c r="N84" t="s" s="4">
-        <v>544</v>
+        <v>82</v>
       </c>
       <c r="O84" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P84" t="s" s="4">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="Q84" t="s" s="4">
         <v>30</v>
@@ -8972,19 +8882,19 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B85" t="s" s="5">
-        <v>538</v>
+        <v>90</v>
       </c>
       <c r="C85" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D85" s="6" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="E85" t="s" s="7">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="F85" t="s" s="7">
         <v>29</v>
@@ -8993,31 +8903,31 @@
         <v>30</v>
       </c>
       <c r="H85" t="s" s="7">
-        <v>31</v>
+        <v>538</v>
       </c>
       <c r="I85" t="n" s="7">
-        <v>141000.0</v>
+        <v>126506.0</v>
       </c>
       <c r="J85" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K85" t="n" s="7">
-        <v>1.5714949E7</v>
+        <v>1.6706406E7</v>
       </c>
       <c r="L85" t="s" s="7">
-        <v>32</v>
+        <v>539</v>
       </c>
       <c r="M85" t="s" s="4">
-        <v>33</v>
+        <v>253</v>
       </c>
       <c r="N85" t="s" s="4">
-        <v>34</v>
+        <v>540</v>
       </c>
       <c r="O85" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P85" t="s" s="4">
-        <v>36</v>
+        <v>541</v>
       </c>
       <c r="Q85" t="s" s="4">
         <v>30</v>
@@ -9052,19 +8962,19 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B86" t="s" s="5">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="C86" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D86" s="6" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="E86" t="s" s="7">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="F86" t="s" s="7">
         <v>29</v>
@@ -9073,31 +8983,31 @@
         <v>30</v>
       </c>
       <c r="H86" t="s" s="7">
-        <v>550</v>
+        <v>244</v>
       </c>
       <c r="I86" t="n" s="7">
-        <v>234000.0</v>
+        <v>30000.0</v>
       </c>
       <c r="J86" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K86" t="n" s="7">
-        <v>1.5573949E7</v>
+        <v>1.65799E7</v>
       </c>
       <c r="L86" t="s" s="7">
-        <v>551</v>
+        <v>245</v>
       </c>
       <c r="M86" t="s" s="4">
-        <v>552</v>
+        <v>246</v>
       </c>
       <c r="N86" t="s" s="4">
-        <v>553</v>
+        <v>247</v>
       </c>
       <c r="O86" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P86" t="s" s="4">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="Q86" t="s" s="4">
         <v>30</v>
@@ -9132,19 +9042,19 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B87" t="s" s="5">
-        <v>83</v>
+        <v>545</v>
       </c>
       <c r="C87" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D87" s="6" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="E87" t="s" s="7">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="F87" t="s" s="7">
         <v>29</v>
@@ -9153,25 +9063,25 @@
         <v>30</v>
       </c>
       <c r="H87" t="s" s="7">
-        <v>556</v>
+        <v>171</v>
       </c>
       <c r="I87" t="n" s="7">
-        <v>80000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="J87" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K87" t="n" s="7">
-        <v>1.5339949E7</v>
+        <v>1.65499E7</v>
       </c>
       <c r="L87" t="s" s="7">
-        <v>557</v>
+        <v>172</v>
       </c>
       <c r="M87" t="s" s="4">
-        <v>558</v>
+        <v>173</v>
       </c>
       <c r="N87" t="s" s="4">
-        <v>559</v>
+        <v>174</v>
       </c>
       <c r="O87" t="s" s="4">
         <v>35</v>
@@ -9212,19 +9122,19 @@
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B88" t="s" s="5">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="C88" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="E88" t="s" s="7">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="F88" t="s" s="7">
         <v>29</v>
@@ -9233,37 +9143,37 @@
         <v>30</v>
       </c>
       <c r="H88" t="s" s="7">
-        <v>563</v>
+        <v>86</v>
       </c>
       <c r="I88" t="n" s="7">
-        <v>50000.0</v>
+        <v>59000.0</v>
       </c>
       <c r="J88" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K88" t="n" s="7">
-        <v>1.5259949E7</v>
+        <v>1.64999E7</v>
       </c>
       <c r="L88" t="s" s="7">
-        <v>564</v>
+        <v>87</v>
       </c>
       <c r="M88" t="s" s="4">
-        <v>565</v>
+        <v>88</v>
       </c>
       <c r="N88" t="s" s="4">
-        <v>566</v>
+        <v>89</v>
       </c>
       <c r="O88" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P88" t="s" s="4">
-        <v>98</v>
+        <v>44</v>
       </c>
       <c r="Q88" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R88" t="s" s="4">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="S88" t="s" s="4">
         <v>30</v>
@@ -9292,19 +9202,19 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B89" t="s" s="5">
-        <v>567</v>
+        <v>551</v>
       </c>
       <c r="C89" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D89" s="6" t="s">
-        <v>568</v>
+        <v>552</v>
       </c>
       <c r="E89" t="s" s="7">
-        <v>569</v>
+        <v>553</v>
       </c>
       <c r="F89" t="s" s="7">
         <v>29</v>
@@ -9313,37 +9223,37 @@
         <v>30</v>
       </c>
       <c r="H89" t="s" s="7">
-        <v>86</v>
+        <v>554</v>
       </c>
       <c r="I89" t="n" s="7">
-        <v>50000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="J89" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K89" t="n" s="7">
-        <v>1.5209949E7</v>
+        <v>1.64409E7</v>
       </c>
       <c r="L89" t="s" s="7">
-        <v>87</v>
+        <v>555</v>
       </c>
       <c r="M89" t="s" s="4">
-        <v>88</v>
+        <v>556</v>
       </c>
       <c r="N89" t="s" s="4">
-        <v>89</v>
+        <v>557</v>
       </c>
       <c r="O89" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P89" t="s" s="4">
-        <v>36</v>
+        <v>231</v>
       </c>
       <c r="Q89" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R89" t="s" s="4">
-        <v>30</v>
+        <v>558</v>
       </c>
       <c r="S89" t="s" s="4">
         <v>30</v>
@@ -9372,19 +9282,19 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B90" t="s" s="5">
-        <v>570</v>
+        <v>123</v>
       </c>
       <c r="C90" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D90" s="6" t="s">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="E90" t="s" s="7">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="F90" t="s" s="7">
         <v>29</v>
@@ -9393,25 +9303,25 @@
         <v>30</v>
       </c>
       <c r="H90" t="s" s="7">
-        <v>573</v>
+        <v>561</v>
       </c>
       <c r="I90" t="n" s="7">
-        <v>50000.0</v>
+        <v>167000.0</v>
       </c>
       <c r="J90" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K90" t="n" s="7">
-        <v>1.5159949E7</v>
+        <v>1.64259E7</v>
       </c>
       <c r="L90" t="s" s="7">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="M90" t="s" s="4">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="N90" t="s" s="4">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="O90" t="s" s="4">
         <v>35</v>
@@ -9452,19 +9362,19 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B91" t="s" s="5">
-        <v>577</v>
+        <v>565</v>
       </c>
       <c r="C91" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D91" s="6" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="E91" t="s" s="7">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="F91" t="s" s="7">
         <v>29</v>
@@ -9473,31 +9383,31 @@
         <v>30</v>
       </c>
       <c r="H91" t="s" s="7">
-        <v>110</v>
+        <v>568</v>
       </c>
       <c r="I91" t="n" s="7">
-        <v>110000.0</v>
+        <v>158000.0</v>
       </c>
       <c r="J91" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K91" t="n" s="7">
-        <v>1.5109949E7</v>
+        <v>1.62589E7</v>
       </c>
       <c r="L91" t="s" s="7">
-        <v>111</v>
+        <v>569</v>
       </c>
       <c r="M91" t="s" s="4">
-        <v>112</v>
+        <v>563</v>
       </c>
       <c r="N91" t="s" s="4">
-        <v>113</v>
+        <v>570</v>
       </c>
       <c r="O91" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P91" t="s" s="4">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="Q91" t="s" s="4">
         <v>30</v>
@@ -9532,19 +9442,19 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B92" t="s" s="5">
-        <v>580</v>
+        <v>571</v>
       </c>
       <c r="C92" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D92" s="6" t="s">
-        <v>581</v>
+        <v>572</v>
       </c>
       <c r="E92" t="s" s="7">
-        <v>582</v>
+        <v>573</v>
       </c>
       <c r="F92" t="s" s="7">
         <v>29</v>
@@ -9553,31 +9463,31 @@
         <v>30</v>
       </c>
       <c r="H92" t="s" s="7">
-        <v>583</v>
+        <v>213</v>
       </c>
       <c r="I92" t="n" s="7">
-        <v>120120.0</v>
+        <v>358212.0</v>
       </c>
       <c r="J92" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K92" t="n" s="7">
-        <v>1.4999949E7</v>
+        <v>1.61009E7</v>
       </c>
       <c r="L92" t="s" s="7">
-        <v>584</v>
+        <v>214</v>
       </c>
       <c r="M92" t="s" s="4">
-        <v>585</v>
+        <v>215</v>
       </c>
       <c r="N92" t="s" s="4">
-        <v>586</v>
+        <v>216</v>
       </c>
       <c r="O92" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P92" t="s" s="4">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="Q92" t="s" s="4">
         <v>30</v>
@@ -9612,19 +9522,19 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B93" t="s" s="5">
-        <v>587</v>
+        <v>137</v>
       </c>
       <c r="C93" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D93" s="6" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="E93" t="s" s="7">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="F93" t="s" s="7">
         <v>29</v>
@@ -9633,7 +9543,7 @@
         <v>30</v>
       </c>
       <c r="H93" t="s" s="7">
-        <v>46</v>
+        <v>220</v>
       </c>
       <c r="I93" t="n" s="7">
         <v>200000.0</v>
@@ -9642,22 +9552,22 @@
         <v>30</v>
       </c>
       <c r="K93" t="n" s="7">
-        <v>1.4879829E7</v>
+        <v>1.5742688E7</v>
       </c>
       <c r="L93" t="s" s="7">
-        <v>47</v>
+        <v>221</v>
       </c>
       <c r="M93" t="s" s="4">
-        <v>48</v>
+        <v>222</v>
       </c>
       <c r="N93" t="s" s="4">
-        <v>49</v>
+        <v>223</v>
       </c>
       <c r="O93" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P93" t="s" s="4">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q93" t="s" s="4">
         <v>30</v>
@@ -9692,19 +9602,19 @@
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B94" t="s" s="5">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="C94" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D94" s="6" t="s">
-        <v>591</v>
+        <v>577</v>
       </c>
       <c r="E94" t="s" s="7">
-        <v>592</v>
+        <v>578</v>
       </c>
       <c r="F94" t="s" s="7">
         <v>29</v>
@@ -9713,37 +9623,37 @@
         <v>30</v>
       </c>
       <c r="H94" t="s" s="7">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="I94" t="n" s="7">
-        <v>250000.0</v>
+        <v>15000.0</v>
       </c>
       <c r="J94" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K94" t="n" s="7">
-        <v>1.4679829E7</v>
+        <v>1.5542688E7</v>
       </c>
       <c r="L94" t="s" s="7">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="M94" t="s" s="4">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="N94" t="s" s="4">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="O94" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P94" t="s" s="4">
-        <v>269</v>
+        <v>44</v>
       </c>
       <c r="Q94" t="s" s="4">
         <v>30</v>
       </c>
       <c r="R94" t="s" s="4">
-        <v>597</v>
+        <v>30</v>
       </c>
       <c r="S94" t="s" s="4">
         <v>30</v>
@@ -9772,19 +9682,19 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B95" t="s" s="5">
-        <v>598</v>
+        <v>583</v>
       </c>
       <c r="C95" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D95" s="6" t="s">
-        <v>599</v>
+        <v>584</v>
       </c>
       <c r="E95" t="s" s="7">
-        <v>600</v>
+        <v>585</v>
       </c>
       <c r="F95" t="s" s="7">
         <v>29</v>
@@ -9793,31 +9703,31 @@
         <v>30</v>
       </c>
       <c r="H95" t="s" s="7">
-        <v>601</v>
+        <v>424</v>
       </c>
       <c r="I95" t="n" s="7">
-        <v>100000.0</v>
+        <v>102000.0</v>
       </c>
       <c r="J95" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K95" t="n" s="7">
-        <v>1.4429829E7</v>
+        <v>1.5527688E7</v>
       </c>
       <c r="L95" t="s" s="7">
-        <v>602</v>
+        <v>425</v>
       </c>
       <c r="M95" t="s" s="4">
-        <v>453</v>
+        <v>426</v>
       </c>
       <c r="N95" t="s" s="4">
-        <v>603</v>
+        <v>427</v>
       </c>
       <c r="O95" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P95" t="s" s="4">
-        <v>98</v>
+        <v>59</v>
       </c>
       <c r="Q95" t="s" s="4">
         <v>30</v>
@@ -9852,19 +9762,19 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B96" t="s" s="5">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="C96" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D96" s="6" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="E96" t="s" s="7">
-        <v>606</v>
+        <v>588</v>
       </c>
       <c r="F96" t="s" s="7">
         <v>29</v>
@@ -9873,31 +9783,31 @@
         <v>30</v>
       </c>
       <c r="H96" t="s" s="7">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="I96" t="n" s="7">
-        <v>157000.0</v>
+        <v>121212.0</v>
       </c>
       <c r="J96" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K96" t="n" s="7">
-        <v>1.4329829E7</v>
+        <v>1.5425688E7</v>
       </c>
       <c r="L96" t="s" s="7">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="M96" t="s" s="4">
-        <v>112</v>
+        <v>74</v>
       </c>
       <c r="N96" t="s" s="4">
-        <v>113</v>
+        <v>82</v>
       </c>
       <c r="O96" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P96" t="s" s="4">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="Q96" t="s" s="4">
         <v>30</v>
@@ -9932,19 +9842,19 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B97" t="s" s="5">
-        <v>607</v>
+        <v>589</v>
       </c>
       <c r="C97" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D97" s="6" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
       <c r="E97" t="s" s="7">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="F97" t="s" s="7">
         <v>29</v>
@@ -9953,31 +9863,31 @@
         <v>30</v>
       </c>
       <c r="H97" t="s" s="7">
-        <v>610</v>
+        <v>405</v>
       </c>
       <c r="I97" t="n" s="7">
-        <v>150000.0</v>
+        <v>10929.0</v>
       </c>
       <c r="J97" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K97" t="n" s="7">
-        <v>1.4172829E7</v>
+        <v>1.5304476E7</v>
       </c>
       <c r="L97" t="s" s="7">
-        <v>611</v>
+        <v>406</v>
       </c>
       <c r="M97" t="s" s="4">
-        <v>612</v>
+        <v>253</v>
       </c>
       <c r="N97" t="s" s="4">
-        <v>613</v>
+        <v>407</v>
       </c>
       <c r="O97" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P97" t="s" s="4">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="Q97" t="s" s="4">
         <v>30</v>
@@ -10012,19 +9922,19 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B98" t="s" s="5">
-        <v>614</v>
+        <v>592</v>
       </c>
       <c r="C98" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D98" s="6" t="s">
-        <v>615</v>
+        <v>593</v>
       </c>
       <c r="E98" t="s" s="7">
-        <v>616</v>
+        <v>594</v>
       </c>
       <c r="F98" t="s" s="7">
         <v>29</v>
@@ -10033,31 +9943,31 @@
         <v>30</v>
       </c>
       <c r="H98" t="s" s="7">
-        <v>617</v>
+        <v>251</v>
       </c>
       <c r="I98" t="n" s="7">
-        <v>302115.0</v>
+        <v>187000.0</v>
       </c>
       <c r="J98" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K98" t="n" s="7">
-        <v>1.4022829E7</v>
+        <v>1.5293547E7</v>
       </c>
       <c r="L98" t="s" s="7">
-        <v>618</v>
+        <v>252</v>
       </c>
       <c r="M98" t="s" s="4">
-        <v>619</v>
+        <v>253</v>
       </c>
       <c r="N98" t="s" s="4">
-        <v>620</v>
+        <v>595</v>
       </c>
       <c r="O98" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P98" t="s" s="4">
-        <v>64</v>
+        <v>44</v>
       </c>
       <c r="Q98" t="s" s="4">
         <v>30</v>
@@ -10092,19 +10002,19 @@
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B99" t="s" s="5">
-        <v>621</v>
+        <v>596</v>
       </c>
       <c r="C99" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D99" s="6" t="s">
-        <v>622</v>
+        <v>597</v>
       </c>
       <c r="E99" t="s" s="7">
-        <v>623</v>
+        <v>598</v>
       </c>
       <c r="F99" t="s" s="7">
         <v>29</v>
@@ -10113,31 +10023,31 @@
         <v>30</v>
       </c>
       <c r="H99" t="s" s="7">
-        <v>624</v>
+        <v>178</v>
       </c>
       <c r="I99" t="n" s="7">
-        <v>60000.0</v>
+        <v>300000.0</v>
       </c>
       <c r="J99" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K99" t="n" s="7">
-        <v>1.3720714E7</v>
+        <v>1.5106547E7</v>
       </c>
       <c r="L99" t="s" s="7">
-        <v>625</v>
+        <v>179</v>
       </c>
       <c r="M99" t="s" s="4">
-        <v>626</v>
+        <v>180</v>
       </c>
       <c r="N99" t="s" s="4">
-        <v>627</v>
+        <v>181</v>
       </c>
       <c r="O99" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P99" t="s" s="4">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q99" t="s" s="4">
         <v>30</v>
@@ -10172,19 +10082,19 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B100" t="s" s="5">
-        <v>628</v>
+        <v>196</v>
       </c>
       <c r="C100" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D100" s="6" t="s">
-        <v>629</v>
+        <v>599</v>
       </c>
       <c r="E100" t="s" s="7">
-        <v>630</v>
+        <v>600</v>
       </c>
       <c r="F100" t="s" s="7">
         <v>29</v>
@@ -10193,31 +10103,31 @@
         <v>30</v>
       </c>
       <c r="H100" t="s" s="7">
-        <v>631</v>
+        <v>601</v>
       </c>
       <c r="I100" t="n" s="7">
-        <v>419000.0</v>
+        <v>50000.0</v>
       </c>
       <c r="J100" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K100" t="n" s="7">
-        <v>1.3660714E7</v>
+        <v>1.4806547E7</v>
       </c>
       <c r="L100" t="s" s="7">
-        <v>632</v>
+        <v>602</v>
       </c>
       <c r="M100" t="s" s="4">
-        <v>633</v>
+        <v>603</v>
       </c>
       <c r="N100" t="s" s="4">
-        <v>634</v>
+        <v>604</v>
       </c>
       <c r="O100" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P100" t="s" s="4">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q100" t="s" s="4">
         <v>30</v>
@@ -10252,19 +10162,19 @@
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" t="n" s="4">
-        <v>45867.0</v>
+        <v>45868.0</v>
       </c>
       <c r="B101" t="s" s="5">
-        <v>635</v>
+        <v>605</v>
       </c>
       <c r="C101" t="n" s="4">
         <v>45868.0</v>
       </c>
       <c r="D101" s="6" t="s">
-        <v>636</v>
+        <v>606</v>
       </c>
       <c r="E101" t="s" s="7">
-        <v>637</v>
+        <v>607</v>
       </c>
       <c r="F101" t="s" s="7">
         <v>29</v>
@@ -10273,31 +10183,31 @@
         <v>30</v>
       </c>
       <c r="H101" t="s" s="7">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="I101" t="n" s="7">
-        <v>749800.0</v>
+        <v>549457.0</v>
       </c>
       <c r="J101" t="s" s="7">
         <v>30</v>
       </c>
       <c r="K101" t="n" s="7">
-        <v>1.3241714E7</v>
+        <v>1.4756547E7</v>
       </c>
       <c r="L101" t="s" s="7">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="M101" t="s" s="4">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="N101" t="s" s="4">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="O101" t="s" s="4">
         <v>35</v>
       </c>
       <c r="P101" t="s" s="4">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="Q101" t="s" s="4">
         <v>30</v>
